--- a/Nemenyi-Cross-Sectional.xlsx
+++ b/Nemenyi-Cross-Sectional.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e00c848d2da39f20/Documents/3. Masters/Research/WindPowerForecasting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="8_{63ADE94E-410A-4C0D-8F01-08D87F8CF346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64C47796-8939-4BED-B2A9-6129534B537E}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="8_{63ADE94E-410A-4C0D-8F01-08D87F8CF346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5E01ACC-226D-4F89-A691-0568CE7BF8A6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EEDB9E72-6745-43F5-85AB-BC96E2F495CA}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{EEDB9E72-6745-43F5-85AB-BC96E2F495CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,10 +160,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -465,27 +461,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD089331-65FA-4BE0-B0F3-2D07DA26ECA7}">
   <dimension ref="A1:X121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="X2" sqref="X2:X121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -559,6667 +560,6667 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.98747753130219995</v>
+        <v>1.01954223361298</v>
       </c>
       <c r="B2">
-        <v>1.0784709007279301</v>
+        <v>1.08688523187883</v>
       </c>
       <c r="C2">
-        <v>0.98747753130219995</v>
+        <v>1.01954223361298</v>
       </c>
       <c r="D2">
-        <v>1.02021479091491</v>
+        <v>1.0564432832645301</v>
       </c>
       <c r="E2">
-        <v>0.99301168657704497</v>
+        <v>1.02662132634825</v>
       </c>
       <c r="F2">
-        <v>0.98666124171407998</v>
+        <v>1.02192412461684</v>
       </c>
       <c r="G2">
-        <v>0.98635415695973006</v>
+        <v>1.0232560637229</v>
       </c>
       <c r="H2">
-        <v>1.0614353954587701</v>
+        <v>1.06464481985759</v>
       </c>
       <c r="I2">
-        <v>0.98635415695973006</v>
+        <v>1.0232560637229</v>
       </c>
       <c r="J2">
-        <v>1.0104317267674401</v>
+        <v>1.04333198348207</v>
       </c>
       <c r="K2">
-        <v>0.982610540143668</v>
+        <v>1.0204885683275</v>
       </c>
       <c r="L2">
-        <v>0.98244475038630896</v>
+        <v>1.0281353455919899</v>
       </c>
       <c r="M2">
-        <v>0.95365096153906503</v>
+        <v>0.963744194627697</v>
       </c>
       <c r="N2">
-        <v>0.98724496030962905</v>
+        <v>0.98561052417299899</v>
       </c>
       <c r="O2">
-        <v>0.95365096153906503</v>
+        <v>0.963744194627697</v>
       </c>
       <c r="P2">
-        <v>0.96541691763732396</v>
+        <v>0.97507127672308302</v>
       </c>
       <c r="Q2">
-        <v>0.95466546425786303</v>
+        <v>0.96497369232735397</v>
       </c>
       <c r="R2">
-        <v>0.95280425191152696</v>
+        <v>0.96414048159349297</v>
       </c>
       <c r="S2">
-        <v>0.94339941913073</v>
+        <v>0.96357050378850695</v>
       </c>
       <c r="T2">
-        <v>0.96692278063616599</v>
+        <v>0.96951317244848101</v>
       </c>
       <c r="U2">
-        <v>0.94339941913073</v>
+        <v>0.96357050378850695</v>
       </c>
       <c r="V2">
-        <v>0.95246069446966497</v>
+        <v>0.961827657332185</v>
       </c>
       <c r="W2">
-        <v>0.93899425652861901</v>
+        <v>0.95704960870377398</v>
       </c>
       <c r="X2">
-        <v>0.93723991258994799</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.96009149863014198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>1.0253506465898099</v>
+        <v>1.0353880826804001</v>
       </c>
       <c r="B3">
-        <v>1.06997094859028</v>
+        <v>1.0598993082283501</v>
       </c>
       <c r="C3">
-        <v>1.0042455857786201</v>
+        <v>1.0067572359969901</v>
       </c>
       <c r="D3">
-        <v>1.0253506465898099</v>
+        <v>1.0353880826804001</v>
       </c>
       <c r="E3">
-        <v>1.00981016228612</v>
+        <v>1.0140183154761599</v>
       </c>
       <c r="F3">
-        <v>1.01368817551413</v>
+        <v>1.0096698421852</v>
       </c>
       <c r="G3">
-        <v>1.0303380553378501</v>
+        <v>1.04967450009146</v>
       </c>
       <c r="H3">
-        <v>1.0456059590265001</v>
+        <v>1.0582429692576401</v>
       </c>
       <c r="I3">
-        <v>1.01891478363904</v>
+        <v>1.03495953620401</v>
       </c>
       <c r="J3">
-        <v>1.0303380553378501</v>
+        <v>1.04967450009146</v>
       </c>
       <c r="K3">
-        <v>1.0103836796668599</v>
+        <v>1.0296116916328499</v>
       </c>
       <c r="L3">
-        <v>0.99670070626297902</v>
+        <v>1.0255990594403299</v>
       </c>
       <c r="M3">
-        <v>0.97093812190016404</v>
+        <v>0.96397394523897495</v>
       </c>
       <c r="N3">
-        <v>0.979578134627349</v>
+        <v>0.96964991291174496</v>
       </c>
       <c r="O3">
-        <v>0.96412734206047601</v>
+        <v>0.95682690222760303</v>
       </c>
       <c r="P3">
-        <v>0.97093812190016404</v>
+        <v>0.96397394523897495</v>
       </c>
       <c r="Q3">
-        <v>0.96423351024702197</v>
+        <v>0.957722515937382</v>
       </c>
       <c r="R3">
-        <v>0.96147050936781298</v>
+        <v>0.95673209967879802</v>
       </c>
       <c r="S3">
-        <v>0.96082917205793394</v>
+        <v>0.97018866701390405</v>
       </c>
       <c r="T3">
-        <v>0.94797351640900696</v>
+        <v>0.95747620262741895</v>
       </c>
       <c r="U3">
-        <v>0.95767783549015395</v>
+        <v>0.97202280251599904</v>
       </c>
       <c r="V3">
-        <v>0.96082917205793394</v>
+        <v>0.97018866701390405</v>
       </c>
       <c r="W3">
-        <v>0.949335051333004</v>
+        <v>0.96295024796701201</v>
       </c>
       <c r="X3">
-        <v>0.93241961843229804</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.951551035388575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>1.00280397113511</v>
+        <v>1.0140937313563201</v>
       </c>
       <c r="B4">
-        <v>1.04496083659281</v>
+        <v>1.03650146633569</v>
       </c>
       <c r="C4">
-        <v>0.98301263536667405</v>
+        <v>0.98759418397833598</v>
       </c>
       <c r="D4">
-        <v>1.00280397113511</v>
+        <v>1.0140937313563201</v>
       </c>
       <c r="E4">
-        <v>0.98852971796081102</v>
+        <v>0.99583654946561995</v>
       </c>
       <c r="F4">
-        <v>0.98014010842672405</v>
+        <v>0.99014233227140402</v>
       </c>
       <c r="G4">
-        <v>1.02090836446652</v>
+        <v>1.0154406234987501</v>
       </c>
       <c r="H4">
-        <v>1.04184539819632</v>
+        <v>1.0279145901059099</v>
       </c>
       <c r="I4">
-        <v>1.01262890785769</v>
+        <v>1.01105447825355</v>
       </c>
       <c r="J4">
-        <v>1.02090836446652</v>
+        <v>1.0154406234987501</v>
       </c>
       <c r="K4">
-        <v>1.0054569056125</v>
+        <v>1.00386498905664</v>
       </c>
       <c r="L4">
-        <v>0.99760961827472905</v>
+        <v>1.0075371514002001</v>
       </c>
       <c r="M4">
-        <v>0.96865658702965596</v>
+        <v>0.95983609011975302</v>
       </c>
       <c r="N4">
-        <v>0.98458476361119895</v>
+        <v>0.965160495813838</v>
       </c>
       <c r="O4">
-        <v>0.96051264356323596</v>
+        <v>0.95036790507296198</v>
       </c>
       <c r="P4">
-        <v>0.96865658702965696</v>
+        <v>0.95983609011975302</v>
       </c>
       <c r="Q4">
-        <v>0.96150627473985595</v>
+        <v>0.95291129135337005</v>
       </c>
       <c r="R4">
-        <v>0.95215927076528095</v>
+        <v>0.94712003496904895</v>
       </c>
       <c r="S4">
-        <v>0.97505119630361403</v>
+        <v>0.95769237161658005</v>
       </c>
       <c r="T4">
-        <v>0.97630883948383396</v>
+        <v>0.95479965029871505</v>
       </c>
       <c r="U4">
-        <v>0.96994989042229196</v>
+        <v>0.96309297364371904</v>
       </c>
       <c r="V4">
-        <v>0.97505119630361403</v>
+        <v>0.95769237161658005</v>
       </c>
       <c r="W4">
-        <v>0.96425815585872099</v>
+        <v>0.95271796328583302</v>
       </c>
       <c r="X4">
-        <v>0.95552241121484605</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.94831657156196003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>1.02951151938774</v>
+        <v>1.02772956820254</v>
       </c>
       <c r="B5">
-        <v>1.04583152219516</v>
+        <v>1.0349327353529001</v>
       </c>
       <c r="C5">
-        <v>1.0088806587902099</v>
+        <v>1.00248413876543</v>
       </c>
       <c r="D5">
-        <v>1.02951151938774</v>
+        <v>1.02772956820254</v>
       </c>
       <c r="E5">
-        <v>1.0043212540859301</v>
+        <v>0.99233217309987998</v>
       </c>
       <c r="F5">
-        <v>0.99121454824053801</v>
+        <v>0.99224880896350798</v>
       </c>
       <c r="G5">
-        <v>1.0426295989388801</v>
+        <v>1.03908842338664</v>
       </c>
       <c r="H5">
-        <v>1.04842998050986</v>
+        <v>1.04274583698973</v>
       </c>
       <c r="I5">
-        <v>1.03169115874161</v>
+        <v>1.0286799423084401</v>
       </c>
       <c r="J5">
-        <v>1.0426295989388801</v>
+        <v>1.03908842338664</v>
       </c>
       <c r="K5">
-        <v>1.0358874571139201</v>
+        <v>1.03698203386556</v>
       </c>
       <c r="L5">
-        <v>1.00505400888213</v>
+        <v>1.0198901231697499</v>
       </c>
       <c r="M5">
-        <v>0.97936170366056896</v>
+        <v>0.96344741898028896</v>
       </c>
       <c r="N5">
-        <v>0.98288333258447702</v>
+        <v>0.96411563246355503</v>
       </c>
       <c r="O5">
-        <v>0.97118425284857202</v>
+        <v>0.95305485331218198</v>
       </c>
       <c r="P5">
-        <v>0.97936170366056896</v>
+        <v>0.96344741898028896</v>
       </c>
       <c r="Q5">
-        <v>0.969258446933144</v>
+        <v>0.95005321224382</v>
       </c>
       <c r="R5">
-        <v>0.95630129429773603</v>
+        <v>0.94281569793522801</v>
       </c>
       <c r="S5">
-        <v>0.98477286232532502</v>
+        <v>0.96977255767308002</v>
       </c>
       <c r="T5">
-        <v>0.97490262472691702</v>
+        <v>0.96533874948224796</v>
       </c>
       <c r="U5">
-        <v>0.97879333839217197</v>
+        <v>0.96937248105373397</v>
       </c>
       <c r="V5">
-        <v>0.98477286232532502</v>
+        <v>0.96977255767308002</v>
       </c>
       <c r="W5">
-        <v>0.98263759505030501</v>
+        <v>0.97865062577092898</v>
       </c>
       <c r="X5">
-        <v>0.95873886922321905</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.96016345474982001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>1.02400628809316</v>
+        <v>1.0415213213802399</v>
       </c>
       <c r="B6">
-        <v>1.0515049313623099</v>
+        <v>1.0563335723373799</v>
       </c>
       <c r="C6">
-        <v>1.0056056749265301</v>
+        <v>1.01827279505822</v>
       </c>
       <c r="D6">
-        <v>1.02400628809316</v>
+        <v>1.0415213213802399</v>
       </c>
       <c r="E6">
-        <v>1.00823118161504</v>
+        <v>1.0233434428942301</v>
       </c>
       <c r="F6">
-        <v>1.0050559828105801</v>
+        <v>1.0198295209984201</v>
       </c>
       <c r="G6">
-        <v>1.0266049181541499</v>
+        <v>1.0454004541155399</v>
       </c>
       <c r="H6">
-        <v>1.0446894360425101</v>
+        <v>1.0497490654983399</v>
       </c>
       <c r="I6">
-        <v>1.01406613613753</v>
+        <v>1.03504344190758</v>
       </c>
       <c r="J6">
-        <v>1.0266049181541499</v>
+        <v>1.0454004541155399</v>
       </c>
       <c r="K6">
-        <v>1.0058661364164501</v>
+        <v>1.02720244036222</v>
       </c>
       <c r="L6">
-        <v>0.99700454706809805</v>
+        <v>1.02141266131951</v>
       </c>
       <c r="M6">
-        <v>0.97496602128135401</v>
+        <v>0.96199340444957104</v>
       </c>
       <c r="N6">
-        <v>0.98421053657042901</v>
+        <v>0.96504225185617998</v>
       </c>
       <c r="O6">
-        <v>0.96915168953989905</v>
+        <v>0.95695544607457195</v>
       </c>
       <c r="P6">
-        <v>0.97496602128135401</v>
+        <v>0.96199340444957104</v>
       </c>
       <c r="Q6">
-        <v>0.96905257372739495</v>
+        <v>0.95553764848364497</v>
       </c>
       <c r="R6">
-        <v>0.96750518203929503</v>
+        <v>0.95283254369419501</v>
       </c>
       <c r="S6">
-        <v>0.97576918588987005</v>
+        <v>0.97070184965309603</v>
       </c>
       <c r="T6">
-        <v>0.980191658748364</v>
+        <v>0.96258112105599303</v>
       </c>
       <c r="U6">
-        <v>0.96864859869128495</v>
+        <v>0.96993175378841101</v>
       </c>
       <c r="V6">
-        <v>0.97576918588987005</v>
+        <v>0.97070184965309603</v>
       </c>
       <c r="W6">
-        <v>0.96282196318730096</v>
+        <v>0.96085411439623303</v>
       </c>
       <c r="X6">
-        <v>0.96097230136030098</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.95555365427358496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>1.04562995176727</v>
+        <v>1.04059017949423</v>
       </c>
       <c r="B7">
-        <v>1.04562995176727</v>
+        <v>1.04059017949423</v>
       </c>
       <c r="C7">
-        <v>0.99691554179583997</v>
+        <v>0.99149696037317403</v>
       </c>
       <c r="D7">
-        <v>1.0138599285605201</v>
+        <v>1.01769694776856</v>
       </c>
       <c r="E7">
-        <v>1.00189308077551</v>
+        <v>1.0005139347618801</v>
       </c>
       <c r="F7">
-        <v>1.00076414226194</v>
+        <v>0.99347282339788401</v>
       </c>
       <c r="G7">
-        <v>1.0639273879414</v>
+        <v>1.0664674534447101</v>
       </c>
       <c r="H7">
-        <v>1.0639273879414</v>
+        <v>1.0664674534447101</v>
       </c>
       <c r="I7">
-        <v>1.0553258781634101</v>
+        <v>1.05018782235237</v>
       </c>
       <c r="J7">
-        <v>1.06651106981997</v>
+        <v>1.06320460436925</v>
       </c>
       <c r="K7">
-        <v>1.0457233195100799</v>
+        <v>1.04546047589547</v>
       </c>
       <c r="L7">
-        <v>1.02696176170585</v>
+        <v>1.0385345124760399</v>
       </c>
       <c r="M7">
-        <v>0.96832346234667899</v>
+        <v>0.96624900148367598</v>
       </c>
       <c r="N7">
-        <v>0.96832346234667899</v>
+        <v>0.96624900148367598</v>
       </c>
       <c r="O7">
-        <v>0.95342665384000502</v>
+        <v>0.94965873404344703</v>
       </c>
       <c r="P7">
-        <v>0.95996851807383599</v>
+        <v>0.958283713427456</v>
       </c>
       <c r="Q7">
-        <v>0.95348480412796</v>
+        <v>0.95156504846996703</v>
       </c>
       <c r="R7">
-        <v>0.95123602179837496</v>
+        <v>0.95086121052308303</v>
       </c>
       <c r="S7">
-        <v>0.97262722206180596</v>
+        <v>0.98325859174786201</v>
       </c>
       <c r="T7">
-        <v>0.97262722206180596</v>
+        <v>0.98325859174786201</v>
       </c>
       <c r="U7">
-        <v>0.98340295427979996</v>
+        <v>0.99318196741683396</v>
       </c>
       <c r="V7">
-        <v>0.98774127154916103</v>
+        <v>0.99295338856257698</v>
       </c>
       <c r="W7">
-        <v>0.97476974411561002</v>
+        <v>0.98527893582110304</v>
       </c>
       <c r="X7">
-        <v>0.95972811156435101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.97582018977984897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>1.0605787177353101</v>
+        <v>1.0437192318040101</v>
       </c>
       <c r="B8">
-        <v>1.0605787177353101</v>
+        <v>1.0437192318040101</v>
       </c>
       <c r="C8">
-        <v>1.0143204113472299</v>
+        <v>1.00001566350382</v>
       </c>
       <c r="D8">
-        <v>1.0303820375102699</v>
+        <v>1.0252434409548701</v>
       </c>
       <c r="E8">
-        <v>1.01813993401076</v>
+        <v>1.0071048423332201</v>
       </c>
       <c r="F8">
-        <v>1.0205340213266301</v>
+        <v>0.99969968064867398</v>
       </c>
       <c r="G8">
-        <v>1.0619700381463799</v>
+        <v>1.05916154254232</v>
       </c>
       <c r="H8">
-        <v>1.0619700381463799</v>
+        <v>1.05916154254232</v>
       </c>
       <c r="I8">
-        <v>1.0464702449813399</v>
+        <v>1.0444108351872401</v>
       </c>
       <c r="J8">
-        <v>1.05511701361205</v>
+        <v>1.05508745916799</v>
       </c>
       <c r="K8">
-        <v>1.0414715920247599</v>
+        <v>1.0444201355999301</v>
       </c>
       <c r="L8">
-        <v>1.02757458671714</v>
+        <v>1.03488502122916</v>
       </c>
       <c r="M8">
-        <v>0.98082938105946005</v>
+        <v>0.93990376513461904</v>
       </c>
       <c r="N8">
-        <v>0.98082938105946005</v>
+        <v>0.93990376513461904</v>
       </c>
       <c r="O8">
-        <v>0.96855704542315801</v>
+        <v>0.93000708673094101</v>
       </c>
       <c r="P8">
-        <v>0.97401417915732302</v>
+        <v>0.93650612651619403</v>
       </c>
       <c r="Q8">
-        <v>0.96736566228911303</v>
+        <v>0.93147132523126397</v>
       </c>
       <c r="R8">
-        <v>0.96622171926852796</v>
+        <v>0.92888142373521199</v>
       </c>
       <c r="S8">
-        <v>0.96676335342810804</v>
+        <v>0.93432706502128604</v>
       </c>
       <c r="T8">
-        <v>0.96676335342810804</v>
+        <v>0.93432706502128604</v>
       </c>
       <c r="U8">
-        <v>0.96951658460705903</v>
+        <v>0.94340474102716099</v>
       </c>
       <c r="V8">
-        <v>0.97519944844971196</v>
+        <v>0.94324931013307101</v>
       </c>
       <c r="W8">
-        <v>0.96442497026696306</v>
+        <v>0.940718629921244</v>
       </c>
       <c r="X8">
-        <v>0.95321990052005501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.931786323800043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>1.0512527127607201</v>
+        <v>1.04901335616485</v>
       </c>
       <c r="B9">
-        <v>1.0512527127607201</v>
+        <v>1.04901335616485</v>
       </c>
       <c r="C9">
-        <v>1.0099056255735499</v>
+        <v>1.0039270595631999</v>
       </c>
       <c r="D9">
-        <v>1.0239028608198399</v>
+        <v>1.0284488222252599</v>
       </c>
       <c r="E9">
-        <v>1.0139022036137899</v>
+        <v>1.0106774531652001</v>
       </c>
       <c r="F9">
-        <v>1.0170389953322301</v>
+        <v>1.0087310210935301</v>
       </c>
       <c r="G9">
-        <v>1.0414561881489801</v>
+        <v>1.0661234338714101</v>
       </c>
       <c r="H9">
-        <v>1.0414561881489801</v>
+        <v>1.0661234338714101</v>
       </c>
       <c r="I9">
-        <v>1.0264335492577601</v>
+        <v>1.0434454640183</v>
       </c>
       <c r="J9">
-        <v>1.0351063518222301</v>
+        <v>1.0591774616199701</v>
       </c>
       <c r="K9">
-        <v>1.01991786194255</v>
+        <v>1.0394235194897501</v>
       </c>
       <c r="L9">
-        <v>1.0118901765091799</v>
+        <v>1.03927278159338</v>
       </c>
       <c r="M9">
-        <v>0.98247218176968798</v>
+        <v>0.96593877266806205</v>
       </c>
       <c r="N9">
-        <v>0.98247218176968798</v>
+        <v>0.96593877266806205</v>
       </c>
       <c r="O9">
-        <v>0.97261562262980505</v>
+        <v>0.95691855612800503</v>
       </c>
       <c r="P9">
-        <v>0.97681395853518305</v>
+        <v>0.96113992639600498</v>
       </c>
       <c r="Q9">
-        <v>0.97282798611550403</v>
+        <v>0.95734949923542501</v>
       </c>
       <c r="R9">
-        <v>0.97059806511193802</v>
+        <v>0.96071648218841699</v>
       </c>
       <c r="S9">
-        <v>0.96112337263241698</v>
+        <v>0.96576340217941004</v>
       </c>
       <c r="T9">
-        <v>0.96112337263241698</v>
+        <v>0.96576340217941004</v>
       </c>
       <c r="U9">
-        <v>0.96532620939735503</v>
+        <v>0.97540004987011597</v>
       </c>
       <c r="V9">
-        <v>0.96789976219860097</v>
+        <v>0.97447938675664303</v>
       </c>
       <c r="W9">
-        <v>0.959915607569375</v>
+        <v>0.96952720572391804</v>
       </c>
       <c r="X9">
-        <v>0.948595566032858</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.96278876246524003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>1.04643495385692</v>
+        <v>1.0459984597429199</v>
       </c>
       <c r="B10">
-        <v>1.04643495385692</v>
+        <v>1.0459984597429199</v>
       </c>
       <c r="C10">
-        <v>1.01091155303844</v>
+        <v>1.00867944037547</v>
       </c>
       <c r="D10">
-        <v>1.0230421394774201</v>
+        <v>1.0297908006862</v>
       </c>
       <c r="E10">
-        <v>1.01489946958393</v>
+        <v>1.0139438893975401</v>
       </c>
       <c r="F10">
-        <v>1.0157231125916599</v>
+        <v>1.0084799567790199</v>
       </c>
       <c r="G10">
-        <v>1.05455554112067</v>
+        <v>1.07094524456311</v>
       </c>
       <c r="H10">
-        <v>1.05455554112067</v>
+        <v>1.07094524456311</v>
       </c>
       <c r="I10">
-        <v>1.0540545354049</v>
+        <v>1.05898943534274</v>
       </c>
       <c r="J10">
-        <v>1.05560525640026</v>
+        <v>1.0678978039390301</v>
       </c>
       <c r="K10">
-        <v>1.0439855573644601</v>
+        <v>1.0529023540671401</v>
       </c>
       <c r="L10">
-        <v>1.02972205557606</v>
+        <v>1.04810389201451</v>
       </c>
       <c r="M10">
-        <v>0.97606914414797996</v>
+        <v>0.96237607157666405</v>
       </c>
       <c r="N10">
-        <v>0.97606914414797996</v>
+        <v>0.96237607157666405</v>
       </c>
       <c r="O10">
-        <v>0.96719588350062802</v>
+        <v>0.95686179877807198</v>
       </c>
       <c r="P10">
-        <v>0.97130753426939298</v>
+        <v>0.960992796279035</v>
       </c>
       <c r="Q10">
-        <v>0.96944501060004395</v>
+        <v>0.95682718238936404</v>
       </c>
       <c r="R10">
-        <v>0.96604057656491704</v>
+        <v>0.95199210318671701</v>
       </c>
       <c r="S10">
-        <v>0.96014828966643395</v>
+        <v>0.96600798035576296</v>
       </c>
       <c r="T10">
-        <v>0.96014828966643395</v>
+        <v>0.96600798035576296</v>
       </c>
       <c r="U10">
-        <v>0.97093283185559898</v>
+        <v>0.97915698685257102</v>
       </c>
       <c r="V10">
-        <v>0.97192254230527797</v>
+        <v>0.97547117687667295</v>
       </c>
       <c r="W10">
-        <v>0.96573462750669203</v>
+        <v>0.97047052462445504</v>
       </c>
       <c r="X10">
-        <v>0.95365793418021705</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.96315386007418802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>1.0509338912002999</v>
+        <v>1.0434423728145401</v>
       </c>
       <c r="B11">
-        <v>1.0509338912002999</v>
+        <v>1.0434423728145401</v>
       </c>
       <c r="C11">
-        <v>1.00725318520055</v>
+        <v>1.0032142402317901</v>
       </c>
       <c r="D11">
-        <v>1.0223826537705401</v>
+        <v>1.0264254098754899</v>
       </c>
       <c r="E11">
-        <v>1.01191615197806</v>
+        <v>1.00922246645783</v>
       </c>
       <c r="F11">
-        <v>1.0138418908458999</v>
+        <v>1.00170848868533</v>
       </c>
       <c r="G11">
-        <v>1.0698437094175499</v>
+        <v>1.0618337689263799</v>
       </c>
       <c r="H11">
-        <v>1.0698437094175499</v>
+        <v>1.0618337689263799</v>
       </c>
       <c r="I11">
-        <v>1.05528361840316</v>
+        <v>1.04747568036806</v>
       </c>
       <c r="J11">
-        <v>1.05930493282107</v>
+        <v>1.05870560085387</v>
       </c>
       <c r="K11">
-        <v>1.04764499091237</v>
+        <v>1.0422044529094801</v>
       </c>
       <c r="L11">
-        <v>1.0403465708088599</v>
+        <v>1.0358957896248</v>
       </c>
       <c r="M11">
-        <v>0.97548278028930202</v>
+        <v>0.96472811707732298</v>
       </c>
       <c r="N11">
-        <v>0.97548278028930202</v>
+        <v>0.96472811707732298</v>
       </c>
       <c r="O11">
-        <v>0.96963830000856799</v>
+        <v>0.95846967616837997</v>
       </c>
       <c r="P11">
-        <v>0.972453587273713</v>
+        <v>0.96296000057123499</v>
       </c>
       <c r="Q11">
-        <v>0.97028044507496403</v>
+        <v>0.95847746261981004</v>
       </c>
       <c r="R11">
-        <v>0.96789913492493795</v>
+        <v>0.95624237380644195</v>
       </c>
       <c r="S11">
-        <v>0.96968774730614304</v>
+        <v>0.95521933044057095</v>
       </c>
       <c r="T11">
-        <v>0.96968774730614304</v>
+        <v>0.95521933044057095</v>
       </c>
       <c r="U11">
-        <v>0.977733991529246</v>
+        <v>0.96328386467997995</v>
       </c>
       <c r="V11">
-        <v>0.97875907572823395</v>
+        <v>0.96457477982108297</v>
       </c>
       <c r="W11">
-        <v>0.97110095495478899</v>
+        <v>0.95714680373784999</v>
       </c>
       <c r="X11">
-        <v>0.96198069862639202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.94884785666270999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>1.0736930562262901</v>
+        <v>1.0563707945843499</v>
       </c>
       <c r="B12">
-        <v>1.0736930562262901</v>
+        <v>1.0563707945843499</v>
       </c>
       <c r="C12">
-        <v>1.02063663796003</v>
+        <v>1.0094536111705801</v>
       </c>
       <c r="D12">
-        <v>1.0376886034736399</v>
+        <v>1.0328323643392701</v>
       </c>
       <c r="E12">
-        <v>1.0277645765889101</v>
+        <v>1.0174262617587</v>
       </c>
       <c r="F12">
-        <v>1.0291421670377701</v>
+        <v>1.01562844895972</v>
       </c>
       <c r="G12">
-        <v>1.0696364434469601</v>
+        <v>1.07857385426932</v>
       </c>
       <c r="H12">
-        <v>1.0696364434469601</v>
+        <v>1.07857385426932</v>
       </c>
       <c r="I12">
-        <v>1.0583671826924701</v>
+        <v>1.0613228443020699</v>
       </c>
       <c r="J12">
-        <v>1.0637220273014001</v>
+        <v>1.0723073597545001</v>
       </c>
       <c r="K12">
-        <v>1.05241775820614</v>
+        <v>1.0596299356588501</v>
       </c>
       <c r="L12">
-        <v>1.04219278239992</v>
+        <v>1.0528816301634301</v>
       </c>
       <c r="M12">
-        <v>0.98356982658047798</v>
+        <v>0.96321940398938899</v>
       </c>
       <c r="N12">
-        <v>0.98356982658047798</v>
+        <v>0.96321940398938899</v>
       </c>
       <c r="O12">
-        <v>0.97051700096528504</v>
+        <v>0.94925326419719303</v>
       </c>
       <c r="P12">
-        <v>0.974641576514087</v>
+        <v>0.95516577268284397</v>
       </c>
       <c r="Q12">
-        <v>0.971255082479618</v>
+        <v>0.95074607467060801</v>
       </c>
       <c r="R12">
-        <v>0.97190293736494304</v>
+        <v>0.95325759974583502</v>
       </c>
       <c r="S12">
-        <v>0.96973734391237598</v>
+        <v>0.97081862178101797</v>
       </c>
       <c r="T12">
-        <v>0.96973734391237598</v>
+        <v>0.97081862178101797</v>
       </c>
       <c r="U12">
-        <v>0.97718977428699405</v>
+        <v>0.97981953072557604</v>
       </c>
       <c r="V12">
-        <v>0.97785525841085896</v>
+        <v>0.98138465076284698</v>
       </c>
       <c r="W12">
-        <v>0.97087888874094497</v>
+        <v>0.97413348999767602</v>
       </c>
       <c r="X12">
-        <v>0.96164949882141604</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.96414643315752402</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>1.04639380440147</v>
+        <v>1.0452483765243299</v>
       </c>
       <c r="B13">
-        <v>1.04639380440147</v>
+        <v>1.0452483765243299</v>
       </c>
       <c r="C13">
-        <v>1.0020193473313801</v>
+        <v>1.0069822037013101</v>
       </c>
       <c r="D13">
-        <v>1.01632376206036</v>
+        <v>1.02751466038087</v>
       </c>
       <c r="E13">
-        <v>1.0050348681827701</v>
+        <v>1.01238883295246</v>
       </c>
       <c r="F13">
-        <v>1.0067033704745501</v>
+        <v>1.00924618300493</v>
       </c>
       <c r="G13">
-        <v>1.0538222694639101</v>
+        <v>1.0521166658909</v>
       </c>
       <c r="H13">
-        <v>1.0538222694639101</v>
+        <v>1.0521166658909</v>
       </c>
       <c r="I13">
-        <v>1.0434424133996201</v>
+        <v>1.0458932760619599</v>
       </c>
       <c r="J13">
-        <v>1.0469021190376999</v>
+        <v>1.04789085963895</v>
       </c>
       <c r="K13">
-        <v>1.03281647514497</v>
+        <v>1.0375111679734299</v>
       </c>
       <c r="L13">
-        <v>1.0240565298837101</v>
+        <v>1.0327917060364999</v>
       </c>
       <c r="M13">
-        <v>0.98042261634438199</v>
+        <v>0.961999569686383</v>
       </c>
       <c r="N13">
-        <v>0.98042261634438199</v>
+        <v>0.961999569686383</v>
       </c>
       <c r="O13">
-        <v>0.96906238103228604</v>
+        <v>0.95304641990484795</v>
       </c>
       <c r="P13">
-        <v>0.97426088119511101</v>
+        <v>0.95848543631458105</v>
       </c>
       <c r="Q13">
-        <v>0.96874556251063604</v>
+        <v>0.95379764341627704</v>
       </c>
       <c r="R13">
-        <v>0.96575160319297404</v>
+        <v>0.95161028515572499</v>
       </c>
       <c r="S13">
-        <v>0.970291436264895</v>
+        <v>0.95559599694148001</v>
       </c>
       <c r="T13">
-        <v>0.970291436264895</v>
+        <v>0.95559599694148001</v>
       </c>
       <c r="U13">
-        <v>0.97973675535777005</v>
+        <v>0.97415788244101598</v>
       </c>
       <c r="V13">
-        <v>0.97972989180806502</v>
+        <v>0.96793756497240302</v>
       </c>
       <c r="W13">
-        <v>0.96995665469775705</v>
+        <v>0.96269093324402</v>
       </c>
       <c r="X13">
-        <v>0.95926116708183495</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.95380221224404604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>1.03517421335377</v>
+        <v>1.03743694485446</v>
       </c>
       <c r="B14">
-        <v>1.03517421335377</v>
+        <v>1.03743694485446</v>
       </c>
       <c r="C14">
-        <v>0.99807697709725696</v>
+        <v>0.99907560160986197</v>
       </c>
       <c r="D14">
-        <v>1.0115030661804201</v>
+        <v>1.02071073190721</v>
       </c>
       <c r="E14">
-        <v>1.001232623383</v>
+        <v>1.00674612799068</v>
       </c>
       <c r="F14">
-        <v>0.997450752109167</v>
+        <v>1.0040933554943701</v>
       </c>
       <c r="G14">
-        <v>1.04429812289261</v>
+        <v>1.0473877730374199</v>
       </c>
       <c r="H14">
-        <v>1.04429812289261</v>
+        <v>1.0473877730374199</v>
       </c>
       <c r="I14">
-        <v>1.02733241088215</v>
+        <v>1.0304589532952899</v>
       </c>
       <c r="J14">
-        <v>1.03631511834797</v>
+        <v>1.0309529234591801</v>
       </c>
       <c r="K14">
-        <v>1.0242749321176701</v>
+        <v>1.02526111706795</v>
       </c>
       <c r="L14">
-        <v>1.0182310964666601</v>
+        <v>1.0284013430752901</v>
       </c>
       <c r="M14">
-        <v>0.97083571432147497</v>
+        <v>0.95790368563328199</v>
       </c>
       <c r="N14">
-        <v>0.97083571432147497</v>
+        <v>0.95790368563328199</v>
       </c>
       <c r="O14">
-        <v>0.95412122606455596</v>
+        <v>0.94618196583800596</v>
       </c>
       <c r="P14">
-        <v>0.96069516282554202</v>
+        <v>0.95326689290676303</v>
       </c>
       <c r="Q14">
-        <v>0.95560825243274605</v>
+        <v>0.94807844456674994</v>
       </c>
       <c r="R14">
-        <v>0.95072181981445802</v>
+        <v>0.94403087156861598</v>
       </c>
       <c r="S14">
-        <v>0.97263296922176801</v>
+        <v>0.96184791134586201</v>
       </c>
       <c r="T14">
-        <v>0.97263296922176801</v>
+        <v>0.96184791134586201</v>
       </c>
       <c r="U14">
-        <v>0.96532708328855099</v>
+        <v>0.96291502034424303</v>
       </c>
       <c r="V14">
-        <v>0.97113562833890699</v>
+        <v>0.95631741016447902</v>
       </c>
       <c r="W14">
-        <v>0.96212063728606001</v>
+        <v>0.95380160414287396</v>
       </c>
       <c r="X14">
-        <v>0.95954783682534095</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.95568352759487896</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>1.04364133883963</v>
+        <v>1.0336054317727901</v>
       </c>
       <c r="B15">
-        <v>1.04364133883963</v>
+        <v>1.0336054317727901</v>
       </c>
       <c r="C15">
-        <v>0.99603680195952604</v>
+        <v>0.99270034116744299</v>
       </c>
       <c r="D15">
-        <v>1.01282106074156</v>
+        <v>1.0166345428083501</v>
       </c>
       <c r="E15">
-        <v>1.0017241616300001</v>
+        <v>1.0009261132973299</v>
       </c>
       <c r="F15">
-        <v>0.99512636971295099</v>
+        <v>0.99280325108952505</v>
       </c>
       <c r="G15">
-        <v>1.0571465626935701</v>
+        <v>1.0501066569214399</v>
       </c>
       <c r="H15">
-        <v>1.0571465626935701</v>
+        <v>1.0501066569214399</v>
       </c>
       <c r="I15">
-        <v>1.0313289719238601</v>
+        <v>1.0266843288224501</v>
       </c>
       <c r="J15">
-        <v>1.041541414753</v>
+        <v>1.0349118840546701</v>
       </c>
       <c r="K15">
-        <v>1.02830504103933</v>
+        <v>1.02339689179919</v>
       </c>
       <c r="L15">
-        <v>1.02494174535031</v>
+        <v>1.0261895522914599</v>
       </c>
       <c r="M15">
-        <v>0.97515633113967304</v>
+        <v>0.96390205556617303</v>
       </c>
       <c r="N15">
-        <v>0.97515633113967304</v>
+        <v>0.96390205556617303</v>
       </c>
       <c r="O15">
-        <v>0.95807594976998101</v>
+        <v>0.952612257218033</v>
       </c>
       <c r="P15">
-        <v>0.96425397421167403</v>
+        <v>0.96047821863737703</v>
       </c>
       <c r="Q15">
-        <v>0.95846620759849099</v>
+        <v>0.954150982035187</v>
       </c>
       <c r="R15">
-        <v>0.95374824791469304</v>
+        <v>0.94745587058015601</v>
       </c>
       <c r="S15">
-        <v>0.98128804325164198</v>
+        <v>0.96953713214411297</v>
       </c>
       <c r="T15">
-        <v>0.98128804325164198</v>
+        <v>0.96953713214411297</v>
       </c>
       <c r="U15">
-        <v>0.97423345730061495</v>
+        <v>0.96874564650557304</v>
       </c>
       <c r="V15">
-        <v>0.97940991424460699</v>
+        <v>0.96654832630046605</v>
       </c>
       <c r="W15">
-        <v>0.97010556592007702</v>
+        <v>0.96227556911591206</v>
       </c>
       <c r="X15">
-        <v>0.96689017452798598</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.95987741943956695</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>1.02799205109253</v>
+        <v>1.0284835421280101</v>
       </c>
       <c r="B16">
-        <v>1.02799205109253</v>
+        <v>1.0284835421280101</v>
       </c>
       <c r="C16">
-        <v>0.99425936714306395</v>
+        <v>0.99745494821536895</v>
       </c>
       <c r="D16">
-        <v>1.0051795688198899</v>
+        <v>1.0149218959389501</v>
       </c>
       <c r="E16">
-        <v>0.99828463534283296</v>
+        <v>1.0042314426703001</v>
       </c>
       <c r="F16">
-        <v>0.99290288193596199</v>
+        <v>0.99820770008956605</v>
       </c>
       <c r="G16">
-        <v>1.0375753280645099</v>
+        <v>1.0488327290884001</v>
       </c>
       <c r="H16">
-        <v>1.0375753280645099</v>
+        <v>1.0488327290884001</v>
       </c>
       <c r="I16">
-        <v>1.03565149554581</v>
+        <v>1.0496406480981499</v>
       </c>
       <c r="J16">
-        <v>1.0353390069639501</v>
+        <v>1.0456418422106399</v>
       </c>
       <c r="K16">
-        <v>1.02571221294981</v>
+        <v>1.0361252254403099</v>
       </c>
       <c r="L16">
-        <v>1.0161898848559601</v>
+        <v>1.0343219901093299</v>
       </c>
       <c r="M16">
-        <v>0.95901255709754496</v>
+        <v>0.95998430838853599</v>
       </c>
       <c r="N16">
-        <v>0.95901255709754496</v>
+        <v>0.95998430838853599</v>
       </c>
       <c r="O16">
-        <v>0.95226289209710602</v>
+        <v>0.95683857671770201</v>
       </c>
       <c r="P16">
-        <v>0.95432986239843198</v>
+        <v>0.95934784857842803</v>
       </c>
       <c r="Q16">
-        <v>0.95331695125337101</v>
+        <v>0.95612491385279996</v>
       </c>
       <c r="R16">
-        <v>0.947429905803024</v>
+        <v>0.95002673822092598</v>
       </c>
       <c r="S16">
-        <v>0.94529946455005498</v>
+        <v>0.968356535809483</v>
       </c>
       <c r="T16">
-        <v>0.94529946455005498</v>
+        <v>0.968356535809483</v>
       </c>
       <c r="U16">
-        <v>0.95584917927141999</v>
+        <v>0.98567720230031797</v>
       </c>
       <c r="V16">
-        <v>0.95559919043966501</v>
+        <v>0.97595707835544498</v>
       </c>
       <c r="W16">
-        <v>0.94896924552709006</v>
+        <v>0.97026048106113205</v>
       </c>
       <c r="X16">
-        <v>0.93974606861417298</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.96378464015212795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>1.04041424316015</v>
+        <v>1.0250487504525001</v>
       </c>
       <c r="B17">
-        <v>1.04041424316015</v>
+        <v>1.0250487504525001</v>
       </c>
       <c r="C17">
-        <v>0.99748913471981404</v>
+        <v>0.98259573392226696</v>
       </c>
       <c r="D17">
-        <v>1.0116866507059701</v>
+        <v>1.0062591085763699</v>
       </c>
       <c r="E17">
-        <v>1.0035998342616499</v>
+        <v>0.99021586264883399</v>
       </c>
       <c r="F17">
-        <v>1.00013767302117</v>
+        <v>0.98710839524759997</v>
       </c>
       <c r="G17">
-        <v>1.0466405580578</v>
+        <v>1.02091633243238</v>
       </c>
       <c r="H17">
-        <v>1.0466405580578</v>
+        <v>1.02091633243238</v>
       </c>
       <c r="I17">
-        <v>1.0209942558799401</v>
+        <v>1.0004136797927099</v>
       </c>
       <c r="J17">
-        <v>1.0275959602039999</v>
+        <v>1.0095524727339</v>
       </c>
       <c r="K17">
-        <v>1.01785949387116</v>
+        <v>1.00026700576509</v>
       </c>
       <c r="L17">
-        <v>1.01579448268394</v>
+        <v>1.00103638832021</v>
       </c>
       <c r="M17">
-        <v>0.97450304597033899</v>
+        <v>0.95278708113217903</v>
       </c>
       <c r="N17">
-        <v>0.97450304597033899</v>
+        <v>0.95278708113217903</v>
       </c>
       <c r="O17">
-        <v>0.95682640833750998</v>
+        <v>0.93726987624923697</v>
       </c>
       <c r="P17">
-        <v>0.96336891683561598</v>
+        <v>0.94703400947297001</v>
       </c>
       <c r="Q17">
-        <v>0.95968045828951098</v>
+        <v>0.94089688057167897</v>
       </c>
       <c r="R17">
-        <v>0.95487836036832596</v>
+        <v>0.93772890290584399</v>
       </c>
       <c r="S17">
-        <v>0.975161741737541</v>
+        <v>0.94993460485296599</v>
       </c>
       <c r="T17">
-        <v>0.975161741737541</v>
+        <v>0.94993460485296599</v>
       </c>
       <c r="U17">
-        <v>0.96553290286285098</v>
+        <v>0.94455052879564005</v>
       </c>
       <c r="V17">
-        <v>0.96998544794890595</v>
+        <v>0.94750631956174103</v>
       </c>
       <c r="W17">
-        <v>0.96292475725115401</v>
+        <v>0.94306591307020105</v>
       </c>
       <c r="X17">
-        <v>0.95954349333019195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.942039868220232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>1.0139007485720599</v>
+        <v>1.0196706368705799</v>
       </c>
       <c r="B18">
-        <v>1.0139007485720599</v>
+        <v>1.0196706368705799</v>
       </c>
       <c r="C18">
-        <v>0.98080444991903304</v>
+        <v>0.98495184462111696</v>
       </c>
       <c r="D18">
-        <v>0.99111901015574499</v>
+        <v>1.0027815305580201</v>
       </c>
       <c r="E18">
-        <v>0.98435583118224801</v>
+        <v>0.99082115465337395</v>
       </c>
       <c r="F18">
-        <v>0.98517084305149105</v>
+        <v>0.99392319547769503</v>
       </c>
       <c r="G18">
-        <v>1.0304143833763799</v>
+        <v>1.03465883816824</v>
       </c>
       <c r="H18">
-        <v>1.0304143833763799</v>
+        <v>1.03465883816824</v>
       </c>
       <c r="I18">
-        <v>1.0210177549063699</v>
+        <v>1.02141588087471</v>
       </c>
       <c r="J18">
-        <v>1.02250748560761</v>
+        <v>1.0259404027990799</v>
       </c>
       <c r="K18">
-        <v>1.0159799781987899</v>
+        <v>1.01847437864572</v>
       </c>
       <c r="L18">
-        <v>1.0100215956313801</v>
+        <v>1.0204564943658301</v>
       </c>
       <c r="M18">
-        <v>0.96969129022032097</v>
+        <v>0.95542306940607402</v>
       </c>
       <c r="N18">
-        <v>0.96969129022032097</v>
+        <v>0.95542306940607402</v>
       </c>
       <c r="O18">
-        <v>0.95107031424121702</v>
+        <v>0.94582100967877902</v>
       </c>
       <c r="P18">
-        <v>0.95779104222758304</v>
+        <v>0.95180897866241498</v>
       </c>
       <c r="Q18">
-        <v>0.95260207311226397</v>
+        <v>0.94801172597031003</v>
       </c>
       <c r="R18">
-        <v>0.94906429099948697</v>
+        <v>0.94681346135301503</v>
       </c>
       <c r="S18">
-        <v>0.98728782172450502</v>
+        <v>0.96641808282728803</v>
       </c>
       <c r="T18">
-        <v>0.98728782172450502</v>
+        <v>0.96641808282728803</v>
       </c>
       <c r="U18">
-        <v>0.98414627791231202</v>
+        <v>0.97931452272882402</v>
       </c>
       <c r="V18">
-        <v>0.98315957992122605</v>
+        <v>0.97346219611291096</v>
       </c>
       <c r="W18">
-        <v>0.97876835876282997</v>
+        <v>0.96941525094792402</v>
       </c>
       <c r="X18">
-        <v>0.97462714402332495</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.96357457313803496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>1.0326693222637799</v>
+        <v>1.0427471428521</v>
       </c>
       <c r="B19">
-        <v>1.0326693222637799</v>
+        <v>1.0427471428521</v>
       </c>
       <c r="C19">
-        <v>0.99933200492716101</v>
+        <v>1.00637355444371</v>
       </c>
       <c r="D19">
-        <v>1.0089887299560401</v>
+        <v>1.0263023269706</v>
       </c>
       <c r="E19">
-        <v>1.00141710429999</v>
+        <v>1.01237329385676</v>
       </c>
       <c r="F19">
-        <v>0.99769618823627304</v>
+        <v>1.00582448149546</v>
       </c>
       <c r="G19">
-        <v>1.0506220057051101</v>
+        <v>1.06766831687949</v>
       </c>
       <c r="H19">
-        <v>1.0506220057051101</v>
+        <v>1.06766831687949</v>
       </c>
       <c r="I19">
-        <v>1.0394120073905599</v>
+        <v>1.0566842445754401</v>
       </c>
       <c r="J19">
-        <v>1.0409983837379799</v>
+        <v>1.0607173508655701</v>
       </c>
       <c r="K19">
-        <v>1.0336217107250401</v>
+        <v>1.0531922835185801</v>
       </c>
       <c r="L19">
-        <v>1.0285604540565201</v>
+        <v>1.0535550235259299</v>
       </c>
       <c r="M19">
-        <v>0.97401769963464802</v>
+        <v>0.96003630719119304</v>
       </c>
       <c r="N19">
-        <v>0.97401769963464802</v>
+        <v>0.96003630719119304</v>
       </c>
       <c r="O19">
-        <v>0.96476464395345396</v>
+        <v>0.94487636211125403</v>
       </c>
       <c r="P19">
-        <v>0.96789082111654101</v>
+        <v>0.95473579279554299</v>
       </c>
       <c r="Q19">
-        <v>0.96290795641337001</v>
+        <v>0.94652536231441597</v>
       </c>
       <c r="R19">
-        <v>0.95618138914181305</v>
+        <v>0.94034610592019796</v>
       </c>
       <c r="S19">
-        <v>0.98654123323196197</v>
+        <v>0.98107892408068897</v>
       </c>
       <c r="T19">
-        <v>0.98654123323196197</v>
+        <v>0.98107892408068897</v>
       </c>
       <c r="U19">
-        <v>0.98893820082262496</v>
+        <v>0.98701047878200499</v>
       </c>
       <c r="V19">
-        <v>0.98964201398600005</v>
+        <v>0.98166867371377298</v>
       </c>
       <c r="W19">
-        <v>0.98498472421050898</v>
+        <v>0.97866784150444197</v>
       </c>
       <c r="X19">
-        <v>0.97868672446610405</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.97740605682866399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>1.03396965683181</v>
+        <v>1.00876995379965</v>
       </c>
       <c r="B20">
-        <v>1.03396965683181</v>
+        <v>1.00876995379965</v>
       </c>
       <c r="C20">
-        <v>0.99321559852086305</v>
+        <v>0.97451039977966603</v>
       </c>
       <c r="D20">
-        <v>1.0057700077679499</v>
+        <v>0.99306964221210103</v>
       </c>
       <c r="E20">
-        <v>0.99465556187258097</v>
+        <v>0.979470157941984</v>
       </c>
       <c r="F20">
-        <v>0.99173693019794695</v>
+        <v>0.97483646648220401</v>
       </c>
       <c r="G20">
-        <v>1.0504554378619999</v>
+        <v>1.03029722954432</v>
       </c>
       <c r="H20">
-        <v>1.0504554378619999</v>
+        <v>1.03029722954432</v>
       </c>
       <c r="I20">
-        <v>1.02587406958522</v>
+        <v>1.0172058872759899</v>
       </c>
       <c r="J20">
-        <v>1.03231073533704</v>
+        <v>1.0213064702894099</v>
       </c>
       <c r="K20">
-        <v>1.02520273875868</v>
+        <v>1.0176289306512301</v>
       </c>
       <c r="L20">
-        <v>1.02004628704055</v>
+        <v>1.01645026357954</v>
       </c>
       <c r="M20">
-        <v>0.97256624142221004</v>
+        <v>0.93776921688585801</v>
       </c>
       <c r="N20">
-        <v>0.97256624142221004</v>
+        <v>0.93776921688585801</v>
       </c>
       <c r="O20">
-        <v>0.95892617159721505</v>
+        <v>0.92829740026586804</v>
       </c>
       <c r="P20">
-        <v>0.963233611942652</v>
+        <v>0.93404999686406198</v>
       </c>
       <c r="Q20">
-        <v>0.96053792397947702</v>
+        <v>0.93012801910929399</v>
       </c>
       <c r="R20">
-        <v>0.95610664993313899</v>
+        <v>0.92651215469496395</v>
       </c>
       <c r="S20">
-        <v>0.98740064834577401</v>
+        <v>0.95584132275947997</v>
       </c>
       <c r="T20">
-        <v>0.98740064834577401</v>
+        <v>0.95584132275947997</v>
       </c>
       <c r="U20">
-        <v>0.98192141123435905</v>
+        <v>0.96761686510100497</v>
       </c>
       <c r="V20">
-        <v>0.98584310377644202</v>
+        <v>0.96142886717202303</v>
       </c>
       <c r="W20">
-        <v>0.98133192963302196</v>
+        <v>0.96263681425761205</v>
       </c>
       <c r="X20">
-        <v>0.976079576724459</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.95491006648605103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>1.03153452232734</v>
+        <v>1.01613150186537</v>
       </c>
       <c r="B21">
-        <v>1.03153452232734</v>
+        <v>1.01613150186537</v>
       </c>
       <c r="C21">
-        <v>0.99283482195556805</v>
+        <v>0.97857956952089498</v>
       </c>
       <c r="D21">
-        <v>1.00446172947923</v>
+        <v>0.99898455969927402</v>
       </c>
       <c r="E21">
-        <v>0.995624000348725</v>
+        <v>0.98509773398967804</v>
       </c>
       <c r="F21">
-        <v>0.98928243025787799</v>
+        <v>0.98303317307274796</v>
       </c>
       <c r="G21">
-        <v>1.04552461463099</v>
+        <v>1.02617461194793</v>
       </c>
       <c r="H21">
-        <v>1.04552461463099</v>
+        <v>1.02617461194793</v>
       </c>
       <c r="I21">
-        <v>1.0245476103992299</v>
+        <v>1.0108029880898199</v>
       </c>
       <c r="J21">
-        <v>1.02876708200654</v>
+        <v>1.0140904823400301</v>
       </c>
       <c r="K21">
-        <v>1.02214577573842</v>
+        <v>1.0089916445485501</v>
       </c>
       <c r="L21">
-        <v>1.0185061993512601</v>
+        <v>1.01044399346192</v>
       </c>
       <c r="M21">
-        <v>0.97061071397640897</v>
+        <v>0.94774117364982802</v>
       </c>
       <c r="N21">
-        <v>0.97061071397640897</v>
+        <v>0.94774117364982802</v>
       </c>
       <c r="O21">
-        <v>0.95734995727029704</v>
+        <v>0.93718335733984204</v>
       </c>
       <c r="P21">
-        <v>0.961126995186106</v>
+        <v>0.94366347238249904</v>
       </c>
       <c r="Q21">
-        <v>0.95807215556287595</v>
+        <v>0.93872463737442902</v>
       </c>
       <c r="R21">
-        <v>0.95108452597499704</v>
+        <v>0.93516103802240702</v>
       </c>
       <c r="S21">
-        <v>0.98211474393171305</v>
+        <v>0.95489899103022602</v>
       </c>
       <c r="T21">
-        <v>0.98211474393171305</v>
+        <v>0.95489899103022602</v>
       </c>
       <c r="U21">
-        <v>0.97601300397264601</v>
+        <v>0.96254179785767702</v>
       </c>
       <c r="V21">
-        <v>0.97778944081229602</v>
+        <v>0.95951584875246998</v>
       </c>
       <c r="W21">
-        <v>0.97384349658428304</v>
+        <v>0.95585365958684398</v>
       </c>
       <c r="X21">
-        <v>0.97028722835745995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.95212102151406497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>1.05826610585583</v>
+        <v>1.0491326959332401</v>
       </c>
       <c r="B22">
-        <v>1.05826610585583</v>
+        <v>1.0491326959332401</v>
       </c>
       <c r="C22">
-        <v>1.05999677219674</v>
+        <v>1.0345221241531599</v>
       </c>
       <c r="D22">
-        <v>1.04746927052245</v>
+        <v>1.03769729187699</v>
       </c>
       <c r="E22">
-        <v>1.0256018877722199</v>
+        <v>1.0193187720234</v>
       </c>
       <c r="F22">
-        <v>1.02092922121007</v>
+        <v>1.0150163238155501</v>
       </c>
       <c r="G22">
-        <v>1.13768167272507</v>
+        <v>1.0797442606932901</v>
       </c>
       <c r="H22">
-        <v>1.13768167272507</v>
+        <v>1.0797442606932901</v>
       </c>
       <c r="I22">
-        <v>1.16251314254213</v>
+        <v>1.1173161060931001</v>
       </c>
       <c r="J22">
-        <v>1.1483783623377299</v>
+        <v>1.0970194433831499</v>
       </c>
       <c r="K22">
-        <v>1.10695066448028</v>
+        <v>1.0633689441669101</v>
       </c>
       <c r="L22">
-        <v>1.1028787986331201</v>
+        <v>1.0666636805198499</v>
       </c>
       <c r="M22">
-        <v>0.97533433493876898</v>
+        <v>0.94564644747999105</v>
       </c>
       <c r="N22">
-        <v>0.97533433493876898</v>
+        <v>0.94564644747999105</v>
       </c>
       <c r="O22">
-        <v>0.97610637078026397</v>
+        <v>0.94402458510509402</v>
       </c>
       <c r="P22">
-        <v>0.97002659174602601</v>
+        <v>0.94402288260779899</v>
       </c>
       <c r="Q22">
-        <v>0.96038040393095403</v>
+        <v>0.93888807847559197</v>
       </c>
       <c r="R22">
-        <v>0.95438261360642196</v>
+        <v>0.93227803970966905</v>
       </c>
       <c r="S22">
-        <v>0.987640581323323</v>
+        <v>0.95878665769396298</v>
       </c>
       <c r="T22">
-        <v>0.987640581323323</v>
+        <v>0.95878665769396298</v>
       </c>
       <c r="U22">
-        <v>1.00731102465845</v>
+        <v>0.98631333733384696</v>
       </c>
       <c r="V22">
-        <v>0.99991035650075299</v>
+        <v>0.97343046970259295</v>
       </c>
       <c r="W22">
-        <v>0.97998619986274704</v>
+        <v>0.95794564889484002</v>
       </c>
       <c r="X22">
-        <v>0.97478571357472299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.95656379284825899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>1.0398996234464899</v>
+        <v>1.0364346832235001</v>
       </c>
       <c r="B23">
-        <v>1.0398996234464899</v>
+        <v>1.0364346832235001</v>
       </c>
       <c r="C23">
-        <v>1.0070591094267001</v>
+        <v>1.00155963722051</v>
       </c>
       <c r="D23">
-        <v>1.0243679293668799</v>
+        <v>1.0287484816136101</v>
       </c>
       <c r="E23">
-        <v>1.0038539169826599</v>
+        <v>0.99329387876931696</v>
       </c>
       <c r="F23">
-        <v>0.99389386983454397</v>
+        <v>0.99370329978738703</v>
       </c>
       <c r="G23">
-        <v>1.0583003771441899</v>
+        <v>1.0445568412694799</v>
       </c>
       <c r="H23">
-        <v>1.0583003771441899</v>
+        <v>1.0445568412694799</v>
       </c>
       <c r="I23">
-        <v>1.0478494250131001</v>
+        <v>1.0375385169727001</v>
       </c>
       <c r="J23">
-        <v>1.05600498421542</v>
+        <v>1.04358797336608</v>
       </c>
       <c r="K23">
-        <v>1.0484580338912699</v>
+        <v>1.0443570213465301</v>
       </c>
       <c r="L23">
-        <v>1.0256846902266299</v>
+        <v>1.02308607937735</v>
       </c>
       <c r="M23">
-        <v>0.97310844407991004</v>
+        <v>0.95656335317964902</v>
       </c>
       <c r="N23">
-        <v>0.97310844407991004</v>
+        <v>0.95656335317964902</v>
       </c>
       <c r="O23">
-        <v>0.964755043479682</v>
+        <v>0.94726506797391796</v>
       </c>
       <c r="P23">
-        <v>0.97089435749306097</v>
+        <v>0.95673502583226</v>
       </c>
       <c r="Q23">
-        <v>0.963705627163704</v>
+        <v>0.94580610541654098</v>
       </c>
       <c r="R23">
-        <v>0.95021756654006495</v>
+        <v>0.937833828713734</v>
       </c>
       <c r="S23">
-        <v>0.973372421342105</v>
+        <v>0.96847881938572</v>
       </c>
       <c r="T23">
-        <v>0.973372421342105</v>
+        <v>0.96847881938572</v>
       </c>
       <c r="U23">
-        <v>0.97731886083207498</v>
+        <v>0.973787043959358</v>
       </c>
       <c r="V23">
-        <v>0.98141031704275095</v>
+        <v>0.97303671962543503</v>
       </c>
       <c r="W23">
-        <v>0.97813596586361495</v>
+        <v>0.97959498820266799</v>
       </c>
       <c r="X23">
-        <v>0.96132330661016496</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.96314378455048699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>1.03943888205801</v>
+        <v>1.0248355873107999</v>
       </c>
       <c r="B24">
-        <v>1.03943888205801</v>
+        <v>1.0248355873107999</v>
       </c>
       <c r="C24">
-        <v>1.00742235609297</v>
+        <v>0.99612975793968705</v>
       </c>
       <c r="D24">
-        <v>1.02487633756176</v>
+        <v>1.0186029086830399</v>
       </c>
       <c r="E24">
-        <v>1.0036692272413601</v>
+        <v>0.98716573379189199</v>
       </c>
       <c r="F24">
-        <v>0.99426417490874897</v>
+        <v>0.98493470582932596</v>
       </c>
       <c r="G24">
-        <v>1.05314536854171</v>
+        <v>1.04993547124494</v>
       </c>
       <c r="H24">
-        <v>1.05314536854171</v>
+        <v>1.04993547124494</v>
       </c>
       <c r="I24">
-        <v>1.04212835716215</v>
+        <v>1.03435862494126</v>
       </c>
       <c r="J24">
-        <v>1.05370041903128</v>
+        <v>1.04592410842304</v>
       </c>
       <c r="K24">
-        <v>1.0459786836646401</v>
+        <v>1.0429205807505499</v>
       </c>
       <c r="L24">
-        <v>1.0197049628138299</v>
+        <v>1.02992325360556</v>
       </c>
       <c r="M24">
-        <v>0.98163189748562696</v>
+        <v>0.95654306506126097</v>
       </c>
       <c r="N24">
-        <v>0.98163189748562696</v>
+        <v>0.95654306506126097</v>
       </c>
       <c r="O24">
-        <v>0.972482527971821</v>
+        <v>0.94856113463247704</v>
       </c>
       <c r="P24">
-        <v>0.97936872028557398</v>
+        <v>0.95686938383166098</v>
       </c>
       <c r="Q24">
-        <v>0.97082691633769203</v>
+        <v>0.94719505220646905</v>
       </c>
       <c r="R24">
-        <v>0.95883713556857497</v>
+        <v>0.94016530994668801</v>
       </c>
       <c r="S24">
-        <v>0.99363089754061995</v>
+        <v>0.96674848181954298</v>
       </c>
       <c r="T24">
-        <v>0.99363089754061995</v>
+        <v>0.96674848181954298</v>
       </c>
       <c r="U24">
-        <v>0.99655148353173995</v>
+        <v>0.96945309866018903</v>
       </c>
       <c r="V24">
-        <v>1.00182391847133</v>
+        <v>0.97056542431494996</v>
       </c>
       <c r="W24">
-        <v>1.0004046946754801</v>
+        <v>0.978939156648446</v>
       </c>
       <c r="X24">
-        <v>0.98068946600173601</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.96316925861973801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>1.0428569326316799</v>
+        <v>1.02615855605854</v>
       </c>
       <c r="B25">
-        <v>1.0428569326316799</v>
+        <v>1.02615855605854</v>
       </c>
       <c r="C25">
-        <v>1.01092423370778</v>
+        <v>0.99669167419606797</v>
       </c>
       <c r="D25">
-        <v>1.0282207204337701</v>
+        <v>1.0186528380103801</v>
       </c>
       <c r="E25">
-        <v>1.0066601576902099</v>
+        <v>0.987659678112214</v>
       </c>
       <c r="F25">
-        <v>1.0001458379207699</v>
+        <v>0.98723818718815604</v>
       </c>
       <c r="G25">
-        <v>1.0450976776113701</v>
+        <v>1.0434548540277599</v>
       </c>
       <c r="H25">
-        <v>1.0450976776113701</v>
+        <v>1.0434548540277599</v>
       </c>
       <c r="I25">
-        <v>1.0340103176119799</v>
+        <v>1.0351282385007901</v>
       </c>
       <c r="J25">
-        <v>1.04476137352237</v>
+        <v>1.0397362294889001</v>
       </c>
       <c r="K25">
-        <v>1.0388946265908401</v>
+        <v>1.04416275365529</v>
       </c>
       <c r="L25">
-        <v>1.00967254975983</v>
+        <v>1.02404558007901</v>
       </c>
       <c r="M25">
-        <v>0.98204788138743604</v>
+        <v>0.96072632332158203</v>
       </c>
       <c r="N25">
-        <v>0.98204788138743604</v>
+        <v>0.96072632332158203</v>
       </c>
       <c r="O25">
-        <v>0.96989045592342704</v>
+        <v>0.94832675687788903</v>
       </c>
       <c r="P25">
-        <v>0.97719382605984495</v>
+        <v>0.95851697166915495</v>
       </c>
       <c r="Q25">
-        <v>0.96832334852669699</v>
+        <v>0.94269415695112302</v>
       </c>
       <c r="R25">
-        <v>0.96192266995016595</v>
+        <v>0.93733771392285303</v>
       </c>
       <c r="S25">
-        <v>0.97758866277988898</v>
+        <v>0.96954156187443297</v>
       </c>
       <c r="T25">
-        <v>0.97758866277988898</v>
+        <v>0.96954156187443297</v>
       </c>
       <c r="U25">
-        <v>0.98085043081521806</v>
+        <v>0.97291585920903401</v>
       </c>
       <c r="V25">
-        <v>0.98596152579838003</v>
+        <v>0.97275449692151295</v>
       </c>
       <c r="W25">
-        <v>0.98523111175536704</v>
+        <v>0.98204810838576595</v>
       </c>
       <c r="X25">
-        <v>0.96316860889387301</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.96478540537496804</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>1.04218316692513</v>
+        <v>1.0532476771888</v>
       </c>
       <c r="B26">
-        <v>1.04218316692513</v>
+        <v>1.0532476771888</v>
       </c>
       <c r="C26">
-        <v>1.00473254774753</v>
+        <v>1.0190473455851701</v>
       </c>
       <c r="D26">
-        <v>1.0224269805666999</v>
+        <v>1.0418859191730201</v>
       </c>
       <c r="E26">
-        <v>1.0070658238785899</v>
+        <v>1.0244524788409</v>
       </c>
       <c r="F26">
-        <v>1.00200315694122</v>
+        <v>1.01644233515117</v>
       </c>
       <c r="G26">
-        <v>1.0442921536730301</v>
+        <v>1.06381648453887</v>
       </c>
       <c r="H26">
-        <v>1.0442921536730301</v>
+        <v>1.06381648453887</v>
       </c>
       <c r="I26">
-        <v>1.03059000825466</v>
+        <v>1.0599405285258401</v>
       </c>
       <c r="J26">
-        <v>1.0333264361760599</v>
+        <v>1.06852245105391</v>
       </c>
       <c r="K26">
-        <v>1.0198640701545201</v>
+        <v>1.0566206276082799</v>
       </c>
       <c r="L26">
-        <v>1.0137935783526999</v>
+        <v>1.0454995315726601</v>
       </c>
       <c r="M26">
-        <v>0.97700583033813404</v>
+        <v>0.956147790388717</v>
       </c>
       <c r="N26">
-        <v>0.97700583033813404</v>
+        <v>0.956147790388717</v>
       </c>
       <c r="O26">
-        <v>0.96590181459034397</v>
+        <v>0.94906783375999904</v>
       </c>
       <c r="P26">
-        <v>0.97073862282182899</v>
+        <v>0.95442087234401096</v>
       </c>
       <c r="Q26">
-        <v>0.96495305084441096</v>
+        <v>0.94868590548903098</v>
       </c>
       <c r="R26">
-        <v>0.96393964895219897</v>
+        <v>0.94573506492227899</v>
       </c>
       <c r="S26">
-        <v>0.97396062282836904</v>
+        <v>0.96839567686330996</v>
       </c>
       <c r="T26">
-        <v>0.97396062282836904</v>
+        <v>0.96839567686330996</v>
       </c>
       <c r="U26">
-        <v>0.96868988111183696</v>
+        <v>0.97759852724873797</v>
       </c>
       <c r="V26">
-        <v>0.97108959067288503</v>
+        <v>0.97664335676511205</v>
       </c>
       <c r="W26">
-        <v>0.96160462813325598</v>
+        <v>0.97109344002404996</v>
       </c>
       <c r="X26">
-        <v>0.96090145847202701</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.96606383848438504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>1.05057006102771</v>
+        <v>1.0450997602563401</v>
       </c>
       <c r="B27">
-        <v>1.05057006102771</v>
+        <v>1.0450997602563401</v>
       </c>
       <c r="C27">
-        <v>1.0139566248705001</v>
+        <v>1.0143191020368401</v>
       </c>
       <c r="D27">
-        <v>1.0283280506157899</v>
+        <v>1.03414197267893</v>
       </c>
       <c r="E27">
-        <v>1.01876951340908</v>
+        <v>1.0192263263211001</v>
       </c>
       <c r="F27">
-        <v>1.0157327370665901</v>
+        <v>1.01468450991545</v>
       </c>
       <c r="G27">
-        <v>1.0554668647325101</v>
+        <v>1.05179176478713</v>
       </c>
       <c r="H27">
-        <v>1.0554668647325101</v>
+        <v>1.05179176478713</v>
       </c>
       <c r="I27">
-        <v>1.03854683782747</v>
+        <v>1.0442967970458199</v>
       </c>
       <c r="J27">
-        <v>1.04577970107647</v>
+        <v>1.0514093191552101</v>
       </c>
       <c r="K27">
-        <v>1.02952985925827</v>
+        <v>1.0366670944235601</v>
       </c>
       <c r="L27">
-        <v>1.0218526322058501</v>
+        <v>1.0279568109108701</v>
       </c>
       <c r="M27">
-        <v>0.97935388784815702</v>
+        <v>0.95427494990217698</v>
       </c>
       <c r="N27">
-        <v>0.97935388784815702</v>
+        <v>0.95427494990217698</v>
       </c>
       <c r="O27">
-        <v>0.96982162711029696</v>
+        <v>0.95251157882079496</v>
       </c>
       <c r="P27">
-        <v>0.97356265187870406</v>
+        <v>0.95399077217102302</v>
       </c>
       <c r="Q27">
-        <v>0.96988537486269499</v>
+        <v>0.95087340400153197</v>
       </c>
       <c r="R27">
-        <v>0.96898291008781401</v>
+        <v>0.94666919177057196</v>
       </c>
       <c r="S27">
-        <v>0.98632282580393704</v>
+        <v>0.96181731345212595</v>
       </c>
       <c r="T27">
-        <v>0.98632282580393704</v>
+        <v>0.96181731345212595</v>
       </c>
       <c r="U27">
-        <v>0.98364993822425095</v>
+        <v>0.97120875761550995</v>
       </c>
       <c r="V27">
-        <v>0.98825459723960396</v>
+        <v>0.97256787235216902</v>
       </c>
       <c r="W27">
-        <v>0.97673004600905</v>
+        <v>0.96214740905284502</v>
       </c>
       <c r="X27">
-        <v>0.97405322170859099</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.95642758293266095</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>1.0544376265302899</v>
+        <v>1.0657547210198099</v>
       </c>
       <c r="B28">
-        <v>1.0544376265302899</v>
+        <v>1.0657547210198099</v>
       </c>
       <c r="C28">
-        <v>1.01995563133386</v>
+        <v>1.02967127684649</v>
       </c>
       <c r="D28">
-        <v>1.0327867284958001</v>
+        <v>1.0516788173976901</v>
       </c>
       <c r="E28">
-        <v>1.0232087470661699</v>
+        <v>1.03628824551492</v>
       </c>
       <c r="F28">
-        <v>1.0241251566276199</v>
+        <v>1.0346601930372401</v>
       </c>
       <c r="G28">
-        <v>1.0617709311736201</v>
+        <v>1.0818780659103799</v>
       </c>
       <c r="H28">
-        <v>1.0617709311736201</v>
+        <v>1.0818780659103799</v>
       </c>
       <c r="I28">
-        <v>1.0414792795001999</v>
+        <v>1.06307741405514</v>
       </c>
       <c r="J28">
-        <v>1.04879412254684</v>
+        <v>1.0752411246090401</v>
       </c>
       <c r="K28">
-        <v>1.0340291693058301</v>
+        <v>1.05811455309529</v>
       </c>
       <c r="L28">
-        <v>1.0292993831745301</v>
+        <v>1.0569255966830999</v>
       </c>
       <c r="M28">
-        <v>0.97931645369494402</v>
+        <v>0.962955741680111</v>
       </c>
       <c r="N28">
-        <v>0.97931645369494402</v>
+        <v>0.962955741680111</v>
       </c>
       <c r="O28">
-        <v>0.97174870417158898</v>
+        <v>0.95633111231631396</v>
       </c>
       <c r="P28">
-        <v>0.97505621981411905</v>
+        <v>0.96107646949971703</v>
       </c>
       <c r="Q28">
-        <v>0.97118847800951302</v>
+        <v>0.95616532305974899</v>
       </c>
       <c r="R28">
-        <v>0.97080374711995099</v>
+        <v>0.95411884212353204</v>
       </c>
       <c r="S28">
-        <v>0.98165291330863402</v>
+        <v>0.98191146079418701</v>
       </c>
       <c r="T28">
-        <v>0.98165291330863402</v>
+        <v>0.98191146079418701</v>
       </c>
       <c r="U28">
-        <v>0.978275888882147</v>
+        <v>0.98376402382796801</v>
       </c>
       <c r="V28">
-        <v>0.98335277153767497</v>
+        <v>0.988666518440251</v>
       </c>
       <c r="W28">
-        <v>0.974516957214557</v>
+        <v>0.97662177756671797</v>
       </c>
       <c r="X28">
-        <v>0.97313810094588604</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.97683237201520401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>1.03643031055269</v>
+        <v>1.0512504458460801</v>
       </c>
       <c r="B29">
-        <v>1.03643031055269</v>
+        <v>1.0512504458460801</v>
       </c>
       <c r="C29">
-        <v>1.0023225648592999</v>
+        <v>1.01290149300221</v>
       </c>
       <c r="D29">
-        <v>1.0140790207149999</v>
+        <v>1.03568179875866</v>
       </c>
       <c r="E29">
-        <v>1.0058178438618299</v>
+        <v>1.0179418450154201</v>
       </c>
       <c r="F29">
-        <v>1.0081964506429699</v>
+        <v>1.01839452440066</v>
       </c>
       <c r="G29">
-        <v>1.0505822189454199</v>
+        <v>1.0713952252546299</v>
       </c>
       <c r="H29">
-        <v>1.0505822189454199</v>
+        <v>1.0713952252546299</v>
       </c>
       <c r="I29">
-        <v>1.02918795995225</v>
+        <v>1.0588207260542</v>
       </c>
       <c r="J29">
-        <v>1.03581168575967</v>
+        <v>1.06728614263389</v>
       </c>
       <c r="K29">
-        <v>1.0243790372941199</v>
+        <v>1.0564683067413101</v>
       </c>
       <c r="L29">
-        <v>1.02164832088775</v>
+        <v>1.0469776971394</v>
       </c>
       <c r="M29">
-        <v>0.978572651396725</v>
+        <v>0.95586630033444497</v>
       </c>
       <c r="N29">
-        <v>0.978572651396725</v>
+        <v>0.95586630033444497</v>
       </c>
       <c r="O29">
-        <v>0.96696272806435601</v>
+        <v>0.94751004566501795</v>
       </c>
       <c r="P29">
-        <v>0.97113444733953003</v>
+        <v>0.95317795944489203</v>
       </c>
       <c r="Q29">
-        <v>0.96909208351745102</v>
+        <v>0.94884069814282701</v>
       </c>
       <c r="R29">
-        <v>0.96944621395506803</v>
+        <v>0.94922647774749203</v>
       </c>
       <c r="S29">
-        <v>0.98753904985360397</v>
+        <v>0.97042105359471198</v>
       </c>
       <c r="T29">
-        <v>0.98753904985360397</v>
+        <v>0.97042105359471198</v>
       </c>
       <c r="U29">
-        <v>0.97539014669789703</v>
+        <v>0.97370999337019204</v>
       </c>
       <c r="V29">
-        <v>0.98301753985641904</v>
+        <v>0.97305941902577298</v>
       </c>
       <c r="W29">
-        <v>0.97524738801279298</v>
+        <v>0.97135434873989801</v>
       </c>
       <c r="X29">
-        <v>0.97540340216830201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.96525978154331105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>1.0599989389542801</v>
+        <v>1.07271990476144</v>
       </c>
       <c r="B30">
-        <v>1.0599989389542801</v>
+        <v>1.07271990476144</v>
       </c>
       <c r="C30">
-        <v>1.0227878445932701</v>
+        <v>1.03822016133551</v>
       </c>
       <c r="D30">
-        <v>1.0373645830713001</v>
+        <v>1.0595827142133101</v>
       </c>
       <c r="E30">
-        <v>1.02611853683879</v>
+        <v>1.04084395936312</v>
       </c>
       <c r="F30">
-        <v>1.0238589274215899</v>
+        <v>1.0371172581221699</v>
       </c>
       <c r="G30">
-        <v>1.05354646329306</v>
+        <v>1.07445485934703</v>
       </c>
       <c r="H30">
-        <v>1.05354646329306</v>
+        <v>1.07445485934703</v>
       </c>
       <c r="I30">
-        <v>1.0327454383775401</v>
+        <v>1.05571267787909</v>
       </c>
       <c r="J30">
-        <v>1.03976944718342</v>
+        <v>1.0673880623279199</v>
       </c>
       <c r="K30">
-        <v>1.0239578473517601</v>
+        <v>1.0479426891627499</v>
       </c>
       <c r="L30">
-        <v>1.0222251863971601</v>
+        <v>1.0435855018134901</v>
       </c>
       <c r="M30">
-        <v>0.981441823126183</v>
+        <v>0.95984711223786401</v>
       </c>
       <c r="N30">
-        <v>0.981441823126183</v>
+        <v>0.95984711223786401</v>
       </c>
       <c r="O30">
-        <v>0.97375972217713103</v>
+        <v>0.95478446598398303</v>
       </c>
       <c r="P30">
-        <v>0.97618152063392905</v>
+        <v>0.95735182893298199</v>
       </c>
       <c r="Q30">
-        <v>0.97134060597767502</v>
+        <v>0.95102843077261501</v>
       </c>
       <c r="R30">
-        <v>0.96793739522489697</v>
+        <v>0.94587313878938595</v>
       </c>
       <c r="S30">
-        <v>0.980921969216483</v>
+        <v>0.965109484162612</v>
       </c>
       <c r="T30">
-        <v>0.980921969216483</v>
+        <v>0.965109484162612</v>
       </c>
       <c r="U30">
-        <v>0.97131537933589995</v>
+        <v>0.96654189508005195</v>
       </c>
       <c r="V30">
-        <v>0.97686480417209698</v>
+        <v>0.96990180656082103</v>
       </c>
       <c r="W30">
-        <v>0.96722370780558198</v>
+        <v>0.95912958193761499</v>
       </c>
       <c r="X30">
-        <v>0.96608580835330704</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.95752814431098998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>1.0564711897338299</v>
+        <v>1.0618323376733101</v>
       </c>
       <c r="B31">
-        <v>1.0564711897338299</v>
+        <v>1.0618323376733101</v>
       </c>
       <c r="C31">
-        <v>1.01937324019225</v>
+        <v>1.0192145932482599</v>
       </c>
       <c r="D31">
-        <v>1.03092620980537</v>
+        <v>1.0449226981648401</v>
       </c>
       <c r="E31">
-        <v>1.02245810084364</v>
+        <v>1.0279499029825101</v>
       </c>
       <c r="F31">
-        <v>1.0215108625787499</v>
+        <v>1.0218128461243701</v>
       </c>
       <c r="G31">
-        <v>1.05868390667447</v>
+        <v>1.06690644635197</v>
       </c>
       <c r="H31">
-        <v>1.05868390667447</v>
+        <v>1.06690644635197</v>
       </c>
       <c r="I31">
-        <v>1.04133289769749</v>
+        <v>1.0546167890560201</v>
       </c>
       <c r="J31">
-        <v>1.0453415774530099</v>
+        <v>1.06340304881661</v>
       </c>
       <c r="K31">
-        <v>1.0319423382127999</v>
+        <v>1.0468940772798101</v>
       </c>
       <c r="L31">
-        <v>1.0276217408567601</v>
+        <v>1.0343702064232101</v>
       </c>
       <c r="M31">
-        <v>0.98332781118757595</v>
+        <v>0.95642380465874599</v>
       </c>
       <c r="N31">
-        <v>0.98332781118757595</v>
+        <v>0.95642380465874599</v>
       </c>
       <c r="O31">
-        <v>0.97351298935889397</v>
+        <v>0.94614734165355996</v>
       </c>
       <c r="P31">
-        <v>0.97616853368904999</v>
+        <v>0.95147624650680795</v>
       </c>
       <c r="Q31">
-        <v>0.972960305999233</v>
+        <v>0.94627439693434501</v>
       </c>
       <c r="R31">
-        <v>0.97227755591542997</v>
+        <v>0.947034170344346</v>
       </c>
       <c r="S31">
-        <v>0.98741340272548495</v>
+        <v>0.96151720716231803</v>
       </c>
       <c r="T31">
-        <v>0.98741340272548495</v>
+        <v>0.96151720716231803</v>
       </c>
       <c r="U31">
-        <v>0.98087430063443704</v>
+        <v>0.97408196118273604</v>
       </c>
       <c r="V31">
-        <v>0.98559934035316799</v>
+        <v>0.97088331084041801</v>
       </c>
       <c r="W31">
-        <v>0.974661525161028</v>
+        <v>0.96175085691542395</v>
       </c>
       <c r="X31">
-        <v>0.97317843029632101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.95590965919769499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>0.98773467220877198</v>
+        <v>1.02254900769569</v>
       </c>
       <c r="B32">
-        <v>1.04701669774221</v>
+        <v>1.0752517632168599</v>
       </c>
       <c r="C32">
-        <v>0.98773467220877198</v>
+        <v>1.02254900769569</v>
       </c>
       <c r="D32">
-        <v>1.01597232298245</v>
+        <v>1.05262441781215</v>
       </c>
       <c r="E32">
-        <v>0.99258218072511795</v>
+        <v>1.0284804317546199</v>
       </c>
       <c r="F32">
-        <v>0.98987671919241005</v>
+        <v>1.0253365206937</v>
       </c>
       <c r="G32">
-        <v>0.98791936967917304</v>
+        <v>1.02451298815799</v>
       </c>
       <c r="H32">
-        <v>1.02556572594388</v>
+        <v>1.05090206061106</v>
       </c>
       <c r="I32">
-        <v>0.98791936967917304</v>
+        <v>1.02451298815799</v>
       </c>
       <c r="J32">
-        <v>0.99927086606341897</v>
+        <v>1.03106696316139</v>
       </c>
       <c r="K32">
-        <v>0.98245128935401205</v>
+        <v>1.0187134313730399</v>
       </c>
       <c r="L32">
-        <v>0.98492474016827103</v>
+        <v>1.0174152882174401</v>
       </c>
       <c r="M32">
-        <v>0.97910453574234202</v>
+        <v>0.97708035678514105</v>
       </c>
       <c r="N32">
-        <v>0.98710822683622401</v>
+        <v>1.0006159697182899</v>
       </c>
       <c r="O32">
-        <v>0.97910453574234202</v>
+        <v>0.97708035678514105</v>
       </c>
       <c r="P32">
-        <v>0.98095564536580004</v>
+        <v>0.98858558669989005</v>
       </c>
       <c r="Q32">
-        <v>0.97793205868625099</v>
+        <v>0.97853919737083295</v>
       </c>
       <c r="R32">
-        <v>0.97886517041826404</v>
+        <v>0.97686064041802501</v>
       </c>
       <c r="S32">
-        <v>0.96213347984987097</v>
+        <v>0.98351939162804103</v>
       </c>
       <c r="T32">
-        <v>0.96393142703819201</v>
+        <v>0.98536255495520897</v>
       </c>
       <c r="U32">
-        <v>0.96213347984987097</v>
+        <v>0.98351939162804103</v>
       </c>
       <c r="V32">
-        <v>0.96176795584025399</v>
+        <v>0.97638156958579903</v>
       </c>
       <c r="W32">
-        <v>0.95695209015229699</v>
+        <v>0.97667969475628102</v>
       </c>
       <c r="X32">
-        <v>0.96343768667947305</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.97674527765150998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>1.03106402253503</v>
+        <v>1.04661780582252</v>
       </c>
       <c r="B33">
-        <v>1.0537808523772201</v>
+        <v>1.0658675404744</v>
       </c>
       <c r="C33">
-        <v>1.0079410045525301</v>
+        <v>1.0206015876241099</v>
       </c>
       <c r="D33">
-        <v>1.03106402253503</v>
+        <v>1.04661780582252</v>
       </c>
       <c r="E33">
-        <v>1.01370400899109</v>
+        <v>1.02787788276684</v>
       </c>
       <c r="F33">
-        <v>1.00832421280285</v>
+        <v>1.02135052321888</v>
       </c>
       <c r="G33">
-        <v>1.0244293292022799</v>
+        <v>1.0416126908563399</v>
       </c>
       <c r="H33">
-        <v>1.03411775735026</v>
+        <v>1.06008886807173</v>
       </c>
       <c r="I33">
-        <v>1.00760015437547</v>
+        <v>1.02934852930224</v>
       </c>
       <c r="J33">
-        <v>1.0244293292022799</v>
+        <v>1.0416126908563399</v>
       </c>
       <c r="K33">
-        <v>1.0041237740331901</v>
+        <v>1.0281778596376701</v>
       </c>
       <c r="L33">
-        <v>0.99809463510832896</v>
+        <v>1.02450675851454</v>
       </c>
       <c r="M33">
-        <v>0.98135213104470997</v>
+        <v>0.98453829067871401</v>
       </c>
       <c r="N33">
-        <v>0.98162763788466101</v>
+        <v>0.99199722338663698</v>
       </c>
       <c r="O33">
-        <v>0.97504106726069395</v>
+        <v>0.974093756340904</v>
       </c>
       <c r="P33">
-        <v>0.98135213104470997</v>
+        <v>0.98453829067871401</v>
       </c>
       <c r="Q33">
-        <v>0.97539407337557804</v>
+        <v>0.97612156943144202</v>
       </c>
       <c r="R33">
-        <v>0.97046290428673398</v>
+        <v>0.97099487192710499</v>
       </c>
       <c r="S33">
-        <v>0.96664714343556102</v>
+        <v>0.984232812154065</v>
       </c>
       <c r="T33">
-        <v>0.95633685484336695</v>
+        <v>0.98257831624515202</v>
       </c>
       <c r="U33">
-        <v>0.959944209930085</v>
+        <v>0.99159665178401002</v>
       </c>
       <c r="V33">
-        <v>0.96664714343556102</v>
+        <v>0.984232812154065</v>
       </c>
       <c r="W33">
-        <v>0.95555311929795606</v>
+        <v>0.98452515881494196</v>
       </c>
       <c r="X33">
-        <v>0.94921261365753296</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.975400962173123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>1.0008749526744001</v>
+        <v>1.0177594459541499</v>
       </c>
       <c r="B34">
-        <v>1.0221897150984101</v>
+        <v>1.0332055888390801</v>
       </c>
       <c r="C34">
-        <v>0.98481489825111101</v>
+        <v>0.99582932436861504</v>
       </c>
       <c r="D34">
-        <v>1.0008749526744001</v>
+        <v>1.0177594459541499</v>
       </c>
       <c r="E34">
-        <v>0.98961093709578496</v>
+        <v>1.0026966830334301</v>
       </c>
       <c r="F34">
-        <v>0.98470957137154702</v>
+        <v>0.996495978186833</v>
       </c>
       <c r="G34">
-        <v>1.00945276480224</v>
+        <v>1.01592376554076</v>
       </c>
       <c r="H34">
-        <v>1.0158346189947001</v>
+        <v>1.0236352975176699</v>
       </c>
       <c r="I34">
-        <v>1.0130051970960201</v>
+        <v>1.0155670250447799</v>
       </c>
       <c r="J34">
-        <v>1.00945276480224</v>
+        <v>1.01592376554076</v>
       </c>
       <c r="K34">
-        <v>1.0031252818955401</v>
+        <v>1.00794523979832</v>
       </c>
       <c r="L34">
-        <v>0.99806415253584202</v>
+        <v>1.00874275195787</v>
       </c>
       <c r="M34">
-        <v>0.97464528847862797</v>
+        <v>0.96917353250393201</v>
       </c>
       <c r="N34">
-        <v>0.97812090209245095</v>
+        <v>0.97562822773494295</v>
       </c>
       <c r="O34">
-        <v>0.97474681197150004</v>
+        <v>0.96201695701483703</v>
       </c>
       <c r="P34">
-        <v>0.97464528847862797</v>
+        <v>0.96917353250393201</v>
       </c>
       <c r="Q34">
-        <v>0.97317150434008304</v>
+        <v>0.96300588534212195</v>
       </c>
       <c r="R34">
-        <v>0.97021815476092599</v>
+        <v>0.95753729846764601</v>
       </c>
       <c r="S34">
-        <v>0.97231161954297995</v>
+        <v>0.96436708365152302</v>
       </c>
       <c r="T34">
-        <v>0.96441014431136995</v>
+        <v>0.96140022084316401</v>
       </c>
       <c r="U34">
-        <v>0.97485692504670096</v>
+        <v>0.97215685361877402</v>
       </c>
       <c r="V34">
-        <v>0.97231161954297995</v>
+        <v>0.96436708365152302</v>
       </c>
       <c r="W34">
-        <v>0.96737051011429598</v>
+        <v>0.96174375895326902</v>
       </c>
       <c r="X34">
-        <v>0.96426434771325598</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.95740955489130197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>1.02109469033698</v>
+        <v>1.0307712227397501</v>
       </c>
       <c r="B35">
-        <v>1.0289843235537599</v>
+        <v>1.03790032083776</v>
       </c>
       <c r="C35">
-        <v>1.0062558589530399</v>
+        <v>1.0088462516473899</v>
       </c>
       <c r="D35">
-        <v>1.02109469033698</v>
+        <v>1.0307712227397501</v>
       </c>
       <c r="E35">
-        <v>1.0037364690911399</v>
+        <v>1.0017045109313301</v>
       </c>
       <c r="F35">
-        <v>1.0029636678851199</v>
+        <v>1.0052953516376399</v>
       </c>
       <c r="G35">
-        <v>1.0390262499946601</v>
+        <v>1.03686524812145</v>
       </c>
       <c r="H35">
-        <v>1.03519261610979</v>
+        <v>1.04202815355003</v>
       </c>
       <c r="I35">
-        <v>1.02672970255437</v>
+        <v>1.02953019067594</v>
       </c>
       <c r="J35">
-        <v>1.0390262499946601</v>
+        <v>1.03686524812145</v>
       </c>
       <c r="K35">
-        <v>1.0318612393839399</v>
+        <v>1.0387269417735101</v>
       </c>
       <c r="L35">
-        <v>1.0140259195479999</v>
+        <v>1.01963247131362</v>
       </c>
       <c r="M35">
-        <v>0.98155071117036197</v>
+        <v>0.97700353958337505</v>
       </c>
       <c r="N35">
-        <v>0.98075950857064897</v>
+        <v>0.97893163846268505</v>
       </c>
       <c r="O35">
-        <v>0.97932714676810795</v>
+        <v>0.96856239379953701</v>
       </c>
       <c r="P35">
-        <v>0.98155071117036197</v>
+        <v>0.97700353958337505</v>
       </c>
       <c r="Q35">
-        <v>0.98168315450342203</v>
+        <v>0.96730533362332305</v>
       </c>
       <c r="R35">
-        <v>0.97521886656227497</v>
+        <v>0.96134403494436105</v>
       </c>
       <c r="S35">
-        <v>0.98777370287587096</v>
+        <v>0.98088067433144199</v>
       </c>
       <c r="T35">
-        <v>0.97852701002144404</v>
+        <v>0.98160973551486097</v>
       </c>
       <c r="U35">
-        <v>0.98845696338752398</v>
+        <v>0.98257055074047295</v>
       </c>
       <c r="V35">
-        <v>0.98777370287587096</v>
+        <v>0.98088067433144199</v>
       </c>
       <c r="W35">
-        <v>0.99447314228197004</v>
+        <v>0.99145672619222203</v>
       </c>
       <c r="X35">
-        <v>0.98195408593168199</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.97579311761847698</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>1.0251961289940399</v>
+        <v>1.0434980180059901</v>
       </c>
       <c r="B36">
-        <v>1.04050602517839</v>
+        <v>1.0549883925199099</v>
       </c>
       <c r="C36">
-        <v>1.0081424997324999</v>
+        <v>1.0244191820808799</v>
       </c>
       <c r="D36">
-        <v>1.0251961289940399</v>
+        <v>1.0434980180059901</v>
       </c>
       <c r="E36">
-        <v>1.0119211597570601</v>
+        <v>1.0294468307409399</v>
       </c>
       <c r="F36">
-        <v>1.01484212120921</v>
+        <v>1.0267214811330501</v>
       </c>
       <c r="G36">
-        <v>1.0261663464264099</v>
+        <v>1.04878064900672</v>
       </c>
       <c r="H36">
-        <v>1.034569592023</v>
+        <v>1.04503376770659</v>
       </c>
       <c r="I36">
-        <v>1.0198314530777</v>
+        <v>1.04188554241831</v>
       </c>
       <c r="J36">
-        <v>1.0261663464264099</v>
+        <v>1.04878064900672</v>
       </c>
       <c r="K36">
-        <v>1.01276063542198</v>
+        <v>1.0366723099438899</v>
       </c>
       <c r="L36">
-        <v>1.0099102433429099</v>
+        <v>1.02384123902802</v>
       </c>
       <c r="M36">
-        <v>0.97725365591555402</v>
+        <v>0.971217337783014</v>
       </c>
       <c r="N36">
-        <v>0.979430620747892</v>
+        <v>0.97494232279142901</v>
       </c>
       <c r="O36">
-        <v>0.97879528500733703</v>
+        <v>0.96501363908391702</v>
       </c>
       <c r="P36">
-        <v>0.97725365591555402</v>
+        <v>0.971217337783014</v>
       </c>
       <c r="Q36">
-        <v>0.97630150606106503</v>
+        <v>0.96492678245589003</v>
       </c>
       <c r="R36">
-        <v>0.97922794071917996</v>
+        <v>0.958140053418571</v>
       </c>
       <c r="S36">
-        <v>0.982291499705641</v>
+        <v>0.98237916463308805</v>
       </c>
       <c r="T36">
-        <v>0.97224366199812196</v>
+        <v>0.96961605591261701</v>
       </c>
       <c r="U36">
-        <v>0.98497023425067198</v>
+        <v>0.98294251575609304</v>
       </c>
       <c r="V36">
-        <v>0.982291499705641</v>
+        <v>0.98237916463308805</v>
       </c>
       <c r="W36">
-        <v>0.97730231102582799</v>
+        <v>0.97487225098664498</v>
       </c>
       <c r="X36">
-        <v>0.97639524852426296</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.96421075638001996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>1.0374773558833801</v>
+        <v>1.0442772122580499</v>
       </c>
       <c r="B37">
-        <v>1.0374773558833801</v>
+        <v>1.0442772122580499</v>
       </c>
       <c r="C37">
-        <v>0.99282349001079395</v>
+        <v>0.99949452872214295</v>
       </c>
       <c r="D37">
-        <v>1.0127733855737999</v>
+        <v>1.0239142121715099</v>
       </c>
       <c r="E37">
-        <v>0.999903482752315</v>
+        <v>1.00840547936652</v>
       </c>
       <c r="F37">
-        <v>0.99458357536088704</v>
+        <v>0.998362116677456</v>
       </c>
       <c r="G37">
-        <v>1.0434325833900899</v>
+        <v>1.0591787653370699</v>
       </c>
       <c r="H37">
-        <v>1.0434325833900899</v>
+        <v>1.0591787653370699</v>
       </c>
       <c r="I37">
-        <v>1.0196371967498601</v>
+        <v>1.04090870945195</v>
       </c>
       <c r="J37">
-        <v>1.0476267136286599</v>
+        <v>1.0502704083643299</v>
       </c>
       <c r="K37">
-        <v>1.01909729876633</v>
+        <v>1.0415710219485199</v>
       </c>
       <c r="L37">
-        <v>1.0113304540578401</v>
+        <v>1.03165785966576</v>
       </c>
       <c r="M37">
-        <v>0.97135199677449402</v>
+        <v>0.98329283381729005</v>
       </c>
       <c r="N37">
-        <v>0.97135199677449402</v>
+        <v>0.98329283381729005</v>
       </c>
       <c r="O37">
-        <v>0.96449411323790701</v>
+        <v>0.96146787835936098</v>
       </c>
       <c r="P37">
-        <v>0.970256828497159</v>
+        <v>0.97369776286449194</v>
       </c>
       <c r="Q37">
-        <v>0.96334830712862696</v>
+        <v>0.96510542945546796</v>
       </c>
       <c r="R37">
-        <v>0.96192243326792004</v>
+        <v>0.96125357804748901</v>
       </c>
       <c r="S37">
-        <v>0.96739349607273595</v>
+        <v>0.989947449114289</v>
       </c>
       <c r="T37">
-        <v>0.96739349607273595</v>
+        <v>0.989947449114289</v>
       </c>
       <c r="U37">
-        <v>0.97067098020714504</v>
+        <v>0.99463251347177595</v>
       </c>
       <c r="V37">
-        <v>0.98084971342994298</v>
+        <v>0.99444048455585898</v>
       </c>
       <c r="W37">
-        <v>0.96593207381886204</v>
+        <v>0.99034547554822905</v>
       </c>
       <c r="X37">
-        <v>0.95997593742772502</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.98298756511471197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>1.0565279849111699</v>
+        <v>1.0536164819135201</v>
       </c>
       <c r="B38">
-        <v>1.0565279849111699</v>
+        <v>1.0536164819135201</v>
       </c>
       <c r="C38">
-        <v>1.0163719268371401</v>
+        <v>1.01552138597346</v>
       </c>
       <c r="D38">
-        <v>1.0366465496948101</v>
+        <v>1.0380600684880099</v>
       </c>
       <c r="E38">
-        <v>1.02035340338798</v>
+        <v>1.02155824792534</v>
       </c>
       <c r="F38">
-        <v>1.01649284112171</v>
+        <v>1.01475926137207</v>
       </c>
       <c r="G38">
-        <v>1.06790703702065</v>
+        <v>1.06749808140877</v>
       </c>
       <c r="H38">
-        <v>1.06790703702065</v>
+        <v>1.06749808140877</v>
       </c>
       <c r="I38">
-        <v>1.0489063538302501</v>
+        <v>1.0522045257208701</v>
       </c>
       <c r="J38">
-        <v>1.0661450351369799</v>
+        <v>1.06210255797813</v>
       </c>
       <c r="K38">
-        <v>1.0485109762504901</v>
+        <v>1.0520894917919399</v>
       </c>
       <c r="L38">
-        <v>1.0386533480517199</v>
+        <v>1.0408083107899599</v>
       </c>
       <c r="M38">
-        <v>0.97808473296294296</v>
+        <v>0.97040334833365804</v>
       </c>
       <c r="N38">
-        <v>0.97808473296294296</v>
+        <v>0.97040334833365804</v>
       </c>
       <c r="O38">
-        <v>0.97083576341788302</v>
+        <v>0.95922877121349104</v>
       </c>
       <c r="P38">
-        <v>0.97647427102015105</v>
+        <v>0.96660322306455804</v>
       </c>
       <c r="Q38">
-        <v>0.97144537015528298</v>
+        <v>0.96092639120972301</v>
       </c>
       <c r="R38">
-        <v>0.96822909778074995</v>
+        <v>0.95586075801898296</v>
       </c>
       <c r="S38">
-        <v>0.97556117074707405</v>
+        <v>0.97013998511750599</v>
       </c>
       <c r="T38">
-        <v>0.97556117074707405</v>
+        <v>0.97013998511750599</v>
       </c>
       <c r="U38">
-        <v>0.97576267759799595</v>
+        <v>0.97320878172095904</v>
       </c>
       <c r="V38">
-        <v>0.98426579924708302</v>
+        <v>0.97261710361267995</v>
       </c>
       <c r="W38">
-        <v>0.97330541616295996</v>
+        <v>0.97142141341585397</v>
       </c>
       <c r="X38">
-        <v>0.96930250745228796</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.96409112485008097</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>1.0409446905580599</v>
+        <v>1.0416683100597299</v>
       </c>
       <c r="B39">
-        <v>1.0409446905580599</v>
+        <v>1.0416683100597299</v>
       </c>
       <c r="C39">
-        <v>1.007076003531</v>
+        <v>1.00532363166755</v>
       </c>
       <c r="D39">
-        <v>1.02410672352483</v>
+        <v>1.02779571706928</v>
       </c>
       <c r="E39">
-        <v>1.0126612162177</v>
+        <v>1.01251256892429</v>
       </c>
       <c r="F39">
-        <v>1.0108485281767501</v>
+        <v>1.00365536807888</v>
       </c>
       <c r="G39">
-        <v>1.0522925771628999</v>
+        <v>1.0730835412566</v>
       </c>
       <c r="H39">
-        <v>1.0522925771628999</v>
+        <v>1.0730835412566</v>
       </c>
       <c r="I39">
-        <v>1.03350793309491</v>
+        <v>1.0475798663293601</v>
       </c>
       <c r="J39">
-        <v>1.0545003723328601</v>
+        <v>1.0628391480513799</v>
       </c>
       <c r="K39">
-        <v>1.03526661388834</v>
+        <v>1.04937198099417</v>
       </c>
       <c r="L39">
-        <v>1.0267989184300499</v>
+        <v>1.0432770059083101</v>
       </c>
       <c r="M39">
-        <v>0.97938597208762401</v>
+        <v>0.97378788433274199</v>
       </c>
       <c r="N39">
-        <v>0.97938597208762401</v>
+        <v>0.97378788433274199</v>
       </c>
       <c r="O39">
-        <v>0.97611650511286197</v>
+        <v>0.96068992195911096</v>
       </c>
       <c r="P39">
-        <v>0.97960411864164099</v>
+        <v>0.96876142061432102</v>
       </c>
       <c r="Q39">
-        <v>0.97765694276261705</v>
+        <v>0.96279213683026199</v>
       </c>
       <c r="R39">
-        <v>0.97307928964784196</v>
+        <v>0.95970758196911099</v>
       </c>
       <c r="S39">
-        <v>0.97525404128952298</v>
+        <v>0.98641034909437797</v>
       </c>
       <c r="T39">
-        <v>0.97525404128952298</v>
+        <v>0.98641034909437797</v>
       </c>
       <c r="U39">
-        <v>0.97505010329709996</v>
+        <v>0.98814509302349096</v>
       </c>
       <c r="V39">
-        <v>0.98418787250893802</v>
+        <v>0.98525797366985102</v>
       </c>
       <c r="W39">
-        <v>0.974159645761555</v>
+        <v>0.98466282241612502</v>
       </c>
       <c r="X39">
-        <v>0.96986614553242501</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.97958824138649403</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>1.0401141762876001</v>
+        <v>1.05286234355721</v>
       </c>
       <c r="B40">
-        <v>1.0401141762876001</v>
+        <v>1.05286234355721</v>
       </c>
       <c r="C40">
-        <v>1.0078804646828201</v>
+        <v>1.0169944037555601</v>
       </c>
       <c r="D40">
-        <v>1.02660535261875</v>
+        <v>1.0381740356693701</v>
       </c>
       <c r="E40">
-        <v>1.01208956589438</v>
+        <v>1.0224408072925899</v>
       </c>
       <c r="F40">
-        <v>1.00679858259734</v>
+        <v>1.0171191200974501</v>
       </c>
       <c r="G40">
-        <v>1.0456760334133901</v>
+        <v>1.06235193823552</v>
       </c>
       <c r="H40">
-        <v>1.0456760334133901</v>
+        <v>1.06235193823552</v>
       </c>
       <c r="I40">
-        <v>1.0368405324262899</v>
+        <v>1.05012264542179</v>
       </c>
       <c r="J40">
-        <v>1.04684479018521</v>
+        <v>1.05341245605912</v>
       </c>
       <c r="K40">
-        <v>1.0326545844345101</v>
+        <v>1.0485998109964101</v>
       </c>
       <c r="L40">
-        <v>1.0228671987174101</v>
+        <v>1.0400668687841299</v>
       </c>
       <c r="M40">
-        <v>0.97970913668925796</v>
+        <v>0.98314397220866201</v>
       </c>
       <c r="N40">
-        <v>0.97970913668925796</v>
+        <v>0.98314397220866201</v>
       </c>
       <c r="O40">
-        <v>0.975035137271692</v>
+        <v>0.97214611716962196</v>
       </c>
       <c r="P40">
-        <v>0.98017932001471297</v>
+        <v>0.97819295973757503</v>
       </c>
       <c r="Q40">
-        <v>0.97738193366210402</v>
+        <v>0.97256410966504703</v>
       </c>
       <c r="R40">
-        <v>0.97210062667970998</v>
+        <v>0.96922255639596799</v>
       </c>
       <c r="S40">
-        <v>0.97337907639260801</v>
+        <v>0.98426210516860502</v>
       </c>
       <c r="T40">
-        <v>0.97337907639260801</v>
+        <v>0.98426210516860502</v>
       </c>
       <c r="U40">
-        <v>0.98092581222811304</v>
+        <v>0.99544480464080698</v>
       </c>
       <c r="V40">
-        <v>0.98168719693365802</v>
+        <v>0.98571796823123403</v>
       </c>
       <c r="W40">
-        <v>0.97642661361538396</v>
+        <v>0.98828609776491405</v>
       </c>
       <c r="X40">
-        <v>0.97032526310037404</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.98025349674604201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>1.0401164695518801</v>
+        <v>1.04997922138813</v>
       </c>
       <c r="B41">
-        <v>1.0401164695518801</v>
+        <v>1.04997922138813</v>
       </c>
       <c r="C41">
-        <v>1.0045171284760901</v>
+        <v>1.0168412373097</v>
       </c>
       <c r="D41">
-        <v>1.0263243537784801</v>
+        <v>1.0381931649793701</v>
       </c>
       <c r="E41">
-        <v>1.0099191917227399</v>
+        <v>1.0225334463237099</v>
       </c>
       <c r="F41">
-        <v>1.0014282890998201</v>
+        <v>1.01036245662385</v>
       </c>
       <c r="G41">
-        <v>1.0464475451069699</v>
+        <v>1.0626107835332801</v>
       </c>
       <c r="H41">
-        <v>1.0464475451069699</v>
+        <v>1.0626107835332801</v>
       </c>
       <c r="I41">
-        <v>1.0340158043051899</v>
+        <v>1.0471223041478701</v>
       </c>
       <c r="J41">
-        <v>1.0411515057457901</v>
+        <v>1.0547821443823999</v>
       </c>
       <c r="K41">
-        <v>1.0275116446822601</v>
+        <v>1.0421118940037599</v>
       </c>
       <c r="L41">
-        <v>1.0252776770279299</v>
+        <v>1.03497942852367</v>
       </c>
       <c r="M41">
-        <v>0.98307348349083501</v>
+        <v>0.98229394218967803</v>
       </c>
       <c r="N41">
-        <v>0.98307348349083501</v>
+        <v>0.98229394218967803</v>
       </c>
       <c r="O41">
-        <v>0.98272878193167501</v>
+        <v>0.970846843391303</v>
       </c>
       <c r="P41">
-        <v>0.98681406854564502</v>
+        <v>0.97853164319195396</v>
       </c>
       <c r="Q41">
-        <v>0.98437856550040903</v>
+        <v>0.97170945486029303</v>
       </c>
       <c r="R41">
-        <v>0.97817416437953897</v>
+        <v>0.96520513871801195</v>
       </c>
       <c r="S41">
-        <v>0.96986218373118405</v>
+        <v>0.98374612665940098</v>
       </c>
       <c r="T41">
-        <v>0.96986218373118405</v>
+        <v>0.98374612665940098</v>
       </c>
       <c r="U41">
-        <v>0.97797696604664097</v>
+        <v>0.99261443887478396</v>
       </c>
       <c r="V41">
-        <v>0.97867275704367096</v>
+        <v>0.98565937847892504</v>
       </c>
       <c r="W41">
-        <v>0.97195728667105397</v>
+        <v>0.98527470964152197</v>
       </c>
       <c r="X41">
-        <v>0.96909940439101205</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.97697421259752903</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>1.0749895443853901</v>
+        <v>1.0771596475154099</v>
       </c>
       <c r="B42">
-        <v>1.0749895443853901</v>
+        <v>1.0771596475154099</v>
       </c>
       <c r="C42">
-        <v>1.0263640359809301</v>
+        <v>1.0306068453003601</v>
       </c>
       <c r="D42">
-        <v>1.04864612562153</v>
+        <v>1.05574213149022</v>
       </c>
       <c r="E42">
-        <v>1.0332715656634901</v>
+        <v>1.0398737390267301</v>
       </c>
       <c r="F42">
-        <v>1.0227289401210999</v>
+        <v>1.0341787535229201</v>
       </c>
       <c r="G42">
-        <v>1.0718143565495899</v>
+        <v>1.0833229461952301</v>
       </c>
       <c r="H42">
-        <v>1.0718143565495899</v>
+        <v>1.0833229461952301</v>
       </c>
       <c r="I42">
-        <v>1.0459062146745799</v>
+        <v>1.06262866470201</v>
       </c>
       <c r="J42">
-        <v>1.0633803943718401</v>
+        <v>1.0724644366709499</v>
       </c>
       <c r="K42">
-        <v>1.0458065581152201</v>
+        <v>1.06557146996478</v>
       </c>
       <c r="L42">
-        <v>1.0444585996318001</v>
+        <v>1.05866080229824</v>
       </c>
       <c r="M42">
-        <v>0.99078329469906401</v>
+        <v>0.98667249299069604</v>
       </c>
       <c r="N42">
-        <v>0.99078329469906401</v>
+        <v>0.98667249299069604</v>
       </c>
       <c r="O42">
-        <v>0.98307784806925902</v>
+        <v>0.96823110771621101</v>
       </c>
       <c r="P42">
-        <v>0.98723211120419097</v>
+        <v>0.97777419624056705</v>
       </c>
       <c r="Q42">
-        <v>0.98010476486439202</v>
+        <v>0.97133314097548196</v>
       </c>
       <c r="R42">
-        <v>0.97817081914465998</v>
+        <v>0.96683182302957205</v>
       </c>
       <c r="S42">
-        <v>0.97303837381571001</v>
+        <v>0.98545797219874298</v>
       </c>
       <c r="T42">
-        <v>0.97303837381571001</v>
+        <v>0.98545797219874298</v>
       </c>
       <c r="U42">
-        <v>0.97382576267865095</v>
+        <v>0.99390472501414795</v>
       </c>
       <c r="V42">
-        <v>0.978805251303413</v>
+        <v>0.98629436117434</v>
       </c>
       <c r="W42">
-        <v>0.96934303815030698</v>
+        <v>0.989167870387618</v>
       </c>
       <c r="X42">
-        <v>0.96531280621829596</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.98212831584545401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>1.05017337791854</v>
+        <v>1.0582776013922399</v>
       </c>
       <c r="B43">
-        <v>1.05017337791854</v>
+        <v>1.0582776013922399</v>
       </c>
       <c r="C43">
-        <v>1.0126054579245201</v>
+        <v>1.01851987820497</v>
       </c>
       <c r="D43">
-        <v>1.03159056111283</v>
+        <v>1.0410369908530099</v>
       </c>
       <c r="E43">
-        <v>1.0175652577968901</v>
+        <v>1.0262808503810401</v>
       </c>
       <c r="F43">
-        <v>1.0129355235994499</v>
+        <v>1.02259537464448</v>
       </c>
       <c r="G43">
-        <v>1.0520206837327499</v>
+        <v>1.0577091262368199</v>
       </c>
       <c r="H43">
-        <v>1.0520206837327499</v>
+        <v>1.0577091262368199</v>
       </c>
       <c r="I43">
-        <v>1.03032905120903</v>
+        <v>1.03484415605518</v>
       </c>
       <c r="J43">
-        <v>1.03946185254428</v>
+        <v>1.0444500027285499</v>
       </c>
       <c r="K43">
-        <v>1.02681757673201</v>
+        <v>1.0329233337161501</v>
       </c>
       <c r="L43">
-        <v>1.0251190289202601</v>
+        <v>1.0296663177635099</v>
       </c>
       <c r="M43">
-        <v>0.982721735494968</v>
+        <v>0.98215400757342197</v>
       </c>
       <c r="N43">
-        <v>0.982721735494968</v>
+        <v>0.98215400757342197</v>
       </c>
       <c r="O43">
-        <v>0.97786206189866198</v>
+        <v>0.96791876781914898</v>
       </c>
       <c r="P43">
-        <v>0.98252862870735502</v>
+        <v>0.97566786592428101</v>
       </c>
       <c r="Q43">
-        <v>0.97730050157084103</v>
+        <v>0.96990860784853605</v>
       </c>
       <c r="R43">
-        <v>0.97122879448787103</v>
+        <v>0.96731093657807898</v>
       </c>
       <c r="S43">
-        <v>0.97040223333201403</v>
+        <v>0.97738741290122899</v>
       </c>
       <c r="T43">
-        <v>0.97040223333201403</v>
+        <v>0.97738741290122899</v>
       </c>
       <c r="U43">
-        <v>0.97394167168652002</v>
+        <v>0.98602789485836695</v>
       </c>
       <c r="V43">
-        <v>0.97485962475638499</v>
+        <v>0.97821307696533599</v>
       </c>
       <c r="W43">
-        <v>0.96977796380192605</v>
+        <v>0.97880258078328797</v>
       </c>
       <c r="X43">
-        <v>0.96494232286103299</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.97240620153922896</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>1.0409432373913501</v>
+        <v>1.04290932176031</v>
       </c>
       <c r="B44">
-        <v>1.0409432373913501</v>
+        <v>1.04290932176031</v>
       </c>
       <c r="C44">
-        <v>1.0039812202266101</v>
+        <v>1.01094057777027</v>
       </c>
       <c r="D44">
-        <v>1.0201541481054099</v>
+        <v>1.0305522169341601</v>
       </c>
       <c r="E44">
-        <v>1.0105829861354301</v>
+        <v>1.0177684329645</v>
       </c>
       <c r="F44">
-        <v>1.01063574498452</v>
+        <v>1.0127890733970699</v>
       </c>
       <c r="G44">
-        <v>1.0484715056623</v>
+        <v>1.0553050470290699</v>
       </c>
       <c r="H44">
-        <v>1.0484715056623</v>
+        <v>1.0553050470290699</v>
       </c>
       <c r="I44">
-        <v>1.0341649437315701</v>
+        <v>1.0479796170856399</v>
       </c>
       <c r="J44">
-        <v>1.0340123322713</v>
+        <v>1.04785924087617</v>
       </c>
       <c r="K44">
-        <v>1.0318563781344301</v>
+        <v>1.04361652950408</v>
       </c>
       <c r="L44">
-        <v>1.0320589629051999</v>
+        <v>1.04270234615695</v>
       </c>
       <c r="M44">
-        <v>0.97984530085655996</v>
+        <v>0.96898893893691096</v>
       </c>
       <c r="N44">
-        <v>0.97984530085655996</v>
+        <v>0.96898893893691096</v>
       </c>
       <c r="O44">
-        <v>0.97188204546446499</v>
+        <v>0.95633539030840597</v>
       </c>
       <c r="P44">
-        <v>0.97426382015169799</v>
+        <v>0.96309984134192095</v>
       </c>
       <c r="Q44">
-        <v>0.97053108892602302</v>
+        <v>0.95725876430234103</v>
       </c>
       <c r="R44">
-        <v>0.97188232943992103</v>
+        <v>0.95279649333965799</v>
       </c>
       <c r="S44">
-        <v>0.98221381494447302</v>
+        <v>0.97794933192342803</v>
       </c>
       <c r="T44">
-        <v>0.98221381494447302</v>
+        <v>0.97794933192342803</v>
       </c>
       <c r="U44">
-        <v>0.98137491158272605</v>
+        <v>0.98383460077496798</v>
       </c>
       <c r="V44">
-        <v>0.98214935469639097</v>
+        <v>0.97656180805982296</v>
       </c>
       <c r="W44">
-        <v>0.97776682353989397</v>
+        <v>0.97524417729957102</v>
       </c>
       <c r="X44">
-        <v>0.97843938233062699</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.97348563043174496</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>1.0271451095438999</v>
+        <v>1.0374560941669699</v>
       </c>
       <c r="B45">
-        <v>1.0271451095438999</v>
+        <v>1.0374560941669699</v>
       </c>
       <c r="C45">
-        <v>0.99349372679690695</v>
+        <v>0.99839289729562297</v>
       </c>
       <c r="D45">
-        <v>1.0088475460628099</v>
+        <v>1.0211876144249099</v>
       </c>
       <c r="E45">
-        <v>0.99920118007921699</v>
+        <v>1.0064076375776501</v>
       </c>
       <c r="F45">
-        <v>0.99261405986548201</v>
+        <v>1.0006183728198501</v>
       </c>
       <c r="G45">
-        <v>1.0298727447505001</v>
+        <v>1.03573672997049</v>
       </c>
       <c r="H45">
-        <v>1.0298727447505001</v>
+        <v>1.03573672997049</v>
       </c>
       <c r="I45">
-        <v>1.01568217443472</v>
+        <v>1.0173780991112999</v>
       </c>
       <c r="J45">
-        <v>1.0215532201230599</v>
+        <v>1.02464047446277</v>
       </c>
       <c r="K45">
-        <v>1.01362872548529</v>
+        <v>1.01276695605158</v>
       </c>
       <c r="L45">
-        <v>1.0081408717196201</v>
+        <v>1.0175650604151001</v>
       </c>
       <c r="M45">
-        <v>0.97727016255792398</v>
+        <v>0.96898098409499001</v>
       </c>
       <c r="N45">
-        <v>0.97727016255792398</v>
+        <v>0.96898098409499001</v>
       </c>
       <c r="O45">
-        <v>0.97372490630793596</v>
+        <v>0.95461974682155104</v>
       </c>
       <c r="P45">
-        <v>0.97465896702579102</v>
+        <v>0.96228593837777798</v>
       </c>
       <c r="Q45">
-        <v>0.97193516453192597</v>
+        <v>0.95624851134423405</v>
       </c>
       <c r="R45">
-        <v>0.97180559849228998</v>
+        <v>0.95173649119172599</v>
       </c>
       <c r="S45">
-        <v>0.965623972919877</v>
+        <v>0.96513804297472205</v>
       </c>
       <c r="T45">
-        <v>0.965623972919877</v>
+        <v>0.96513804297472205</v>
       </c>
       <c r="U45">
-        <v>0.96699368610160696</v>
+        <v>0.96559494742783902</v>
       </c>
       <c r="V45">
-        <v>0.96990743830625903</v>
+        <v>0.96533622912485695</v>
       </c>
       <c r="W45">
-        <v>0.96283109699645097</v>
+        <v>0.95928163786790099</v>
       </c>
       <c r="X45">
-        <v>0.96021878444272302</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.95822368297249105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>1.02573046866877</v>
+        <v>1.03033737335958</v>
       </c>
       <c r="B46">
-        <v>1.02573046866877</v>
+        <v>1.03033737335958</v>
       </c>
       <c r="C46">
-        <v>1.00365894616003</v>
+        <v>1.0075793103447801</v>
       </c>
       <c r="D46">
-        <v>1.0137653425939299</v>
+        <v>1.0212748206762901</v>
       </c>
       <c r="E46">
-        <v>1.00789205572692</v>
+        <v>1.0120606349169301</v>
       </c>
       <c r="F46">
-        <v>1.00271841495486</v>
+        <v>1.00297036138954</v>
       </c>
       <c r="G46">
-        <v>1.0344871861129199</v>
+        <v>1.0456254558162801</v>
       </c>
       <c r="H46">
-        <v>1.0344871861129199</v>
+        <v>1.0456254558162801</v>
       </c>
       <c r="I46">
-        <v>1.03821470460012</v>
+        <v>1.0561984220307199</v>
       </c>
       <c r="J46">
-        <v>1.03033694533195</v>
+        <v>1.0458978759430999</v>
       </c>
       <c r="K46">
-        <v>1.02981328508073</v>
+        <v>1.04288855319226</v>
       </c>
       <c r="L46">
-        <v>1.0249196914159</v>
+        <v>1.03573846157008</v>
       </c>
       <c r="M46">
-        <v>0.97693033601250701</v>
+        <v>0.96967870033106596</v>
       </c>
       <c r="N46">
-        <v>0.97693033601250701</v>
+        <v>0.96967870033106596</v>
       </c>
       <c r="O46">
-        <v>0.98183904163228497</v>
+        <v>0.96627044972043397</v>
       </c>
       <c r="P46">
-        <v>0.97865422259628598</v>
+        <v>0.96781720183138298</v>
       </c>
       <c r="Q46">
-        <v>0.97977593868110802</v>
+        <v>0.96515726493927301</v>
       </c>
       <c r="R46">
-        <v>0.97488256995706801</v>
+        <v>0.95591907349465799</v>
       </c>
       <c r="S46">
-        <v>0.97007523552807196</v>
+        <v>0.97618050052119898</v>
       </c>
       <c r="T46">
-        <v>0.97007523552807196</v>
+        <v>0.97618050052119898</v>
       </c>
       <c r="U46">
-        <v>0.98522243805252196</v>
+        <v>0.99410971812097104</v>
       </c>
       <c r="V46">
-        <v>0.98095276776882301</v>
+        <v>0.98262000675533401</v>
       </c>
       <c r="W46">
-        <v>0.977549769604798</v>
+        <v>0.979632624951979</v>
       </c>
       <c r="X46">
-        <v>0.97115846013956697</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.97240554896646203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>1.0231285315113801</v>
+        <v>1.02441193912605</v>
       </c>
       <c r="B47">
-        <v>1.0231285315113801</v>
+        <v>1.02441193912605</v>
       </c>
       <c r="C47">
-        <v>0.98523881796665103</v>
+        <v>0.99039216465304902</v>
       </c>
       <c r="D47">
-        <v>1.0029310610950499</v>
+        <v>1.0095701549329099</v>
       </c>
       <c r="E47">
-        <v>0.99330502430594103</v>
+        <v>0.99720914214872203</v>
       </c>
       <c r="F47">
-        <v>0.989341360787239</v>
+        <v>0.99344707719749004</v>
       </c>
       <c r="G47">
-        <v>1.03276254919546</v>
+        <v>1.01981529147143</v>
       </c>
       <c r="H47">
-        <v>1.03276254919546</v>
+        <v>1.01981529147143</v>
       </c>
       <c r="I47">
-        <v>1.0072811312007499</v>
+        <v>1.00134966944822</v>
       </c>
       <c r="J47">
-        <v>1.01897599111834</v>
+        <v>1.0091082694125599</v>
       </c>
       <c r="K47">
-        <v>1.0100272291354799</v>
+        <v>1.00114244124864</v>
       </c>
       <c r="L47">
-        <v>1.01112877659401</v>
+        <v>1.0028423251434599</v>
       </c>
       <c r="M47">
-        <v>0.97125760910958503</v>
+        <v>0.96511600314894896</v>
       </c>
       <c r="N47">
-        <v>0.97125760910958503</v>
+        <v>0.96511600314894896</v>
       </c>
       <c r="O47">
-        <v>0.96515752328019999</v>
+        <v>0.95227731632129298</v>
       </c>
       <c r="P47">
-        <v>0.96731468774350904</v>
+        <v>0.95918736510379798</v>
       </c>
       <c r="Q47">
-        <v>0.96760449935371196</v>
+        <v>0.95439512357401401</v>
       </c>
       <c r="R47">
-        <v>0.96509674997648298</v>
+        <v>0.95146470956961005</v>
       </c>
       <c r="S47">
-        <v>0.96446452676670202</v>
+        <v>0.95621195645049994</v>
       </c>
       <c r="T47">
-        <v>0.96446452676670202</v>
+        <v>0.95621195645049994</v>
       </c>
       <c r="U47">
-        <v>0.95997752333875896</v>
+        <v>0.94861303548729803</v>
       </c>
       <c r="V47">
-        <v>0.96498960610848905</v>
+        <v>0.953898254241758</v>
       </c>
       <c r="W47">
-        <v>0.96113688491594595</v>
+        <v>0.94875907745097898</v>
       </c>
       <c r="X47">
-        <v>0.96003334421571795</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.949341823313125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>1.0067182356745401</v>
+        <v>1.0246542787639299</v>
       </c>
       <c r="B48">
-        <v>1.0067182356745401</v>
+        <v>1.0246542787639299</v>
       </c>
       <c r="C48">
-        <v>0.98490223774462604</v>
+        <v>1.0002179719591999</v>
       </c>
       <c r="D48">
-        <v>0.99503634897373505</v>
+        <v>1.0140265929455701</v>
       </c>
       <c r="E48">
-        <v>0.98976963643119198</v>
+        <v>1.0046469433132901</v>
       </c>
       <c r="F48">
-        <v>0.98929177291466397</v>
+        <v>1.0058596976282701</v>
       </c>
       <c r="G48">
-        <v>1.0160439903006599</v>
+        <v>1.02433621334752</v>
       </c>
       <c r="H48">
-        <v>1.0160439903006599</v>
+        <v>1.02433621334752</v>
       </c>
       <c r="I48">
-        <v>1.0151218436165901</v>
+        <v>1.02739354572655</v>
       </c>
       <c r="J48">
-        <v>1.0109517884581101</v>
+        <v>1.0228607196838</v>
       </c>
       <c r="K48">
-        <v>1.0119297588037299</v>
+        <v>1.0230588293445499</v>
       </c>
       <c r="L48">
-        <v>1.00941562388337</v>
+        <v>1.01977996860522</v>
       </c>
       <c r="M48">
-        <v>0.97125673506496502</v>
+        <v>0.964145845979268</v>
       </c>
       <c r="N48">
-        <v>0.97125673506496502</v>
+        <v>0.964145845979268</v>
       </c>
       <c r="O48">
-        <v>0.96693828501165602</v>
+        <v>0.95614569158796703</v>
       </c>
       <c r="P48">
-        <v>0.96932047429110302</v>
+        <v>0.96048780578357096</v>
       </c>
       <c r="Q48">
-        <v>0.96794364155827095</v>
+        <v>0.95624645645212203</v>
       </c>
       <c r="R48">
-        <v>0.96289256176702698</v>
+        <v>0.95397990390135601</v>
       </c>
       <c r="S48">
-        <v>0.98097587807250897</v>
+        <v>0.96253539235844499</v>
       </c>
       <c r="T48">
-        <v>0.98097587807250897</v>
+        <v>0.96253539235844499</v>
       </c>
       <c r="U48">
-        <v>0.98679072438833204</v>
+        <v>0.97900032487842503</v>
       </c>
       <c r="V48">
-        <v>0.98354302228184698</v>
+        <v>0.96935703588881705</v>
       </c>
       <c r="W48">
-        <v>0.98300537511631403</v>
+        <v>0.96939408526256499</v>
       </c>
       <c r="X48">
-        <v>0.98043185811182298</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.96375037214388903</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>1.0253928337928599</v>
+        <v>1.0406298812268999</v>
       </c>
       <c r="B49">
-        <v>1.0253928337928599</v>
+        <v>1.0406298812268999</v>
       </c>
       <c r="C49">
-        <v>0.99951129208275302</v>
+        <v>1.01207399245993</v>
       </c>
       <c r="D49">
-        <v>1.00988571888515</v>
+        <v>1.02868212352574</v>
       </c>
       <c r="E49">
-        <v>1.0043592964197099</v>
+        <v>1.0160382387293401</v>
       </c>
       <c r="F49">
-        <v>1.00251763281011</v>
+        <v>1.01027951515014</v>
       </c>
       <c r="G49">
-        <v>1.0418629066253799</v>
+        <v>1.0580185750104401</v>
       </c>
       <c r="H49">
-        <v>1.0418629066253799</v>
+        <v>1.0580185750104401</v>
       </c>
       <c r="I49">
-        <v>1.04206169097422</v>
+        <v>1.0576376884904799</v>
       </c>
       <c r="J49">
-        <v>1.03956623509132</v>
+        <v>1.0537851923402499</v>
       </c>
       <c r="K49">
-        <v>1.0360030505190401</v>
+        <v>1.0511937278424299</v>
       </c>
       <c r="L49">
-        <v>1.0329759573181301</v>
+        <v>1.05089455139878</v>
       </c>
       <c r="M49">
-        <v>0.97270086626961605</v>
+        <v>0.96896843426975698</v>
       </c>
       <c r="N49">
-        <v>0.97270086626961605</v>
+        <v>0.96896843426975698</v>
       </c>
       <c r="O49">
-        <v>0.97007503960119901</v>
+        <v>0.96014747924714705</v>
       </c>
       <c r="P49">
-        <v>0.96914374284168403</v>
+        <v>0.96505450699639805</v>
       </c>
       <c r="Q49">
-        <v>0.97145673362491003</v>
+        <v>0.95959795160147598</v>
       </c>
       <c r="R49">
-        <v>0.96645304569024204</v>
+        <v>0.95302322140635798</v>
       </c>
       <c r="S49">
-        <v>0.97711953927141104</v>
+        <v>0.97668257516106305</v>
       </c>
       <c r="T49">
-        <v>0.97711953927141104</v>
+        <v>0.97668257516106305</v>
       </c>
       <c r="U49">
-        <v>0.99359956937426397</v>
+        <v>0.992160272204756</v>
       </c>
       <c r="V49">
-        <v>0.98913491402042697</v>
+        <v>0.98026855944227897</v>
       </c>
       <c r="W49">
-        <v>0.98711953278493303</v>
+        <v>0.98210015462383105</v>
       </c>
       <c r="X49">
-        <v>0.98207316370527298</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.97759940057853401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>1.0293519493718799</v>
+        <v>1.02482797499638</v>
       </c>
       <c r="B50">
-        <v>1.0293519493718799</v>
+        <v>1.02482797499638</v>
       </c>
       <c r="C50">
-        <v>1.00296340578128</v>
+        <v>1.0006203071341699</v>
       </c>
       <c r="D50">
-        <v>1.0151501576158499</v>
+        <v>1.0147138289280899</v>
       </c>
       <c r="E50">
-        <v>1.00590980138624</v>
+        <v>1.00376841224513</v>
       </c>
       <c r="F50">
-        <v>1.00386933288161</v>
+        <v>0.99900018697595006</v>
       </c>
       <c r="G50">
-        <v>1.0339745671848199</v>
+        <v>1.02894009478559</v>
       </c>
       <c r="H50">
-        <v>1.0339745671848199</v>
+        <v>1.02894009478559</v>
       </c>
       <c r="I50">
-        <v>1.02560601481678</v>
+        <v>1.01877750009011</v>
       </c>
       <c r="J50">
-        <v>1.02775005664417</v>
+        <v>1.02254224615329</v>
       </c>
       <c r="K50">
-        <v>1.02127085461248</v>
+        <v>1.0187444324988499</v>
       </c>
       <c r="L50">
-        <v>1.01944332251206</v>
+        <v>1.0161551051885001</v>
       </c>
       <c r="M50">
-        <v>0.96423347410120597</v>
+        <v>0.95107443925414403</v>
       </c>
       <c r="N50">
-        <v>0.96423347410120597</v>
+        <v>0.95107443925414403</v>
       </c>
       <c r="O50">
-        <v>0.961806235277607</v>
+        <v>0.94516334801426505</v>
       </c>
       <c r="P50">
-        <v>0.96122317742638497</v>
+        <v>0.948488832314203</v>
       </c>
       <c r="Q50">
-        <v>0.96408902156474496</v>
+        <v>0.94474176056895598</v>
       </c>
       <c r="R50">
-        <v>0.96186032264223897</v>
+        <v>0.941009849882678</v>
       </c>
       <c r="S50">
-        <v>0.96681645651755799</v>
+        <v>0.95664826013100202</v>
       </c>
       <c r="T50">
-        <v>0.96681645651755799</v>
+        <v>0.95664826013100202</v>
       </c>
       <c r="U50">
-        <v>0.98043977826547102</v>
+        <v>0.96277409518744295</v>
       </c>
       <c r="V50">
-        <v>0.97322212670665897</v>
+        <v>0.95884470080349005</v>
       </c>
       <c r="W50">
-        <v>0.97692894551772702</v>
+        <v>0.96017749269907304</v>
       </c>
       <c r="X50">
-        <v>0.97236551622732403</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.95470522658417001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>1.02821233418358</v>
+        <v>1.03842909193399</v>
       </c>
       <c r="B51">
-        <v>1.02821233418358</v>
+        <v>1.03842909193399</v>
       </c>
       <c r="C51">
-        <v>0.99967527421333902</v>
+        <v>1.0082419320535201</v>
       </c>
       <c r="D51">
-        <v>1.01103940695412</v>
+        <v>1.0250426905318599</v>
       </c>
       <c r="E51">
-        <v>1.00429225921202</v>
+        <v>1.01387479873653</v>
       </c>
       <c r="F51">
-        <v>1.0031248714341701</v>
+        <v>1.0130830056779001</v>
       </c>
       <c r="G51">
-        <v>1.0542577786667899</v>
+        <v>1.0439822807272601</v>
       </c>
       <c r="H51">
-        <v>1.0542577786667899</v>
+        <v>1.0439822807272601</v>
       </c>
       <c r="I51">
-        <v>1.0431250479779901</v>
+        <v>1.0316900396078199</v>
       </c>
       <c r="J51">
-        <v>1.0495836490436099</v>
+        <v>1.03809436793794</v>
       </c>
       <c r="K51">
-        <v>1.04276418119547</v>
+        <v>1.03171918721335</v>
       </c>
       <c r="L51">
-        <v>1.04253565690987</v>
+        <v>1.0330748415972799</v>
       </c>
       <c r="M51">
-        <v>0.975354476658017</v>
+        <v>0.96760787259520697</v>
       </c>
       <c r="N51">
-        <v>0.975354476658017</v>
+        <v>0.96760787259520697</v>
       </c>
       <c r="O51">
-        <v>0.96885787334941897</v>
+        <v>0.95905142390949105</v>
       </c>
       <c r="P51">
-        <v>0.97021567493191196</v>
+        <v>0.96347122738695201</v>
       </c>
       <c r="Q51">
-        <v>0.97192253045771204</v>
+        <v>0.95841733467096801</v>
       </c>
       <c r="R51">
-        <v>0.97122945613853595</v>
+        <v>0.95609116769679303</v>
       </c>
       <c r="S51">
-        <v>0.989634349264782</v>
+        <v>0.97142342240802504</v>
       </c>
       <c r="T51">
-        <v>0.989634349264782</v>
+        <v>0.97142342240802504</v>
       </c>
       <c r="U51">
-        <v>0.99585890510712805</v>
+        <v>0.97879994981627905</v>
       </c>
       <c r="V51">
-        <v>0.99293015462691303</v>
+        <v>0.97380049449294404</v>
       </c>
       <c r="W51">
-        <v>0.992178249103562</v>
+        <v>0.97171914101088797</v>
       </c>
       <c r="X51">
-        <v>0.99289661787940997</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.96952795852982399</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>1.05224779433719</v>
+        <v>1.07067836491916</v>
       </c>
       <c r="B52">
-        <v>1.05224779433719</v>
+        <v>1.07067836491916</v>
       </c>
       <c r="C52">
-        <v>1.05275788605027</v>
+        <v>1.05290849021896</v>
       </c>
       <c r="D52">
-        <v>1.04591329069741</v>
+        <v>1.06006982415659</v>
       </c>
       <c r="E52">
-        <v>1.02931270765525</v>
+        <v>1.0418416853625001</v>
       </c>
       <c r="F52">
-        <v>1.0273457278428799</v>
+        <v>1.0390688158210399</v>
       </c>
       <c r="G52">
-        <v>1.0613666921659199</v>
+        <v>1.06406978289378</v>
       </c>
       <c r="H52">
-        <v>1.0613666921659199</v>
+        <v>1.06406978289378</v>
       </c>
       <c r="I52">
-        <v>1.1315542075860801</v>
+        <v>1.12170306904735</v>
       </c>
       <c r="J52">
-        <v>1.1096108839876999</v>
+        <v>1.09795503875045</v>
       </c>
       <c r="K52">
-        <v>1.05886354258218</v>
+        <v>1.0602331544989101</v>
       </c>
       <c r="L52">
-        <v>1.05487142598429</v>
+        <v>1.0571231413769899</v>
       </c>
       <c r="M52">
-        <v>0.97645220802550303</v>
+        <v>0.96663589843312803</v>
       </c>
       <c r="N52">
-        <v>0.97645220802550303</v>
+        <v>0.96663589843312803</v>
       </c>
       <c r="O52">
-        <v>0.98130450979417505</v>
+        <v>0.95932211799566602</v>
       </c>
       <c r="P52">
-        <v>0.97345873385521697</v>
+        <v>0.96085377147600803</v>
       </c>
       <c r="Q52">
-        <v>0.970005308981845</v>
+        <v>0.95460415618222605</v>
       </c>
       <c r="R52">
-        <v>0.96759612959597396</v>
+        <v>0.95084281832928896</v>
       </c>
       <c r="S52">
-        <v>0.98118760650330705</v>
+        <v>0.96942006850420204</v>
       </c>
       <c r="T52">
-        <v>0.98118760650330705</v>
+        <v>0.96942006850420204</v>
       </c>
       <c r="U52">
-        <v>1.00894544259248</v>
+        <v>1.0000169065595499</v>
       </c>
       <c r="V52">
-        <v>0.996859343677446</v>
+        <v>0.98385897280401002</v>
       </c>
       <c r="W52">
-        <v>0.97824339465673604</v>
+        <v>0.96923901540724799</v>
       </c>
       <c r="X52">
-        <v>0.979487220599078</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.96629692898922603</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>1.03684237155244</v>
+        <v>1.0491667902774999</v>
       </c>
       <c r="B53">
-        <v>1.03684237155244</v>
+        <v>1.0491667902774999</v>
       </c>
       <c r="C53">
-        <v>1.0156955219734101</v>
+        <v>1.01786522829279</v>
       </c>
       <c r="D53">
-        <v>1.0299399414075601</v>
+        <v>1.0415376721931</v>
       </c>
       <c r="E53">
-        <v>1.0132501330030499</v>
+        <v>1.0113294941150801</v>
       </c>
       <c r="F53">
-        <v>1.00851581079565</v>
+        <v>1.0119304130151601</v>
       </c>
       <c r="G53">
-        <v>1.0313672253288799</v>
+        <v>1.0509213704606299</v>
       </c>
       <c r="H53">
-        <v>1.0313672253288799</v>
+        <v>1.0509213704606299</v>
       </c>
       <c r="I53">
-        <v>1.0281787563270199</v>
+        <v>1.0409574917406199</v>
       </c>
       <c r="J53">
-        <v>1.0347643181078401</v>
+        <v>1.04606190082871</v>
       </c>
       <c r="K53">
-        <v>1.0288410697763399</v>
+        <v>1.04888740716339</v>
       </c>
       <c r="L53">
-        <v>1.01278557532462</v>
+        <v>1.0317843356293299</v>
       </c>
       <c r="M53">
-        <v>0.97988808589381404</v>
+        <v>0.97529759863014998</v>
       </c>
       <c r="N53">
-        <v>0.97988808589381404</v>
+        <v>0.97529759863014998</v>
       </c>
       <c r="O53">
-        <v>0.98077633786273999</v>
+        <v>0.96441590197578797</v>
       </c>
       <c r="P53">
-        <v>0.98200264112783597</v>
+        <v>0.97349835041953403</v>
       </c>
       <c r="Q53">
-        <v>0.98325659045181002</v>
+        <v>0.963212179330178</v>
       </c>
       <c r="R53">
-        <v>0.97517060889272</v>
+        <v>0.95635952293890802</v>
       </c>
       <c r="S53">
-        <v>0.97605447007632795</v>
+        <v>0.98696526784612504</v>
       </c>
       <c r="T53">
-        <v>0.97605447007632795</v>
+        <v>0.98696526784612504</v>
       </c>
       <c r="U53">
-        <v>0.989018855533913</v>
+        <v>0.99066839015219399</v>
       </c>
       <c r="V53">
-        <v>0.98659772311576999</v>
+        <v>0.98605771761185701</v>
       </c>
       <c r="W53">
-        <v>0.99144809223949004</v>
+        <v>0.99817062889683505</v>
       </c>
       <c r="X53">
-        <v>0.98075659239795399</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.98293266877411301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>1.0287642167426601</v>
+        <v>1.0338646770461899</v>
       </c>
       <c r="B54">
-        <v>1.0287642167426601</v>
+        <v>1.0338646770461899</v>
       </c>
       <c r="C54">
-        <v>1.0085157449695601</v>
+        <v>1.0095677041363</v>
       </c>
       <c r="D54">
-        <v>1.0221962265958799</v>
+        <v>1.0278631099800499</v>
       </c>
       <c r="E54">
-        <v>1.0071071516330199</v>
+        <v>1.0042956607992699</v>
       </c>
       <c r="F54">
-        <v>1.0071371290461599</v>
+        <v>1.0084670734502299</v>
       </c>
       <c r="G54">
-        <v>1.0521563712889099</v>
+        <v>1.0528649089332001</v>
       </c>
       <c r="H54">
-        <v>1.0521563712889099</v>
+        <v>1.0528649089332001</v>
       </c>
       <c r="I54">
-        <v>1.04432167504442</v>
+        <v>1.0381737517312399</v>
       </c>
       <c r="J54">
-        <v>1.0564206955222899</v>
+        <v>1.0451267585410899</v>
       </c>
       <c r="K54">
-        <v>1.0475000119476401</v>
+        <v>1.0452577490002799</v>
       </c>
       <c r="L54">
-        <v>1.0344045872680301</v>
+        <v>1.03199537020636</v>
       </c>
       <c r="M54">
-        <v>0.98172284979323399</v>
+        <v>0.97748528118404299</v>
       </c>
       <c r="N54">
-        <v>0.98172284979323399</v>
+        <v>0.97748528118404299</v>
       </c>
       <c r="O54">
-        <v>0.982921618703264</v>
+        <v>0.96867503019097401</v>
       </c>
       <c r="P54">
-        <v>0.98361563465332302</v>
+        <v>0.97563693820375696</v>
       </c>
       <c r="Q54">
-        <v>0.98480532816613697</v>
+        <v>0.96821463452073697</v>
       </c>
       <c r="R54">
-        <v>0.97728529596899105</v>
+        <v>0.96381466420116901</v>
       </c>
       <c r="S54">
-        <v>0.99154804707592203</v>
+        <v>0.98482752697114895</v>
       </c>
       <c r="T54">
-        <v>0.99154804707592203</v>
+        <v>0.98482752697114895</v>
       </c>
       <c r="U54">
-        <v>1.0027518685952901</v>
+        <v>0.98480980003575502</v>
       </c>
       <c r="V54">
-        <v>1.0012561644864899</v>
+        <v>0.98384619300862997</v>
       </c>
       <c r="W54">
-        <v>1.00821818943667</v>
+        <v>0.99193758993483006</v>
       </c>
       <c r="X54">
-        <v>0.99444159708370805</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.97877275382048201</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>1.0235653239006</v>
+        <v>1.02533728782444</v>
       </c>
       <c r="B55">
-        <v>1.0235653239006</v>
+        <v>1.02533728782444</v>
       </c>
       <c r="C55">
-        <v>1.0017091884471301</v>
+        <v>1.00008221533334</v>
       </c>
       <c r="D55">
-        <v>1.0153000728953301</v>
+        <v>1.0188922422090601</v>
       </c>
       <c r="E55">
-        <v>1.0006724048581701</v>
+        <v>0.99387518968058497</v>
       </c>
       <c r="F55">
-        <v>1.0007371473689699</v>
+        <v>0.99660657333265401</v>
       </c>
       <c r="G55">
-        <v>1.04501478168632</v>
+        <v>1.0378836865969301</v>
       </c>
       <c r="H55">
-        <v>1.04501478168632</v>
+        <v>1.0378836865969301</v>
       </c>
       <c r="I55">
-        <v>1.0415722847476001</v>
+        <v>1.0285610909791301</v>
       </c>
       <c r="J55">
-        <v>1.0478081566358599</v>
+        <v>1.0339884584644901</v>
       </c>
       <c r="K55">
-        <v>1.05428254063444</v>
+        <v>1.0390197027089501</v>
       </c>
       <c r="L55">
-        <v>1.03269501620041</v>
+        <v>1.02066167083645</v>
       </c>
       <c r="M55">
-        <v>0.97826027853193898</v>
+        <v>0.96729674501373197</v>
       </c>
       <c r="N55">
-        <v>0.97826027853193898</v>
+        <v>0.96729674501373197</v>
       </c>
       <c r="O55">
-        <v>0.97274073630856495</v>
+        <v>0.95813494475891603</v>
       </c>
       <c r="P55">
-        <v>0.976496982594934</v>
+        <v>0.96520652086916803</v>
       </c>
       <c r="Q55">
-        <v>0.974223153246219</v>
+        <v>0.95667060118880798</v>
       </c>
       <c r="R55">
-        <v>0.971907793456119</v>
+        <v>0.95154792829406099</v>
       </c>
       <c r="S55">
-        <v>0.98749027379052401</v>
+        <v>0.97665590761194598</v>
       </c>
       <c r="T55">
-        <v>0.98749027379052401</v>
+        <v>0.97665590761194598</v>
       </c>
       <c r="U55">
-        <v>0.99123262440087001</v>
+        <v>0.97625689996466303</v>
       </c>
       <c r="V55">
-        <v>0.99257077453534304</v>
+        <v>0.97693442490066795</v>
       </c>
       <c r="W55">
-        <v>0.99810923193682199</v>
+        <v>0.98523686980373004</v>
       </c>
       <c r="X55">
-        <v>0.98917652691718105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.97119393438250201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>1.0438382428522901</v>
+        <v>1.0606948216138099</v>
       </c>
       <c r="B56">
-        <v>1.0438382428522901</v>
+        <v>1.0606948216138099</v>
       </c>
       <c r="C56">
-        <v>1.0176884651345499</v>
+        <v>1.0300840710099799</v>
       </c>
       <c r="D56">
-        <v>1.03277237694935</v>
+        <v>1.0502858699656501</v>
       </c>
       <c r="E56">
-        <v>1.02126012611976</v>
+        <v>1.0347899462516099</v>
       </c>
       <c r="F56">
-        <v>1.02163759080243</v>
+        <v>1.03012568005201</v>
       </c>
       <c r="G56">
-        <v>1.0446638761212199</v>
+        <v>1.06297167549392</v>
       </c>
       <c r="H56">
-        <v>1.0446638761212199</v>
+        <v>1.06297167549392</v>
       </c>
       <c r="I56">
-        <v>1.04136876428</v>
+        <v>1.05895994787313</v>
       </c>
       <c r="J56">
-        <v>1.0428371951755899</v>
+        <v>1.0678681537629799</v>
       </c>
       <c r="K56">
-        <v>1.0370861537079701</v>
+        <v>1.0575290560305499</v>
       </c>
       <c r="L56">
-        <v>1.0276187115345801</v>
+        <v>1.04329078009162</v>
       </c>
       <c r="M56">
-        <v>0.97657756148561004</v>
+        <v>0.97151103459946997</v>
       </c>
       <c r="N56">
-        <v>0.97657756148561004</v>
+        <v>0.97151103459946997</v>
       </c>
       <c r="O56">
-        <v>0.97504168930006496</v>
+        <v>0.96240771736124597</v>
       </c>
       <c r="P56">
-        <v>0.97524695019262198</v>
+        <v>0.96837186543485798</v>
       </c>
       <c r="Q56">
-        <v>0.97433508389609502</v>
+        <v>0.96307580689080696</v>
       </c>
       <c r="R56">
-        <v>0.97711359278739995</v>
+        <v>0.95832000510303395</v>
       </c>
       <c r="S56">
-        <v>0.97313643973077502</v>
+        <v>0.97576682549305804</v>
       </c>
       <c r="T56">
-        <v>0.97313643973077502</v>
+        <v>0.97576682549305804</v>
       </c>
       <c r="U56">
-        <v>0.98315538533209001</v>
+        <v>0.98523462212479396</v>
       </c>
       <c r="V56">
-        <v>0.98350233069884396</v>
+        <v>0.98623152807841596</v>
       </c>
       <c r="W56">
-        <v>0.97944791288867805</v>
+        <v>0.98101440137199103</v>
       </c>
       <c r="X56">
-        <v>0.97898284377351397</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.97347013922185599</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>1.04647944402788</v>
+        <v>1.0621225256138001</v>
       </c>
       <c r="B57">
-        <v>1.04647944402788</v>
+        <v>1.0621225256138001</v>
       </c>
       <c r="C57">
-        <v>1.02425916899029</v>
+        <v>1.03204178014346</v>
       </c>
       <c r="D57">
-        <v>1.0359601457338199</v>
+        <v>1.0508450198930399</v>
       </c>
       <c r="E57">
-        <v>1.0285177690426199</v>
+        <v>1.03782577493993</v>
       </c>
       <c r="F57">
-        <v>1.0304968896933699</v>
+        <v>1.0356030412004</v>
       </c>
       <c r="G57">
-        <v>1.04897504837247</v>
+        <v>1.0568297481948501</v>
       </c>
       <c r="H57">
-        <v>1.04897504837247</v>
+        <v>1.0568297481948501</v>
       </c>
       <c r="I57">
-        <v>1.04644935431222</v>
+        <v>1.0507139389336899</v>
       </c>
       <c r="J57">
-        <v>1.0421474382593601</v>
+        <v>1.05848591938196</v>
       </c>
       <c r="K57">
-        <v>1.03750658759698</v>
+        <v>1.0478124988335999</v>
       </c>
       <c r="L57">
-        <v>1.03433852086362</v>
+        <v>1.0371016176194801</v>
       </c>
       <c r="M57">
-        <v>0.98299483030618995</v>
+        <v>0.97247087231275098</v>
       </c>
       <c r="N57">
-        <v>0.98299483030618995</v>
+        <v>0.97247087231275098</v>
       </c>
       <c r="O57">
-        <v>0.98384008586852201</v>
+        <v>0.96626549725533195</v>
       </c>
       <c r="P57">
-        <v>0.98247085615894802</v>
+        <v>0.97030019777801202</v>
       </c>
       <c r="Q57">
-        <v>0.98278627128301999</v>
+        <v>0.96660149253586503</v>
       </c>
       <c r="R57">
-        <v>0.98279273637111497</v>
+        <v>0.95995446616240199</v>
       </c>
       <c r="S57">
-        <v>0.98182265042793904</v>
+        <v>0.97053663207995899</v>
       </c>
       <c r="T57">
-        <v>0.98182265042793904</v>
+        <v>0.97053663207995899</v>
       </c>
       <c r="U57">
-        <v>0.99615708275576098</v>
+        <v>0.98200327314707703</v>
       </c>
       <c r="V57">
-        <v>0.99337942885102803</v>
+        <v>0.98289134291840696</v>
       </c>
       <c r="W57">
-        <v>0.98765288734963197</v>
+        <v>0.97597298720064096</v>
       </c>
       <c r="X57">
-        <v>0.98584136628214203</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.96503572467688803</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>1.0484735395943401</v>
+        <v>1.05972025424886</v>
       </c>
       <c r="B58">
-        <v>1.0484735395943401</v>
+        <v>1.05972025424886</v>
       </c>
       <c r="C58">
-        <v>1.02292824865885</v>
+        <v>1.02999257488728</v>
       </c>
       <c r="D58">
-        <v>1.03642406529679</v>
+        <v>1.0483512355967399</v>
       </c>
       <c r="E58">
-        <v>1.02560467307096</v>
+        <v>1.0348368379533801</v>
       </c>
       <c r="F58">
-        <v>1.0264526337544</v>
+        <v>1.0336632013320799</v>
       </c>
       <c r="G58">
-        <v>1.0574536943264301</v>
+        <v>1.0781299945465299</v>
       </c>
       <c r="H58">
-        <v>1.0574536943264301</v>
+        <v>1.0781299945465299</v>
       </c>
       <c r="I58">
-        <v>1.0487603516997801</v>
+        <v>1.0734153980894101</v>
       </c>
       <c r="J58">
-        <v>1.0557891309371901</v>
+        <v>1.0834797246185599</v>
       </c>
       <c r="K58">
-        <v>1.03919026060506</v>
+        <v>1.0656920065698701</v>
       </c>
       <c r="L58">
-        <v>1.03369842521316</v>
+        <v>1.0567818342805899</v>
       </c>
       <c r="M58">
-        <v>0.97870884750374298</v>
+        <v>0.97273069077960195</v>
       </c>
       <c r="N58">
-        <v>0.97870884750374298</v>
+        <v>0.97273069077960195</v>
       </c>
       <c r="O58">
-        <v>0.97804245817708302</v>
+        <v>0.96562330536365404</v>
       </c>
       <c r="P58">
-        <v>0.97749648998602301</v>
+        <v>0.97015733862741904</v>
       </c>
       <c r="Q58">
-        <v>0.97613154541783198</v>
+        <v>0.96505657819271795</v>
       </c>
       <c r="R58">
-        <v>0.97861513938754696</v>
+        <v>0.96013267279982595</v>
       </c>
       <c r="S58">
-        <v>0.987287202109974</v>
+        <v>0.98997865542562002</v>
       </c>
       <c r="T58">
-        <v>0.987287202109974</v>
+        <v>0.98997865542562002</v>
       </c>
       <c r="U58">
-        <v>0.99921886096315005</v>
+        <v>1.00344242570371</v>
       </c>
       <c r="V58">
-        <v>0.99843084347748301</v>
+        <v>1.0028145100838199</v>
       </c>
       <c r="W58">
-        <v>0.99048390794000896</v>
+        <v>0.99395770321468602</v>
       </c>
       <c r="X58">
-        <v>0.989344154475712</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.98714675415949105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>1.04054074128393</v>
+        <v>1.05721473547378</v>
       </c>
       <c r="B59">
-        <v>1.04054074128393</v>
+        <v>1.05721473547378</v>
       </c>
       <c r="C59">
-        <v>1.0128178765528999</v>
+        <v>1.0287360100134</v>
       </c>
       <c r="D59">
-        <v>1.0274106305721999</v>
+        <v>1.0452280290462299</v>
       </c>
       <c r="E59">
-        <v>1.01842074003034</v>
+        <v>1.0336751539117199</v>
       </c>
       <c r="F59">
-        <v>1.0208162985212601</v>
+        <v>1.0328900580533</v>
       </c>
       <c r="G59">
-        <v>1.0400761827260001</v>
+        <v>1.0650607661223901</v>
       </c>
       <c r="H59">
-        <v>1.0400761827260001</v>
+        <v>1.0650607661223901</v>
       </c>
       <c r="I59">
-        <v>1.0264417825016201</v>
+        <v>1.0506690476323099</v>
       </c>
       <c r="J59">
-        <v>1.03935378300274</v>
+        <v>1.067965373411</v>
       </c>
       <c r="K59">
-        <v>1.0271352321223901</v>
+        <v>1.0536501336145601</v>
       </c>
       <c r="L59">
-        <v>1.0218606988302801</v>
+        <v>1.0416140320096801</v>
       </c>
       <c r="M59">
-        <v>0.97994106631403199</v>
+        <v>0.97413450821919401</v>
       </c>
       <c r="N59">
-        <v>0.97994106631403199</v>
+        <v>0.97413450821919401</v>
       </c>
       <c r="O59">
-        <v>0.97979296088157197</v>
+        <v>0.96728264303495703</v>
       </c>
       <c r="P59">
-        <v>0.97817184125038104</v>
+        <v>0.97150561359881804</v>
       </c>
       <c r="Q59">
-        <v>0.97956613975106699</v>
+        <v>0.96776734339102799</v>
       </c>
       <c r="R59">
-        <v>0.98195466854226399</v>
+        <v>0.96376920764853802</v>
       </c>
       <c r="S59">
-        <v>0.97804537238468903</v>
+        <v>0.970508867970578</v>
       </c>
       <c r="T59">
-        <v>0.97804537238468903</v>
+        <v>0.970508867970578</v>
       </c>
       <c r="U59">
-        <v>0.98365637677793105</v>
+        <v>0.97769855581274601</v>
       </c>
       <c r="V59">
-        <v>0.98293058716369697</v>
+        <v>0.97810357600521203</v>
       </c>
       <c r="W59">
-        <v>0.98251674728637195</v>
+        <v>0.97599919201693697</v>
       </c>
       <c r="X59">
-        <v>0.98201036237189199</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.967187923906622</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>1.05437173325032</v>
+        <v>1.0757958083068999</v>
       </c>
       <c r="B60">
-        <v>1.05437173325032</v>
+        <v>1.0757958083068999</v>
       </c>
       <c r="C60">
-        <v>1.0289275296068501</v>
+        <v>1.0450665369388401</v>
       </c>
       <c r="D60">
-        <v>1.0423011877486601</v>
+        <v>1.06475634567634</v>
       </c>
       <c r="E60">
-        <v>1.03234485370639</v>
+        <v>1.0487482487769499</v>
       </c>
       <c r="F60">
-        <v>1.0346683865092901</v>
+        <v>1.0454035028144899</v>
       </c>
       <c r="G60">
-        <v>1.0555665150206499</v>
+        <v>1.0830181526723699</v>
       </c>
       <c r="H60">
-        <v>1.0555665150206499</v>
+        <v>1.0830181526723699</v>
       </c>
       <c r="I60">
-        <v>1.04335242720008</v>
+        <v>1.06792637686223</v>
       </c>
       <c r="J60">
-        <v>1.0464155821283101</v>
+        <v>1.0779789292298301</v>
       </c>
       <c r="K60">
-        <v>1.03451448273597</v>
+        <v>1.06243751740118</v>
       </c>
       <c r="L60">
-        <v>1.0328018835775801</v>
+        <v>1.0567415560859399</v>
       </c>
       <c r="M60">
-        <v>0.97778569895600997</v>
+        <v>0.96858638740023095</v>
       </c>
       <c r="N60">
-        <v>0.97778569895600997</v>
+        <v>0.96858638740023095</v>
       </c>
       <c r="O60">
-        <v>0.97778131198058804</v>
+        <v>0.95927655224072195</v>
       </c>
       <c r="P60">
-        <v>0.97591823549182199</v>
+        <v>0.96517917069737802</v>
       </c>
       <c r="Q60">
-        <v>0.97441295407442097</v>
+        <v>0.95914021273344596</v>
       </c>
       <c r="R60">
-        <v>0.97521805707602705</v>
+        <v>0.95199845870242905</v>
       </c>
       <c r="S60">
-        <v>0.97768308293905204</v>
+        <v>0.97924156828229802</v>
       </c>
       <c r="T60">
-        <v>0.97768308293905204</v>
+        <v>0.97924156828229802</v>
       </c>
       <c r="U60">
-        <v>0.98942338232570104</v>
+        <v>0.98663517675783696</v>
       </c>
       <c r="V60">
-        <v>0.98753792747948999</v>
+        <v>0.98983346234946001</v>
       </c>
       <c r="W60">
-        <v>0.98106638797484902</v>
+        <v>0.98039589147390604</v>
       </c>
       <c r="X60">
-        <v>0.98021961646088396</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.97298080490546801</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>1.0473675104972899</v>
+        <v>1.05759230979996</v>
       </c>
       <c r="B61">
-        <v>1.0473675104972899</v>
+        <v>1.05759230979996</v>
       </c>
       <c r="C61">
-        <v>1.01467530162206</v>
+        <v>1.0247795792035601</v>
       </c>
       <c r="D61">
-        <v>1.0316766885856199</v>
+        <v>1.04449905733683</v>
       </c>
       <c r="E61">
-        <v>1.02088302904823</v>
+        <v>1.03145719766329</v>
       </c>
       <c r="F61">
-        <v>1.0196353446334401</v>
+        <v>1.0256648677682101</v>
       </c>
       <c r="G61">
-        <v>1.0600724392793299</v>
+        <v>1.0729195856967999</v>
       </c>
       <c r="H61">
-        <v>1.0600724392793299</v>
+        <v>1.0729195856967999</v>
       </c>
       <c r="I61">
-        <v>1.0395370797943799</v>
+        <v>1.0600616243295999</v>
       </c>
       <c r="J61">
-        <v>1.04585779209987</v>
+        <v>1.0707621741748301</v>
       </c>
       <c r="K61">
-        <v>1.0339270037949899</v>
+        <v>1.0565509920809899</v>
       </c>
       <c r="L61">
-        <v>1.03080937353405</v>
+        <v>1.0437005215525501</v>
       </c>
       <c r="M61">
-        <v>0.97877233046582501</v>
+        <v>0.96920082452977596</v>
       </c>
       <c r="N61">
-        <v>0.97877233046582501</v>
+        <v>0.96920082452977596</v>
       </c>
       <c r="O61">
-        <v>0.97326245338645001</v>
+        <v>0.95933092565352096</v>
       </c>
       <c r="P61">
-        <v>0.974187206877421</v>
+        <v>0.96491007278056096</v>
       </c>
       <c r="Q61">
-        <v>0.97383263879927395</v>
+        <v>0.95981543891700805</v>
       </c>
       <c r="R61">
-        <v>0.97669440446540601</v>
+        <v>0.95485468805839002</v>
       </c>
       <c r="S61">
-        <v>0.98043375501052599</v>
+        <v>0.97896772627333295</v>
       </c>
       <c r="T61">
-        <v>0.98043375501052599</v>
+        <v>0.97896772627333295</v>
       </c>
       <c r="U61">
-        <v>0.98827304663974003</v>
+        <v>0.99395029622420294</v>
       </c>
       <c r="V61">
-        <v>0.98615100089121399</v>
+        <v>0.989437993461316</v>
       </c>
       <c r="W61">
-        <v>0.97969855022568697</v>
+        <v>0.98261620940439498</v>
       </c>
       <c r="X61">
-        <v>0.97961375144596397</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.97422696255989405</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>0.98215180869375496</v>
+        <v>1.0095656598473799</v>
       </c>
       <c r="B62">
-        <v>1.0410670749398001</v>
+        <v>1.0587780829736999</v>
       </c>
       <c r="C62">
-        <v>0.98215180869375496</v>
+        <v>1.0095656598473799</v>
       </c>
       <c r="D62">
-        <v>1.01485372847066</v>
+        <v>1.0394244447947101</v>
       </c>
       <c r="E62">
-        <v>0.98860953121803297</v>
+        <v>1.0153457261427099</v>
       </c>
       <c r="F62">
-        <v>0.98610088991341804</v>
+        <v>1.0120933199253099</v>
       </c>
       <c r="G62">
-        <v>1.0020520981041301</v>
+        <v>1.0212169168872001</v>
       </c>
       <c r="H62">
-        <v>1.0291684809974999</v>
+        <v>1.04067227862718</v>
       </c>
       <c r="I62">
-        <v>1.0020520981041301</v>
+        <v>1.0212169168872001</v>
       </c>
       <c r="J62">
-        <v>1.0038753457952601</v>
+        <v>1.0240060676662399</v>
       </c>
       <c r="K62">
-        <v>0.99648497501194</v>
+        <v>1.0158663467400899</v>
       </c>
       <c r="L62">
-        <v>0.99586256046740596</v>
+        <v>1.02047205656197</v>
       </c>
       <c r="M62">
-        <v>0.95532206729795099</v>
+        <v>0.961803590485517</v>
       </c>
       <c r="N62">
-        <v>0.98668613505540204</v>
+        <v>0.989730764897368</v>
       </c>
       <c r="O62">
-        <v>0.95532206729795099</v>
+        <v>0.961803590485517</v>
       </c>
       <c r="P62">
-        <v>0.970742519308743</v>
+        <v>0.97779508796447601</v>
       </c>
       <c r="Q62">
-        <v>0.95792186849710503</v>
+        <v>0.96466391424303299</v>
       </c>
       <c r="R62">
-        <v>0.95669854312700797</v>
+        <v>0.96269405310159095</v>
       </c>
       <c r="S62">
-        <v>0.97346946386611299</v>
+        <v>0.977253918405941</v>
       </c>
       <c r="T62">
-        <v>0.97495046668101903</v>
+        <v>0.981666882042458</v>
       </c>
       <c r="U62">
-        <v>0.97346946386611299</v>
+        <v>0.977253918405941</v>
       </c>
       <c r="V62">
-        <v>0.96580136283538398</v>
+        <v>0.97495809057888005</v>
       </c>
       <c r="W62">
-        <v>0.96706198860893799</v>
+        <v>0.97252524142185204</v>
       </c>
       <c r="X62">
-        <v>0.96386675207371497</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.97266608222409601</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>1.0429107046934301</v>
+        <v>1.0520944471562601</v>
       </c>
       <c r="B63">
-        <v>1.06150253900015</v>
+        <v>1.0662190002782701</v>
       </c>
       <c r="C63">
-        <v>1.01590244894076</v>
+        <v>1.0216524053966101</v>
       </c>
       <c r="D63">
-        <v>1.0429107046934301</v>
+        <v>1.0520944471562601</v>
       </c>
       <c r="E63">
-        <v>1.0231514871410201</v>
+        <v>1.03072285561034</v>
       </c>
       <c r="F63">
-        <v>1.0119959311521101</v>
+        <v>1.0163114972824501</v>
       </c>
       <c r="G63">
-        <v>1.03803561707728</v>
+        <v>1.0387963129903299</v>
       </c>
       <c r="H63">
-        <v>1.0547133350178799</v>
+        <v>1.049630185402</v>
       </c>
       <c r="I63">
-        <v>1.0368669937019901</v>
+        <v>1.0314359189367299</v>
       </c>
       <c r="J63">
-        <v>1.03803561707728</v>
+        <v>1.0387963129903299</v>
       </c>
       <c r="K63">
-        <v>1.0325782928198399</v>
+        <v>1.0292230915327101</v>
       </c>
       <c r="L63">
-        <v>1.0251624592650901</v>
+        <v>1.02830147754905</v>
       </c>
       <c r="M63">
-        <v>0.98574198162900895</v>
+        <v>0.98298649387735304</v>
       </c>
       <c r="N63">
-        <v>0.99471211963170403</v>
+        <v>0.98906471476930002</v>
       </c>
       <c r="O63">
-        <v>0.97096547760648</v>
+        <v>0.96874170413193195</v>
       </c>
       <c r="P63">
-        <v>0.98574198162900895</v>
+        <v>0.98298649387735304</v>
       </c>
       <c r="Q63">
-        <v>0.97414032874597101</v>
+        <v>0.97211800836641304</v>
       </c>
       <c r="R63">
-        <v>0.96007537328672998</v>
+        <v>0.95979491908256898</v>
       </c>
       <c r="S63">
-        <v>0.97919806556973898</v>
+        <v>0.97911684057666704</v>
       </c>
       <c r="T63">
-        <v>0.98764696152531195</v>
+        <v>0.98004462433967099</v>
       </c>
       <c r="U63">
-        <v>0.98148583287348101</v>
+        <v>0.98278991656724601</v>
       </c>
       <c r="V63">
-        <v>0.97919806556973898</v>
+        <v>0.97911684057666704</v>
       </c>
       <c r="W63">
-        <v>0.97516552478691199</v>
+        <v>0.97722017172614195</v>
       </c>
       <c r="X63">
-        <v>0.97323770577942603</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.97634413065177905</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>0.99229489423981998</v>
+        <v>1.0126666420660599</v>
       </c>
       <c r="B64">
-        <v>1.0094384646882399</v>
+        <v>1.02289150409609</v>
       </c>
       <c r="C64">
-        <v>0.97093488688823004</v>
+        <v>0.99224265433634196</v>
       </c>
       <c r="D64">
-        <v>0.99229489423981998</v>
+        <v>1.0126666420660599</v>
       </c>
       <c r="E64">
-        <v>0.97827173545678503</v>
+        <v>0.99875268578102705</v>
       </c>
       <c r="F64">
-        <v>0.97881573674891298</v>
+        <v>0.99446163724023995</v>
       </c>
       <c r="G64">
-        <v>1.0037891315382099</v>
+        <v>1.0191854447637101</v>
       </c>
       <c r="H64">
-        <v>1.0060658452062401</v>
+        <v>1.0170219114129799</v>
       </c>
       <c r="I64">
-        <v>1.0037781137106301</v>
+        <v>1.0150286263120301</v>
       </c>
       <c r="J64">
-        <v>1.0037891315382099</v>
+        <v>1.0191854447637101</v>
       </c>
       <c r="K64">
-        <v>0.99597296644917799</v>
+        <v>1.01027688614335</v>
       </c>
       <c r="L64">
-        <v>0.98701383017407296</v>
+        <v>0.99994032130877497</v>
       </c>
       <c r="M64">
-        <v>0.96559802333465805</v>
+        <v>0.96591960546157796</v>
       </c>
       <c r="N64">
-        <v>0.974639391544734</v>
+        <v>0.97140104842998298</v>
       </c>
       <c r="O64">
-        <v>0.95584892593418702</v>
+        <v>0.95595204826185898</v>
       </c>
       <c r="P64">
-        <v>0.96559802333465805</v>
+        <v>0.96591960546157796</v>
       </c>
       <c r="Q64">
-        <v>0.95846818282179302</v>
+        <v>0.95841683893857199</v>
       </c>
       <c r="R64">
-        <v>0.95608123603352402</v>
+        <v>0.95354948659752403</v>
       </c>
       <c r="S64">
-        <v>0.97048400735721996</v>
+        <v>0.96903361774954999</v>
       </c>
       <c r="T64">
-        <v>0.96646605413488695</v>
+        <v>0.962788863241685</v>
       </c>
       <c r="U64">
-        <v>0.97789458354560699</v>
+        <v>0.97186525229702203</v>
       </c>
       <c r="V64">
-        <v>0.97048400735721996</v>
+        <v>0.96903361774954999</v>
       </c>
       <c r="W64">
-        <v>0.96936586738566199</v>
+        <v>0.96546798279953905</v>
       </c>
       <c r="X64">
-        <v>0.962117213537107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.95768190956813604</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>1.0214539462540899</v>
+        <v>1.0338569453440001</v>
       </c>
       <c r="B65">
-        <v>1.02727403771311</v>
+        <v>1.03959160174608</v>
       </c>
       <c r="C65">
-        <v>1.00189177484082</v>
+        <v>1.01192942006608</v>
       </c>
       <c r="D65">
-        <v>1.0214539462540899</v>
+        <v>1.0338569453440001</v>
       </c>
       <c r="E65">
-        <v>0.99665421415106303</v>
+        <v>1.0042347855746501</v>
       </c>
       <c r="F65">
-        <v>0.99970000499671297</v>
+        <v>1.01093367850141</v>
       </c>
       <c r="G65">
-        <v>1.0322859630957</v>
+        <v>1.0411010075126701</v>
       </c>
       <c r="H65">
-        <v>1.0319852470070801</v>
+        <v>1.0404079825300201</v>
       </c>
       <c r="I65">
-        <v>1.03927005246149</v>
+        <v>1.04894487573572</v>
       </c>
       <c r="J65">
-        <v>1.0322859630957</v>
+        <v>1.0411010075126701</v>
       </c>
       <c r="K65">
-        <v>1.0481371400333599</v>
+        <v>1.0573924106705499</v>
       </c>
       <c r="L65">
-        <v>1.0107647036576299</v>
+        <v>1.01990315796631</v>
       </c>
       <c r="M65">
-        <v>0.97969563269835302</v>
+        <v>0.97651176494048597</v>
       </c>
       <c r="N65">
-        <v>0.98261334864390304</v>
+        <v>0.97936818913537704</v>
       </c>
       <c r="O65">
-        <v>0.96991326510826803</v>
+        <v>0.96491126099667601</v>
       </c>
       <c r="P65">
-        <v>0.97969563269835302</v>
+        <v>0.97651176494048597</v>
       </c>
       <c r="Q65">
-        <v>0.96779756183729304</v>
+        <v>0.96098839242177703</v>
       </c>
       <c r="R65">
-        <v>0.96388483094645705</v>
+        <v>0.95747484186645304</v>
       </c>
       <c r="S65">
-        <v>0.99440287161699603</v>
+        <v>0.991607561300337</v>
       </c>
       <c r="T65">
-        <v>0.98388410065662202</v>
+        <v>0.98213541560902295</v>
       </c>
       <c r="U65">
-        <v>1.0040076537021601</v>
+        <v>0.99827928509844499</v>
       </c>
       <c r="V65">
-        <v>0.99440287161699603</v>
+        <v>0.991607561300337</v>
       </c>
       <c r="W65">
-        <v>1.0129027910011901</v>
+        <v>1.0020017456803501</v>
       </c>
       <c r="X65">
-        <v>0.97830043433483904</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.97262728778104002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>1.0175789342288799</v>
+        <v>1.0348657258892999</v>
       </c>
       <c r="B66">
-        <v>1.03148494038353</v>
+        <v>1.04703426146122</v>
       </c>
       <c r="C66">
-        <v>0.99613452312361395</v>
+        <v>1.01466998281812</v>
       </c>
       <c r="D66">
-        <v>1.0175789342288799</v>
+        <v>1.0348657258892999</v>
       </c>
       <c r="E66">
-        <v>1.00186618035335</v>
+        <v>1.0203225934975</v>
       </c>
       <c r="F66">
-        <v>1.0002351985829301</v>
+        <v>1.0180749915990699</v>
       </c>
       <c r="G66">
-        <v>1.0270218653769601</v>
+        <v>1.04378712400397</v>
       </c>
       <c r="H66">
-        <v>1.0286399587542401</v>
+        <v>1.04665756097218</v>
       </c>
       <c r="I66">
-        <v>1.0195670298269299</v>
+        <v>1.03678487666647</v>
       </c>
       <c r="J66">
-        <v>1.0270218653769601</v>
+        <v>1.04378712400397</v>
       </c>
       <c r="K66">
-        <v>1.01471064760876</v>
+        <v>1.0314010920424601</v>
       </c>
       <c r="L66">
-        <v>1.006469876298</v>
+        <v>1.0273259431052399</v>
       </c>
       <c r="M66">
-        <v>0.97248246021178397</v>
+        <v>0.96733220353549598</v>
       </c>
       <c r="N66">
-        <v>0.97680852549633201</v>
+        <v>0.97175662511474503</v>
       </c>
       <c r="O66">
-        <v>0.96465663210057095</v>
+        <v>0.95696141852676098</v>
       </c>
       <c r="P66">
-        <v>0.97248246021178397</v>
+        <v>0.96733220353549598</v>
       </c>
       <c r="Q66">
-        <v>0.96563096516136504</v>
+        <v>0.95888719546132395</v>
       </c>
       <c r="R66">
-        <v>0.96125188875217304</v>
+        <v>0.95206808411231902</v>
       </c>
       <c r="S66">
-        <v>0.98197034865142296</v>
+        <v>0.98072159126348701</v>
       </c>
       <c r="T66">
-        <v>0.97309823409952301</v>
+        <v>0.97098087146852796</v>
       </c>
       <c r="U66">
-        <v>0.98611271698536096</v>
+        <v>0.979626761160031</v>
       </c>
       <c r="V66">
-        <v>0.98197034865142296</v>
+        <v>0.98072159126348701</v>
       </c>
       <c r="W66">
-        <v>0.97801720528521496</v>
+        <v>0.971856359497004</v>
       </c>
       <c r="X66">
-        <v>0.96707571939169601</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.96070166364403198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>1.04728184475289</v>
+        <v>1.04547458295179</v>
       </c>
       <c r="B67">
-        <v>1.04728184475289</v>
+        <v>1.04547458295179</v>
       </c>
       <c r="C67">
-        <v>1.0040210758618999</v>
+        <v>1.00140650580261</v>
       </c>
       <c r="D67">
-        <v>1.02540832909396</v>
+        <v>1.02752116335905</v>
       </c>
       <c r="E67">
-        <v>1.01272972799731</v>
+        <v>1.01148885848129</v>
       </c>
       <c r="F67">
-        <v>1.0083812354878801</v>
+        <v>1.00120850489402</v>
       </c>
       <c r="G67">
-        <v>1.06327610040501</v>
+        <v>1.05111908368749</v>
       </c>
       <c r="H67">
-        <v>1.06327610040501</v>
+        <v>1.05111908368749</v>
       </c>
       <c r="I67">
-        <v>1.0492122363109699</v>
+        <v>1.0340594195867601</v>
       </c>
       <c r="J67">
-        <v>1.05112100833469</v>
+        <v>1.04097731830747</v>
       </c>
       <c r="K67">
-        <v>1.0430924259541201</v>
+        <v>1.03281780417672</v>
       </c>
       <c r="L67">
-        <v>1.0376823734727301</v>
+        <v>1.0322799898000199</v>
       </c>
       <c r="M67">
-        <v>0.98945503869218598</v>
+        <v>0.98022277155228099</v>
       </c>
       <c r="N67">
-        <v>0.98945503869218598</v>
+        <v>0.98022277155228099</v>
       </c>
       <c r="O67">
-        <v>0.96294691018520195</v>
+        <v>0.95672147024737497</v>
       </c>
       <c r="P67">
-        <v>0.97801127411689304</v>
+        <v>0.97156832458192999</v>
       </c>
       <c r="Q67">
-        <v>0.96678410486555799</v>
+        <v>0.96118594656539902</v>
       </c>
       <c r="R67">
-        <v>0.95573473257394204</v>
+        <v>0.952233846972664</v>
       </c>
       <c r="S67">
-        <v>0.99712830980169098</v>
+        <v>0.98226237934569804</v>
       </c>
       <c r="T67">
-        <v>0.99712830980169098</v>
+        <v>0.98226237934569804</v>
       </c>
       <c r="U67">
-        <v>0.99321368223148399</v>
+        <v>0.97867241563986196</v>
       </c>
       <c r="V67">
-        <v>0.99436543152904</v>
+        <v>0.981783643940497</v>
       </c>
       <c r="W67">
-        <v>0.98621867257620199</v>
+        <v>0.97552387200490998</v>
       </c>
       <c r="X67">
-        <v>0.98146534142330399</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.97478728703671003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>1.06157948721137</v>
+        <v>1.06580309587</v>
       </c>
       <c r="B68">
-        <v>1.06157948721137</v>
+        <v>1.06580309587</v>
       </c>
       <c r="C68">
-        <v>1.0243019497841299</v>
+        <v>1.0304320607270501</v>
       </c>
       <c r="D68">
-        <v>1.04658096166512</v>
+        <v>1.05566327769901</v>
       </c>
       <c r="E68">
-        <v>1.0303357750233899</v>
+        <v>1.0372223791383199</v>
       </c>
       <c r="F68">
-        <v>1.02037415519559</v>
+        <v>1.0214800555647601</v>
       </c>
       <c r="G68">
-        <v>1.07982594774597</v>
+        <v>1.07276017894205</v>
       </c>
       <c r="H68">
-        <v>1.07982594774597</v>
+        <v>1.07276017894205</v>
       </c>
       <c r="I68">
-        <v>1.0589359854411999</v>
+        <v>1.0574531013481601</v>
       </c>
       <c r="J68">
-        <v>1.07014023389736</v>
+        <v>1.06852461595209</v>
       </c>
       <c r="K68">
-        <v>1.05561687585549</v>
+        <v>1.05837464812119</v>
       </c>
       <c r="L68">
-        <v>1.0554350862166899</v>
+        <v>1.0584717736079099</v>
       </c>
       <c r="M68">
-        <v>0.99580054053353695</v>
+        <v>0.98553951860084399</v>
       </c>
       <c r="N68">
-        <v>0.99580054053353695</v>
+        <v>0.98553951860084399</v>
       </c>
       <c r="O68">
-        <v>0.97842742627243895</v>
+        <v>0.97268846331484304</v>
       </c>
       <c r="P68">
-        <v>0.98937537424733202</v>
+        <v>0.98286379474463004</v>
       </c>
       <c r="Q68">
-        <v>0.98037812708095895</v>
+        <v>0.97431650724625896</v>
       </c>
       <c r="R68">
-        <v>0.96843457609164696</v>
+        <v>0.96229020487624395</v>
       </c>
       <c r="S68">
-        <v>0.99905084105447395</v>
+        <v>0.97927917324508595</v>
       </c>
       <c r="T68">
-        <v>0.99905084105447395</v>
+        <v>0.97927917324508595</v>
       </c>
       <c r="U68">
-        <v>0.993331750885459</v>
+        <v>0.98218867061505399</v>
       </c>
       <c r="V68">
-        <v>0.99586602423078097</v>
+        <v>0.98184217321128997</v>
       </c>
       <c r="W68">
-        <v>0.98922116839681395</v>
+        <v>0.97887353183831904</v>
       </c>
       <c r="X68">
-        <v>0.98805986636153198</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.97732492873368004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>1.0482812313355401</v>
+        <v>1.0455438107894</v>
       </c>
       <c r="B69">
-        <v>1.0482812313355401</v>
+        <v>1.0455438107894</v>
       </c>
       <c r="C69">
-        <v>1.01306654745114</v>
+        <v>1.0080283499842899</v>
       </c>
       <c r="D69">
-        <v>1.03275189062383</v>
+        <v>1.0329539081928201</v>
       </c>
       <c r="E69">
-        <v>1.0188313861815399</v>
+        <v>1.0162900221286399</v>
       </c>
       <c r="F69">
-        <v>1.0133535463391301</v>
+        <v>1.0018592330290901</v>
       </c>
       <c r="G69">
-        <v>1.0723195407397601</v>
+        <v>1.0633311931252301</v>
       </c>
       <c r="H69">
-        <v>1.0723195407397601</v>
+        <v>1.0633311931252301</v>
       </c>
       <c r="I69">
-        <v>1.05196219682381</v>
+        <v>1.0384318439007501</v>
       </c>
       <c r="J69">
-        <v>1.0552877172175199</v>
+        <v>1.0476375846441299</v>
       </c>
       <c r="K69">
-        <v>1.0464135353417201</v>
+        <v>1.0365194856013999</v>
       </c>
       <c r="L69">
-        <v>1.0455391515232699</v>
+        <v>1.0406508754274499</v>
       </c>
       <c r="M69">
-        <v>0.98541636267935195</v>
+        <v>0.970221597033609</v>
       </c>
       <c r="N69">
-        <v>0.98541636267935195</v>
+        <v>0.970221597033609</v>
       </c>
       <c r="O69">
-        <v>0.966588074331867</v>
+        <v>0.95336000572743895</v>
       </c>
       <c r="P69">
-        <v>0.97735799950629398</v>
+        <v>0.96499787061400399</v>
       </c>
       <c r="Q69">
-        <v>0.96930485308509695</v>
+        <v>0.95721920937442295</v>
       </c>
       <c r="R69">
-        <v>0.96129397812910899</v>
+        <v>0.94789786961787204</v>
       </c>
       <c r="S69">
-        <v>0.99189940982564895</v>
+        <v>0.97346360994803005</v>
       </c>
       <c r="T69">
-        <v>0.99189940982564895</v>
+        <v>0.97346360994803005</v>
       </c>
       <c r="U69">
-        <v>0.985930739857105</v>
+        <v>0.96827683320444102</v>
       </c>
       <c r="V69">
-        <v>0.98579051428838704</v>
+        <v>0.96971836443026904</v>
       </c>
       <c r="W69">
-        <v>0.98083942040518302</v>
+        <v>0.96506738017206894</v>
       </c>
       <c r="X69">
-        <v>0.97778134590017995</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.96677352897477098</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>1.0457529979981799</v>
+        <v>1.0534524966088701</v>
       </c>
       <c r="B70">
-        <v>1.0457529979981799</v>
+        <v>1.0534524966088701</v>
       </c>
       <c r="C70">
-        <v>1.01349030493991</v>
+        <v>1.0171526132194999</v>
       </c>
       <c r="D70">
-        <v>1.03429998487788</v>
+        <v>1.0423388737391199</v>
       </c>
       <c r="E70">
-        <v>1.0208469513175999</v>
+        <v>1.0246532589500801</v>
       </c>
       <c r="F70">
-        <v>1.0090678803087201</v>
+        <v>1.00965687857188</v>
       </c>
       <c r="G70">
-        <v>1.05983332238418</v>
+        <v>1.06322053068698</v>
       </c>
       <c r="H70">
-        <v>1.05983332238418</v>
+        <v>1.06322053068698</v>
       </c>
       <c r="I70">
-        <v>1.0542336058606401</v>
+        <v>1.0629477014914901</v>
       </c>
       <c r="J70">
-        <v>1.0445805713913601</v>
+        <v>1.0596343341235099</v>
       </c>
       <c r="K70">
-        <v>1.04693436628432</v>
+        <v>1.0565080372981199</v>
       </c>
       <c r="L70">
-        <v>1.0450724321184801</v>
+        <v>1.0524746536337</v>
       </c>
       <c r="M70">
-        <v>0.98717172638316297</v>
+        <v>0.98248769931815505</v>
       </c>
       <c r="N70">
-        <v>0.98717172638316297</v>
+        <v>0.98248769931815505</v>
       </c>
       <c r="O70">
-        <v>0.97095346099984303</v>
+        <v>0.96742271915862998</v>
       </c>
       <c r="P70">
-        <v>0.98109326821863896</v>
+        <v>0.97742491515373198</v>
       </c>
       <c r="Q70">
-        <v>0.974430282437457</v>
+        <v>0.97039466926505002</v>
       </c>
       <c r="R70">
-        <v>0.96476829089219496</v>
+        <v>0.96068141524566597</v>
       </c>
       <c r="S70">
-        <v>0.99070943797572397</v>
+        <v>0.98448243494592502</v>
       </c>
       <c r="T70">
-        <v>0.99070943797572397</v>
+        <v>0.98448243494592502</v>
       </c>
       <c r="U70">
-        <v>0.99038461669318101</v>
+        <v>0.99604726648254904</v>
       </c>
       <c r="V70">
-        <v>0.97975231101456794</v>
+        <v>0.98501913074171898</v>
       </c>
       <c r="W70">
-        <v>0.983557913986712</v>
+        <v>0.98742946075515703</v>
       </c>
       <c r="X70">
-        <v>0.98614274252407397</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.98629764702982403</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>1.0481883393593201</v>
+        <v>1.05675913561711</v>
       </c>
       <c r="B71">
-        <v>1.0481883393593201</v>
+        <v>1.05675913561711</v>
       </c>
       <c r="C71">
-        <v>1.0149785335383401</v>
+        <v>1.0185354715903101</v>
       </c>
       <c r="D71">
-        <v>1.0374248777709001</v>
+        <v>1.0466490254291301</v>
       </c>
       <c r="E71">
-        <v>1.0206323092910901</v>
+        <v>1.02624751851489</v>
       </c>
       <c r="F71">
-        <v>1.0056342440450801</v>
+        <v>1.00734618271456</v>
       </c>
       <c r="G71">
-        <v>1.0678687993541101</v>
+        <v>1.0704707579988</v>
       </c>
       <c r="H71">
-        <v>1.0678687993541101</v>
+        <v>1.0704707579988</v>
       </c>
       <c r="I71">
-        <v>1.0476485566796101</v>
+        <v>1.0553014740004001</v>
       </c>
       <c r="J71">
-        <v>1.0536058837766999</v>
+        <v>1.062127441766</v>
       </c>
       <c r="K71">
-        <v>1.0455451654957399</v>
+        <v>1.0536500909125801</v>
       </c>
       <c r="L71">
-        <v>1.04401543240994</v>
+        <v>1.0531620568859099</v>
       </c>
       <c r="M71">
-        <v>0.99061794451687601</v>
+        <v>0.98529944753741305</v>
       </c>
       <c r="N71">
-        <v>0.99061794451687601</v>
+        <v>0.98529944753741305</v>
       </c>
       <c r="O71">
-        <v>0.97785806329820801</v>
+        <v>0.97208671792691803</v>
       </c>
       <c r="P71">
-        <v>0.98829827443068996</v>
+        <v>0.98347224514797704</v>
       </c>
       <c r="Q71">
-        <v>0.97946626678616799</v>
+        <v>0.97447732575434098</v>
       </c>
       <c r="R71">
-        <v>0.96728326579982704</v>
+        <v>0.96245070267086597</v>
       </c>
       <c r="S71">
-        <v>0.99260373684081704</v>
+        <v>0.98418580648810206</v>
       </c>
       <c r="T71">
-        <v>0.99260373684081704</v>
+        <v>0.98418580648810206</v>
       </c>
       <c r="U71">
-        <v>0.98959843999250097</v>
+        <v>0.99064635579738203</v>
       </c>
       <c r="V71">
-        <v>0.98825396047418701</v>
+        <v>0.98368705651231603</v>
       </c>
       <c r="W71">
-        <v>0.98464928013918995</v>
+        <v>0.98381229643432699</v>
       </c>
       <c r="X71">
-        <v>0.98625259340844595</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.98503396869624804</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>1.07494174451953</v>
+        <v>1.0750213519087699</v>
       </c>
       <c r="B72">
-        <v>1.07494174451953</v>
+        <v>1.0750213519087699</v>
       </c>
       <c r="C72">
-        <v>1.0276840137026</v>
+        <v>1.0274855110832499</v>
       </c>
       <c r="D72">
-        <v>1.0521890426912499</v>
+        <v>1.05540173664043</v>
       </c>
       <c r="E72">
-        <v>1.03617420832669</v>
+        <v>1.0379896569820799</v>
       </c>
       <c r="F72">
-        <v>1.02247238974564</v>
+        <v>1.0262157933390601</v>
       </c>
       <c r="G72">
-        <v>1.07953365482814</v>
+        <v>1.07656520557261</v>
       </c>
       <c r="H72">
-        <v>1.07953365482814</v>
+        <v>1.07656520557261</v>
       </c>
       <c r="I72">
-        <v>1.06107671249367</v>
+        <v>1.0603674574475701</v>
       </c>
       <c r="J72">
-        <v>1.06808396250094</v>
+        <v>1.06808754644069</v>
       </c>
       <c r="K72">
-        <v>1.0574265675878201</v>
+        <v>1.0598489869147201</v>
       </c>
       <c r="L72">
-        <v>1.05073445434683</v>
+        <v>1.05986353282259</v>
       </c>
       <c r="M72">
-        <v>0.99724832571771405</v>
+        <v>0.98116736122028902</v>
       </c>
       <c r="N72">
-        <v>0.99724832571771405</v>
+        <v>0.98116736122028902</v>
       </c>
       <c r="O72">
-        <v>0.97493696649373995</v>
+        <v>0.96198924521062401</v>
       </c>
       <c r="P72">
-        <v>0.98741655069490997</v>
+        <v>0.97371064342861802</v>
       </c>
       <c r="Q72">
-        <v>0.97814877013708001</v>
+        <v>0.96558294169009196</v>
       </c>
       <c r="R72">
-        <v>0.96499499670756295</v>
+        <v>0.95721766673686204</v>
       </c>
       <c r="S72">
-        <v>1.00183913564067</v>
+        <v>0.98930135824961396</v>
       </c>
       <c r="T72">
-        <v>1.00183913564067</v>
+        <v>0.98930135824961396</v>
       </c>
       <c r="U72">
-        <v>0.99638057856427598</v>
+        <v>0.99132043229352396</v>
       </c>
       <c r="V72">
-        <v>0.99719909704616505</v>
+        <v>0.99066018254864296</v>
       </c>
       <c r="W72">
-        <v>0.99068894738618196</v>
+        <v>0.98666154393013905</v>
       </c>
       <c r="X72">
-        <v>0.98806137178272202</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.98375479229449303</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>1.05181624282215</v>
+        <v>1.0632872150205901</v>
       </c>
       <c r="B73">
-        <v>1.05181624282215</v>
+        <v>1.0632872150205901</v>
       </c>
       <c r="C73">
-        <v>1.01482914196082</v>
+        <v>1.0254600648512699</v>
       </c>
       <c r="D73">
-        <v>1.0357929528183301</v>
+        <v>1.0500130457032799</v>
       </c>
       <c r="E73">
-        <v>1.02075335010407</v>
+        <v>1.03328007205154</v>
       </c>
       <c r="F73">
-        <v>1.0144551767722501</v>
+        <v>1.02454462195255</v>
       </c>
       <c r="G73">
-        <v>1.0587623487551701</v>
+        <v>1.06642555686483</v>
       </c>
       <c r="H73">
-        <v>1.0587623487551701</v>
+        <v>1.06642555686483</v>
       </c>
       <c r="I73">
-        <v>1.04600230825568</v>
+        <v>1.0638120250030401</v>
       </c>
       <c r="J73">
-        <v>1.0413537615270301</v>
+        <v>1.0559853977450799</v>
       </c>
       <c r="K73">
-        <v>1.03865772281191</v>
+        <v>1.0566074019291301</v>
       </c>
       <c r="L73">
-        <v>1.0360760342177799</v>
+        <v>1.05344326684978</v>
       </c>
       <c r="M73">
-        <v>0.98988960617130695</v>
+        <v>0.981445478124919</v>
       </c>
       <c r="N73">
-        <v>0.98988960617130695</v>
+        <v>0.981445478124919</v>
       </c>
       <c r="O73">
-        <v>0.97329412754254396</v>
+        <v>0.965392353203125</v>
       </c>
       <c r="P73">
-        <v>0.98408870386340996</v>
+        <v>0.97616079930800004</v>
       </c>
       <c r="Q73">
-        <v>0.97619698591627402</v>
+        <v>0.968857920486212</v>
       </c>
       <c r="R73">
-        <v>0.96494790867772995</v>
+        <v>0.96071571576508796</v>
       </c>
       <c r="S73">
-        <v>0.988861364816502</v>
+        <v>0.97823990911397596</v>
       </c>
       <c r="T73">
-        <v>0.988861364816502</v>
+        <v>0.97823990911397596</v>
       </c>
       <c r="U73">
-        <v>0.98711911415658105</v>
+        <v>0.98620955724379</v>
       </c>
       <c r="V73">
-        <v>0.97857876851471903</v>
+        <v>0.97551018305927095</v>
       </c>
       <c r="W73">
-        <v>0.98071519605345003</v>
+        <v>0.97834158475842603</v>
       </c>
       <c r="X73">
-        <v>0.97790690708607497</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.97645376699959796</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>1.0303032008270201</v>
+        <v>1.03109019959069</v>
       </c>
       <c r="B74">
-        <v>1.0303032008270201</v>
+        <v>1.03109019959069</v>
       </c>
       <c r="C74">
-        <v>0.99850875317080601</v>
+        <v>1.00739460117574</v>
       </c>
       <c r="D74">
-        <v>1.0159528159003099</v>
+        <v>1.0235239809513501</v>
       </c>
       <c r="E74">
-        <v>1.00707656778993</v>
+        <v>1.01353608227903</v>
       </c>
       <c r="F74">
-        <v>1.00473011917883</v>
+        <v>1.00889895801319</v>
       </c>
       <c r="G74">
-        <v>1.04100888617526</v>
+        <v>1.0466943934281501</v>
       </c>
       <c r="H74">
-        <v>1.04100888617526</v>
+        <v>1.0466943934281501</v>
       </c>
       <c r="I74">
-        <v>1.0403653359737</v>
+        <v>1.0414855738673501</v>
       </c>
       <c r="J74">
-        <v>1.0394496006615199</v>
+        <v>1.0428247318987101</v>
       </c>
       <c r="K74">
-        <v>1.0358695996626901</v>
+        <v>1.03877057342098</v>
       </c>
       <c r="L74">
-        <v>1.0310926845338699</v>
+        <v>1.03567705452367</v>
       </c>
       <c r="M74">
-        <v>0.980872162242725</v>
+        <v>0.96361366165264395</v>
       </c>
       <c r="N74">
-        <v>0.980872162242725</v>
+        <v>0.96361366165264395</v>
       </c>
       <c r="O74">
-        <v>0.96344768012202497</v>
+        <v>0.951237696863516</v>
       </c>
       <c r="P74">
-        <v>0.972161835112197</v>
+        <v>0.95928476850356503</v>
       </c>
       <c r="Q74">
-        <v>0.96687434900729596</v>
+        <v>0.95296997599090205</v>
       </c>
       <c r="R74">
-        <v>0.96555088863274696</v>
+        <v>0.94900736062417701</v>
       </c>
       <c r="S74">
-        <v>0.98433109936389795</v>
+        <v>0.97638882968630603</v>
       </c>
       <c r="T74">
-        <v>0.98433109936389795</v>
+        <v>0.97638882968630603</v>
       </c>
       <c r="U74">
-        <v>0.98708695438728</v>
+        <v>0.977534899226008</v>
       </c>
       <c r="V74">
-        <v>0.98594169329173997</v>
+        <v>0.97795481068452905</v>
       </c>
       <c r="W74">
-        <v>0.98293536233029899</v>
+        <v>0.97427313597410004</v>
       </c>
       <c r="X74">
-        <v>0.97962528204056298</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.96994128634978904</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>1.02858340798891</v>
+        <v>1.0340827684824001</v>
       </c>
       <c r="B75">
-        <v>1.02858340798891</v>
+        <v>1.0340827684824001</v>
       </c>
       <c r="C75">
-        <v>0.99259505874174403</v>
+        <v>1.0024495707941701</v>
       </c>
       <c r="D75">
-        <v>1.01184167153559</v>
+        <v>1.0225478354325399</v>
       </c>
       <c r="E75">
-        <v>1.0014519128932799</v>
+        <v>1.01051941694336</v>
       </c>
       <c r="F75">
-        <v>0.99576857416402598</v>
+        <v>1.00520835775638</v>
       </c>
       <c r="G75">
-        <v>1.0266613984772099</v>
+        <v>1.0301147632238401</v>
       </c>
       <c r="H75">
-        <v>1.0266613984772099</v>
+        <v>1.0301147632238401</v>
       </c>
       <c r="I75">
-        <v>1.0217478292645099</v>
+        <v>1.01861590112611</v>
       </c>
       <c r="J75">
-        <v>1.0167095350056301</v>
+        <v>1.02665820631454</v>
       </c>
       <c r="K75">
-        <v>1.0152944829431101</v>
+        <v>1.0147651197685099</v>
       </c>
       <c r="L75">
-        <v>1.01131293596517</v>
+        <v>1.0142877826104799</v>
       </c>
       <c r="M75">
-        <v>0.98128086277197402</v>
+        <v>0.96767602996387803</v>
       </c>
       <c r="N75">
-        <v>0.98128086277197402</v>
+        <v>0.96767602996387803</v>
       </c>
       <c r="O75">
-        <v>0.96235164719895006</v>
+        <v>0.95173620677618498</v>
       </c>
       <c r="P75">
-        <v>0.97158223884277495</v>
+        <v>0.96162468036008597</v>
       </c>
       <c r="Q75">
-        <v>0.96562177095577095</v>
+        <v>0.954733839744908</v>
       </c>
       <c r="R75">
-        <v>0.96177406206143801</v>
+        <v>0.94981093306674702</v>
       </c>
       <c r="S75">
-        <v>0.97019659391929702</v>
+        <v>0.95720873796513795</v>
       </c>
       <c r="T75">
-        <v>0.97019659391929702</v>
+        <v>0.95720873796513795</v>
       </c>
       <c r="U75">
-        <v>0.977884094494895</v>
+        <v>0.96375254790022502</v>
       </c>
       <c r="V75">
-        <v>0.97056615947254898</v>
+        <v>0.96299591324269695</v>
       </c>
       <c r="W75">
-        <v>0.97093993632464903</v>
+        <v>0.95796892926572097</v>
       </c>
       <c r="X75">
-        <v>0.96718310283669495</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.95274917002153303</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>1.02798375375613</v>
+        <v>1.0336475202442901</v>
       </c>
       <c r="B76">
-        <v>1.02798375375613</v>
+        <v>1.0336475202442901</v>
       </c>
       <c r="C76">
-        <v>0.99994056045394697</v>
+        <v>1.01209253821433</v>
       </c>
       <c r="D76">
-        <v>1.01568808970667</v>
+        <v>1.02740915699883</v>
       </c>
       <c r="E76">
-        <v>1.0065264728747401</v>
+        <v>1.01751874640993</v>
       </c>
       <c r="F76">
-        <v>1.00170761272753</v>
+        <v>1.0083262622261699</v>
       </c>
       <c r="G76">
-        <v>1.0460005711895199</v>
+        <v>1.0432892113227401</v>
       </c>
       <c r="H76">
-        <v>1.0460005711895199</v>
+        <v>1.0432892113227401</v>
       </c>
       <c r="I76">
-        <v>1.05448856795506</v>
+        <v>1.04762309878381</v>
       </c>
       <c r="J76">
-        <v>1.0514418505730001</v>
+        <v>1.0495485123600301</v>
       </c>
       <c r="K76">
-        <v>1.04475165028013</v>
+        <v>1.0407968492964601</v>
       </c>
       <c r="L76">
-        <v>1.03807592334091</v>
+        <v>1.03452218914562</v>
       </c>
       <c r="M76">
-        <v>0.98146743753025201</v>
+        <v>0.97797719251644999</v>
       </c>
       <c r="N76">
-        <v>0.98146743753025201</v>
+        <v>0.97797719251644999</v>
       </c>
       <c r="O76">
-        <v>0.96878598065162203</v>
+        <v>0.96971059646963997</v>
       </c>
       <c r="P76">
-        <v>0.97564460078577098</v>
+        <v>0.97543412008362396</v>
       </c>
       <c r="Q76">
-        <v>0.97002145431392095</v>
+        <v>0.97007504298137603</v>
       </c>
       <c r="R76">
-        <v>0.96658483132728701</v>
+        <v>0.96218771372637102</v>
       </c>
       <c r="S76">
-        <v>0.99150628790580797</v>
+        <v>0.98111382324258301</v>
       </c>
       <c r="T76">
-        <v>0.99150628790580797</v>
+        <v>0.98111382324258301</v>
       </c>
       <c r="U76">
-        <v>1.0033088543094499</v>
+        <v>0.99276803757173804</v>
       </c>
       <c r="V76">
-        <v>0.99549538754653599</v>
+        <v>0.98832048964124597</v>
       </c>
       <c r="W76">
-        <v>0.993626039843441</v>
+        <v>0.98231136671188002</v>
       </c>
       <c r="X76">
-        <v>0.98979060223404103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.97799454026411203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>1.0131800256247701</v>
+        <v>1.01830153627376</v>
       </c>
       <c r="B77">
-        <v>1.0131800256247701</v>
+        <v>1.01830153627376</v>
       </c>
       <c r="C77">
-        <v>0.97845034128666897</v>
+        <v>0.99003339022780801</v>
       </c>
       <c r="D77">
-        <v>0.99800749021524404</v>
+        <v>1.00760170036074</v>
       </c>
       <c r="E77">
-        <v>0.98689319680274401</v>
+        <v>0.99718616127233495</v>
       </c>
       <c r="F77">
-        <v>0.98624310834130502</v>
+        <v>0.995910885414245</v>
       </c>
       <c r="G77">
-        <v>1.01671167474362</v>
+        <v>1.02032620721038</v>
       </c>
       <c r="H77">
-        <v>1.01671167474362</v>
+        <v>1.02032620721038</v>
       </c>
       <c r="I77">
-        <v>1.0070436882810501</v>
+        <v>1.0124021409113599</v>
       </c>
       <c r="J77">
-        <v>1.0101521436987899</v>
+        <v>1.01562551243275</v>
       </c>
       <c r="K77">
-        <v>1.00566582618532</v>
+        <v>1.01209555242775</v>
       </c>
       <c r="L77">
-        <v>1.0026605646204301</v>
+        <v>1.00743726207977</v>
       </c>
       <c r="M77">
-        <v>0.96823702907072695</v>
+        <v>0.96354668016614398</v>
       </c>
       <c r="N77">
-        <v>0.96823702907072695</v>
+        <v>0.96354668016614398</v>
       </c>
       <c r="O77">
-        <v>0.952677332094235</v>
+        <v>0.94818518174482602</v>
       </c>
       <c r="P77">
-        <v>0.960569686053242</v>
+        <v>0.95790705905862505</v>
       </c>
       <c r="Q77">
-        <v>0.95598919082565303</v>
+        <v>0.95191411379742097</v>
       </c>
       <c r="R77">
-        <v>0.95463722818878405</v>
+        <v>0.94922026072840304</v>
       </c>
       <c r="S77">
-        <v>0.95791640164497005</v>
+        <v>0.95755525760117999</v>
       </c>
       <c r="T77">
-        <v>0.95791640164497005</v>
+        <v>0.95755525760117999</v>
       </c>
       <c r="U77">
-        <v>0.96279840966503405</v>
+        <v>0.96080865660896198</v>
       </c>
       <c r="V77">
-        <v>0.95800301861710502</v>
+        <v>0.95903033481403799</v>
       </c>
       <c r="W77">
-        <v>0.95929627003089102</v>
+        <v>0.95921827298289897</v>
       </c>
       <c r="X77">
-        <v>0.95792655144579797</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.95583054715453197</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>1.00507396312701</v>
+        <v>1.02235818279598</v>
       </c>
       <c r="B78">
-        <v>1.00507396312701</v>
+        <v>1.02235818279598</v>
       </c>
       <c r="C78">
-        <v>0.98315492601676502</v>
+        <v>1.00240909206412</v>
       </c>
       <c r="D78">
-        <v>0.99533558425860302</v>
+        <v>1.0162467110165201</v>
       </c>
       <c r="E78">
-        <v>0.987691544031437</v>
+        <v>1.00687109138228</v>
       </c>
       <c r="F78">
-        <v>0.99120940444690897</v>
+        <v>1.0061194315027699</v>
       </c>
       <c r="G78">
-        <v>1.0210133035705899</v>
+        <v>1.03762478845477</v>
       </c>
       <c r="H78">
-        <v>1.0210133035705899</v>
+        <v>1.03762478845477</v>
       </c>
       <c r="I78">
-        <v>1.02272207445459</v>
+        <v>1.0390687142941499</v>
       </c>
       <c r="J78">
-        <v>1.0232220326603501</v>
+        <v>1.04133905634256</v>
       </c>
       <c r="K78">
-        <v>1.0221491607820199</v>
+        <v>1.03860465047608</v>
       </c>
       <c r="L78">
-        <v>1.0123358132619</v>
+        <v>1.03160615627265</v>
       </c>
       <c r="M78">
-        <v>0.96823716617358502</v>
+        <v>0.96338926255113699</v>
       </c>
       <c r="N78">
-        <v>0.96823716617358502</v>
+        <v>0.96338926255113699</v>
       </c>
       <c r="O78">
-        <v>0.95859886439729503</v>
+        <v>0.95574220235610696</v>
       </c>
       <c r="P78">
-        <v>0.96371265160793096</v>
+        <v>0.96099056202664501</v>
       </c>
       <c r="Q78">
-        <v>0.96034193570631998</v>
+        <v>0.95691303605635403</v>
       </c>
       <c r="R78">
-        <v>0.96093041585379502</v>
+        <v>0.95476402418204298</v>
       </c>
       <c r="S78">
-        <v>0.97422975210422902</v>
+        <v>0.96964094850734694</v>
       </c>
       <c r="T78">
-        <v>0.97422975210422902</v>
+        <v>0.96964094850734694</v>
       </c>
       <c r="U78">
-        <v>0.98571333134958405</v>
+        <v>0.98022295466300002</v>
       </c>
       <c r="V78">
-        <v>0.98189560001267295</v>
+        <v>0.97793828106119596</v>
       </c>
       <c r="W78">
-        <v>0.98184837629501098</v>
+        <v>0.97605137447199797</v>
       </c>
       <c r="X78">
-        <v>0.97091101549473002</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.96715569546495805</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>1.0224111502250599</v>
+        <v>1.0335138380086499</v>
       </c>
       <c r="B79">
-        <v>1.0224111502250599</v>
+        <v>1.0335138380086499</v>
       </c>
       <c r="C79">
-        <v>0.99301750849141501</v>
+        <v>1.0088128246264501</v>
       </c>
       <c r="D79">
-        <v>1.0084547971203299</v>
+        <v>1.02469355390155</v>
       </c>
       <c r="E79">
-        <v>0.99833288857644198</v>
+        <v>1.0137341208125701</v>
       </c>
       <c r="F79">
-        <v>0.99656762806005506</v>
+        <v>1.0075252697683601</v>
       </c>
       <c r="G79">
-        <v>1.0394960189165301</v>
+        <v>1.0449460012588001</v>
       </c>
       <c r="H79">
-        <v>1.0394960189165301</v>
+        <v>1.0449460012588001</v>
       </c>
       <c r="I79">
-        <v>1.0352446706693601</v>
+        <v>1.0511198009932201</v>
       </c>
       <c r="J79">
-        <v>1.0398417020080499</v>
+        <v>1.05125431725604</v>
       </c>
       <c r="K79">
-        <v>1.0312012132449999</v>
+        <v>1.0476583686276699</v>
       </c>
       <c r="L79">
-        <v>1.0245363637491001</v>
+        <v>1.03673050831082</v>
       </c>
       <c r="M79">
-        <v>0.97411029213252898</v>
+        <v>0.96939524269213795</v>
       </c>
       <c r="N79">
-        <v>0.97411029213252898</v>
+        <v>0.96939524269213795</v>
       </c>
       <c r="O79">
-        <v>0.95898122256510299</v>
+        <v>0.95667884769814004</v>
       </c>
       <c r="P79">
-        <v>0.96636392520467795</v>
+        <v>0.96468511993197803</v>
       </c>
       <c r="Q79">
-        <v>0.96018990346960198</v>
+        <v>0.95838189390983697</v>
       </c>
       <c r="R79">
-        <v>0.95798598504161603</v>
+        <v>0.95348679681247595</v>
       </c>
       <c r="S79">
-        <v>0.97747212432165698</v>
+        <v>0.97011070067993799</v>
       </c>
       <c r="T79">
-        <v>0.97747212432165698</v>
+        <v>0.97011070067993799</v>
       </c>
       <c r="U79">
-        <v>0.98643240056711101</v>
+        <v>0.985806095762777</v>
       </c>
       <c r="V79">
-        <v>0.98317920434257799</v>
+        <v>0.97846648987554496</v>
       </c>
       <c r="W79">
-        <v>0.97964947898529797</v>
+        <v>0.978594518163447</v>
       </c>
       <c r="X79">
-        <v>0.97373325422416801</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.97085273932355598</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>1.0162274637848401</v>
+        <v>1.01548567603489</v>
       </c>
       <c r="B80">
-        <v>1.0162274637848401</v>
+        <v>1.01548567603489</v>
       </c>
       <c r="C80">
-        <v>0.990116157176406</v>
+        <v>0.99156726926941796</v>
       </c>
       <c r="D80">
-        <v>1.0056294551868501</v>
+        <v>1.0076571568706201</v>
       </c>
       <c r="E80">
-        <v>0.99399898609517201</v>
+        <v>0.99640506170860998</v>
       </c>
       <c r="F80">
-        <v>0.99247567731608999</v>
+        <v>0.99146598932429697</v>
       </c>
       <c r="G80">
-        <v>1.0310196454202201</v>
+        <v>1.0421115210496099</v>
       </c>
       <c r="H80">
-        <v>1.0310196454202201</v>
+        <v>1.0421115210496099</v>
       </c>
       <c r="I80">
-        <v>1.0201623333163501</v>
+        <v>1.0290842168233301</v>
       </c>
       <c r="J80">
-        <v>1.01928790179502</v>
+        <v>1.0321490655096801</v>
       </c>
       <c r="K80">
-        <v>1.0161811250655</v>
+        <v>1.02923516812954</v>
       </c>
       <c r="L80">
-        <v>1.01488951520488</v>
+        <v>1.02684022830503</v>
       </c>
       <c r="M80">
-        <v>0.96127541179263398</v>
+        <v>0.95398111878922798</v>
       </c>
       <c r="N80">
-        <v>0.96127541179263398</v>
+        <v>0.95398111878922798</v>
       </c>
       <c r="O80">
-        <v>0.95257401083853099</v>
+        <v>0.94368219614474202</v>
       </c>
       <c r="P80">
-        <v>0.95724166069232397</v>
+        <v>0.950410425933776</v>
       </c>
       <c r="Q80">
-        <v>0.95344642142798097</v>
+        <v>0.94572607816610699</v>
       </c>
       <c r="R80">
-        <v>0.95087262296869302</v>
+        <v>0.941868935055587</v>
       </c>
       <c r="S80">
-        <v>0.97823056811379905</v>
+        <v>0.97980757255760198</v>
       </c>
       <c r="T80">
-        <v>0.97823056811379905</v>
+        <v>0.97980757255760198</v>
       </c>
       <c r="U80">
-        <v>0.98386894633801403</v>
+        <v>0.98341745300148098</v>
       </c>
       <c r="V80">
-        <v>0.978873725330906</v>
+        <v>0.98211199615939604</v>
       </c>
       <c r="W80">
-        <v>0.98229709428781598</v>
+        <v>0.98421395267433698</v>
       </c>
       <c r="X80">
-        <v>0.97611896472689796</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.97502208717224403</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>1.0309423216339699</v>
+        <v>1.0366836890014799</v>
       </c>
       <c r="B81">
-        <v>1.0309423216339699</v>
+        <v>1.0366836890014799</v>
       </c>
       <c r="C81">
-        <v>1.0024408666770499</v>
+        <v>1.01110947468699</v>
       </c>
       <c r="D81">
-        <v>1.01728264200792</v>
+        <v>1.02763893844392</v>
       </c>
       <c r="E81">
-        <v>1.00810295286372</v>
+        <v>1.0169179566295199</v>
       </c>
       <c r="F81">
-        <v>1.0067111791063099</v>
+        <v>1.0139099343253899</v>
       </c>
       <c r="G81">
-        <v>1.0493191409317899</v>
+        <v>1.0407707664451</v>
       </c>
       <c r="H81">
-        <v>1.0493191409317899</v>
+        <v>1.0407707664451</v>
       </c>
       <c r="I81">
-        <v>1.0338849358276201</v>
+        <v>1.0244856903846</v>
       </c>
       <c r="J81">
-        <v>1.0397814553918301</v>
+        <v>1.0325242299910899</v>
       </c>
       <c r="K81">
-        <v>1.0328027680046801</v>
+        <v>1.0240852348573599</v>
       </c>
       <c r="L81">
-        <v>1.0327886420641901</v>
+        <v>1.0252572517907901</v>
       </c>
       <c r="M81">
-        <v>0.97881254364068804</v>
+        <v>0.96812588427397706</v>
       </c>
       <c r="N81">
-        <v>0.97881254364068804</v>
+        <v>0.96812588427397706</v>
       </c>
       <c r="O81">
-        <v>0.96466495087599102</v>
+        <v>0.95481754940618901</v>
       </c>
       <c r="P81">
-        <v>0.97145104173063901</v>
+        <v>0.96306568623197397</v>
       </c>
       <c r="Q81">
-        <v>0.96662158288373501</v>
+        <v>0.95691551071843095</v>
       </c>
       <c r="R81">
-        <v>0.96593087644020104</v>
+        <v>0.954480806915046</v>
       </c>
       <c r="S81">
-        <v>0.99356056522520897</v>
+        <v>0.97196165163344095</v>
       </c>
       <c r="T81">
-        <v>0.99356056522520897</v>
+        <v>0.97196165163344095</v>
       </c>
       <c r="U81">
-        <v>0.99692231652075602</v>
+        <v>0.97011801425075495</v>
       </c>
       <c r="V81">
-        <v>0.99353994081124997</v>
+        <v>0.97200821365102297</v>
       </c>
       <c r="W81">
-        <v>0.99280917371308997</v>
+        <v>0.96856439499136204</v>
       </c>
       <c r="X81">
-        <v>0.98893680142261997</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.96607058638639298</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>1.05174102151896</v>
+        <v>1.0636802859066701</v>
       </c>
       <c r="B82">
-        <v>1.05174102151896</v>
+        <v>1.0636802859066701</v>
       </c>
       <c r="C82">
-        <v>1.0444758620918499</v>
+        <v>1.05795632357285</v>
       </c>
       <c r="D82">
-        <v>1.0448544113037599</v>
+        <v>1.0603109027991</v>
       </c>
       <c r="E82">
-        <v>1.03037520472071</v>
+        <v>1.0456145559727701</v>
       </c>
       <c r="F82">
-        <v>1.0291193567534</v>
+        <v>1.0436028521476199</v>
       </c>
       <c r="G82">
-        <v>1.05497500535837</v>
+        <v>1.03593183991381</v>
       </c>
       <c r="H82">
-        <v>1.05497500535837</v>
+        <v>1.03593183991381</v>
       </c>
       <c r="I82">
-        <v>1.1262171718183001</v>
+        <v>1.1137815789732599</v>
       </c>
       <c r="J82">
-        <v>1.0965146175006799</v>
+        <v>1.08891968912496</v>
       </c>
       <c r="K82">
-        <v>1.05186979921289</v>
+        <v>1.0416859877707001</v>
       </c>
       <c r="L82">
-        <v>1.0414759033494601</v>
+        <v>1.0272933680420999</v>
       </c>
       <c r="M82">
-        <v>0.96822892034051899</v>
+        <v>0.96216646831848196</v>
       </c>
       <c r="N82">
-        <v>0.96822892034051899</v>
+        <v>0.96216646831848196</v>
       </c>
       <c r="O82">
-        <v>0.95932940822211599</v>
+        <v>0.95518036205566104</v>
       </c>
       <c r="P82">
-        <v>0.96205623342476998</v>
+        <v>0.95822988504798401</v>
       </c>
       <c r="Q82">
-        <v>0.95723987587346204</v>
+        <v>0.95224505876180598</v>
       </c>
       <c r="R82">
-        <v>0.95392529770095902</v>
+        <v>0.94926797217370895</v>
       </c>
       <c r="S82">
-        <v>0.97834756210384499</v>
+        <v>0.96575036198128095</v>
       </c>
       <c r="T82">
-        <v>0.97834756210384499</v>
+        <v>0.96575036198128095</v>
       </c>
       <c r="U82">
-        <v>1.0171894717748</v>
+        <v>0.99676772064296504</v>
       </c>
       <c r="V82">
-        <v>0.99280943172671499</v>
+        <v>0.98281300020075901</v>
       </c>
       <c r="W82">
-        <v>0.98094819308900105</v>
+        <v>0.96714660369233496</v>
       </c>
       <c r="X82">
-        <v>0.973748642730355</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.96023329877665797</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>1.0426607417362801</v>
+        <v>1.04924321854866</v>
       </c>
       <c r="B83">
-        <v>1.0426607417362801</v>
+        <v>1.04924321854866</v>
       </c>
       <c r="C83">
-        <v>1.0136320449640699</v>
+        <v>1.0193821959548499</v>
       </c>
       <c r="D83">
-        <v>1.0352852077427801</v>
+        <v>1.04303500683482</v>
       </c>
       <c r="E83">
-        <v>1.00896361148915</v>
+        <v>1.0133556703787301</v>
       </c>
       <c r="F83">
-        <v>1.0127029579894899</v>
+        <v>1.01750707878977</v>
       </c>
       <c r="G83">
-        <v>1.0538213328959201</v>
+        <v>1.05963202843695</v>
       </c>
       <c r="H83">
-        <v>1.0538213328959201</v>
+        <v>1.05963202843695</v>
       </c>
       <c r="I83">
-        <v>1.05854373081647</v>
+        <v>1.06152772621008</v>
       </c>
       <c r="J83">
-        <v>1.0523330797903601</v>
+        <v>1.0612284229553299</v>
       </c>
       <c r="K83">
-        <v>1.0653013676829399</v>
+        <v>1.06646001665551</v>
       </c>
       <c r="L83">
-        <v>1.0310123548888599</v>
+        <v>1.0367844386729199</v>
       </c>
       <c r="M83">
-        <v>0.98265596577237602</v>
+        <v>0.97996024554522898</v>
       </c>
       <c r="N83">
-        <v>0.98265596577237602</v>
+        <v>0.97996024554522898</v>
       </c>
       <c r="O83">
-        <v>0.97143186498261302</v>
+        <v>0.96560845221922598</v>
       </c>
       <c r="P83">
-        <v>0.98054911126452005</v>
+        <v>0.97725243249171101</v>
       </c>
       <c r="Q83">
-        <v>0.97049416950589296</v>
+        <v>0.96291372599685998</v>
       </c>
       <c r="R83">
-        <v>0.96487261872963903</v>
+        <v>0.95770752412968996</v>
       </c>
       <c r="S83">
-        <v>0.99708083743606801</v>
+        <v>0.99379484578862498</v>
       </c>
       <c r="T83">
-        <v>0.99708083743606801</v>
+        <v>0.99379484578862498</v>
       </c>
       <c r="U83">
-        <v>1.0163937176528099</v>
+        <v>1.0087968815578401</v>
       </c>
       <c r="V83">
-        <v>1.0077100109886099</v>
+        <v>1.0026932394581001</v>
       </c>
       <c r="W83">
-        <v>1.0218145000777199</v>
+        <v>1.01062140929454</v>
       </c>
       <c r="X83">
-        <v>0.99283441573954101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.98470888007272395</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>1.0295564422675201</v>
+        <v>1.0363282710995001</v>
       </c>
       <c r="B84">
-        <v>1.0295564422675201</v>
+        <v>1.0363282710995001</v>
       </c>
       <c r="C84">
-        <v>1.00762050483778</v>
+        <v>1.01204765815248</v>
       </c>
       <c r="D84">
-        <v>1.0248828014653399</v>
+        <v>1.0313720328817499</v>
       </c>
       <c r="E84">
-        <v>1.0036819055444499</v>
+        <v>1.0056941645775199</v>
       </c>
       <c r="F84">
-        <v>1.00755737473438</v>
+        <v>1.0140232073792701</v>
       </c>
       <c r="G84">
-        <v>1.0459862735694101</v>
+        <v>1.0509995717528999</v>
       </c>
       <c r="H84">
-        <v>1.0459862735694101</v>
+        <v>1.0509995717528999</v>
       </c>
       <c r="I84">
-        <v>1.0563808835358299</v>
+        <v>1.06247197657156</v>
       </c>
       <c r="J84">
-        <v>1.05040893519795</v>
+        <v>1.05370669361658</v>
       </c>
       <c r="K84">
-        <v>1.0632577835016499</v>
+        <v>1.0704018187092901</v>
       </c>
       <c r="L84">
-        <v>1.0277680572380501</v>
+        <v>1.0351694027846501</v>
       </c>
       <c r="M84">
-        <v>0.98472518098205897</v>
+        <v>0.97925309251175396</v>
       </c>
       <c r="N84">
-        <v>0.98472518098205897</v>
+        <v>0.97925309251175396</v>
       </c>
       <c r="O84">
-        <v>0.97478920609303099</v>
+        <v>0.96655228467189502</v>
       </c>
       <c r="P84">
-        <v>0.98271995631669495</v>
+        <v>0.97646314751901797</v>
       </c>
       <c r="Q84">
-        <v>0.97363787470893304</v>
+        <v>0.96381060157342002</v>
       </c>
       <c r="R84">
-        <v>0.97052727029472796</v>
+        <v>0.96306226996184896</v>
       </c>
       <c r="S84">
-        <v>0.98502595440649898</v>
+        <v>0.98416486247937096</v>
       </c>
       <c r="T84">
-        <v>0.98502595440649898</v>
+        <v>0.98416486247937096</v>
       </c>
       <c r="U84">
-        <v>1.0067515297326499</v>
+        <v>1.0017974792398601</v>
       </c>
       <c r="V84">
-        <v>0.996037008396362</v>
+        <v>0.99371743804437096</v>
       </c>
       <c r="W84">
-        <v>1.01577846811576</v>
+        <v>1.0055367525001699</v>
       </c>
       <c r="X84">
-        <v>0.98063371441813796</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.97642991061628204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>1.02053619808875</v>
+        <v>1.0275652645506399</v>
       </c>
       <c r="B85">
-        <v>1.02053619808875</v>
+        <v>1.0275652645506399</v>
       </c>
       <c r="C85">
-        <v>0.99644048377735905</v>
+        <v>1.00391114519475</v>
       </c>
       <c r="D85">
-        <v>1.0139714806656599</v>
+        <v>1.0222263946491901</v>
       </c>
       <c r="E85">
-        <v>0.99114917772313904</v>
+        <v>0.99652277905825304</v>
       </c>
       <c r="F85">
-        <v>0.99426216462077699</v>
+        <v>1.00138508324275</v>
       </c>
       <c r="G85">
-        <v>1.0320237830860799</v>
+        <v>1.0348015809528199</v>
       </c>
       <c r="H85">
-        <v>1.0320237830860799</v>
+        <v>1.0348015809528199</v>
       </c>
       <c r="I85">
-        <v>1.03937149945705</v>
+        <v>1.0485050975753201</v>
       </c>
       <c r="J85">
-        <v>1.0313990041815899</v>
+        <v>1.03849988432072</v>
       </c>
       <c r="K85">
-        <v>1.04971634495803</v>
+        <v>1.05908008066675</v>
       </c>
       <c r="L85">
-        <v>1.01490510876895</v>
+        <v>1.0213302663796999</v>
       </c>
       <c r="M85">
-        <v>0.97819285533854605</v>
+        <v>0.97000154433855601</v>
       </c>
       <c r="N85">
-        <v>0.97819285533854605</v>
+        <v>0.97000154433855601</v>
       </c>
       <c r="O85">
-        <v>0.96521567792859397</v>
+        <v>0.95746574529725104</v>
       </c>
       <c r="P85">
-        <v>0.97453613859924304</v>
+        <v>0.96744697611923003</v>
       </c>
       <c r="Q85">
-        <v>0.96098452966283798</v>
+        <v>0.95140592910620803</v>
       </c>
       <c r="R85">
-        <v>0.958193819830087</v>
+        <v>0.947350631753067</v>
       </c>
       <c r="S85">
-        <v>0.98463335018496401</v>
+        <v>0.97875496161181796</v>
       </c>
       <c r="T85">
-        <v>0.98463335018496401</v>
+        <v>0.97875496161181796</v>
       </c>
       <c r="U85">
-        <v>1.00020835826763</v>
+        <v>0.99255835501621603</v>
       </c>
       <c r="V85">
-        <v>0.99291760096402604</v>
+        <v>0.98718901917867397</v>
       </c>
       <c r="W85">
-        <v>1.0087916549867399</v>
+        <v>0.99573269530331798</v>
       </c>
       <c r="X85">
-        <v>0.97789183167604998</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.96939907653250001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>1.0505664346430099</v>
+        <v>1.06342384762855</v>
       </c>
       <c r="B86">
-        <v>1.0505664346430099</v>
+        <v>1.06342384762855</v>
       </c>
       <c r="C86">
-        <v>1.0230775692347001</v>
+        <v>1.0373405612425199</v>
       </c>
       <c r="D86">
-        <v>1.03985805530376</v>
+        <v>1.0545327910337801</v>
       </c>
       <c r="E86">
-        <v>1.02620606747305</v>
+        <v>1.0415036087160601</v>
       </c>
       <c r="F86">
-        <v>1.0251879128513499</v>
+        <v>1.0412519854973199</v>
       </c>
       <c r="G86">
-        <v>1.0648547195887601</v>
+        <v>1.07935177694652</v>
       </c>
       <c r="H86">
-        <v>1.0648547195887601</v>
+        <v>1.07935177694652</v>
       </c>
       <c r="I86">
-        <v>1.06327213322631</v>
+        <v>1.0830493988010901</v>
       </c>
       <c r="J86">
-        <v>1.0679474776679101</v>
+        <v>1.0839544821846201</v>
       </c>
       <c r="K86">
-        <v>1.05736438423891</v>
+        <v>1.0781723198661399</v>
       </c>
       <c r="L86">
-        <v>1.0451894588972399</v>
+        <v>1.06465393490825</v>
       </c>
       <c r="M86">
-        <v>0.97773120699063698</v>
+        <v>0.97248215234522695</v>
       </c>
       <c r="N86">
-        <v>0.97773120699063698</v>
+        <v>0.97248215234522695</v>
       </c>
       <c r="O86">
-        <v>0.96846416819863401</v>
+        <v>0.959863316304992</v>
       </c>
       <c r="P86">
-        <v>0.97455340759639297</v>
+        <v>0.96910781243807798</v>
       </c>
       <c r="Q86">
-        <v>0.96963376142192204</v>
+        <v>0.96167179585130402</v>
       </c>
       <c r="R86">
-        <v>0.96581427027801303</v>
+        <v>0.95604633412653295</v>
       </c>
       <c r="S86">
-        <v>0.99129916631734005</v>
+        <v>0.98836053691280101</v>
       </c>
       <c r="T86">
-        <v>0.99129916631734005</v>
+        <v>0.98836053691280101</v>
       </c>
       <c r="U86">
-        <v>1.0054811349464301</v>
+        <v>1.0015174832314799</v>
       </c>
       <c r="V86">
-        <v>1.0028374934531401</v>
+        <v>0.99814576856278803</v>
       </c>
       <c r="W86">
-        <v>0.99847502009542399</v>
+        <v>0.99367651033605897</v>
       </c>
       <c r="X86">
-        <v>0.98726700366704201</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.981855966012258</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>1.0502368053053699</v>
+        <v>1.05927279350352</v>
       </c>
       <c r="B87">
-        <v>1.0502368053053699</v>
+        <v>1.05927279350352</v>
       </c>
       <c r="C87">
-        <v>1.0225705644454699</v>
+        <v>1.0341857723635901</v>
       </c>
       <c r="D87">
-        <v>1.0400375944576701</v>
+        <v>1.04979389569883</v>
       </c>
       <c r="E87">
-        <v>1.0274468857894401</v>
+        <v>1.03840021321734</v>
       </c>
       <c r="F87">
-        <v>1.0244091959902899</v>
+        <v>1.0367009992399501</v>
       </c>
       <c r="G87">
-        <v>1.06111725505534</v>
+        <v>1.0625503966687</v>
       </c>
       <c r="H87">
-        <v>1.06111725505534</v>
+        <v>1.0625503966687</v>
       </c>
       <c r="I87">
-        <v>1.0528058161118801</v>
+        <v>1.054506178412</v>
       </c>
       <c r="J87">
-        <v>1.0595328621209601</v>
+        <v>1.0596812854365101</v>
       </c>
       <c r="K87">
-        <v>1.0489278587498201</v>
+        <v>1.0515182271811401</v>
       </c>
       <c r="L87">
-        <v>1.0416594097113201</v>
+        <v>1.04975510628957</v>
       </c>
       <c r="M87">
-        <v>0.98304282972979695</v>
+        <v>0.97448865717725497</v>
       </c>
       <c r="N87">
-        <v>0.98304282972979695</v>
+        <v>0.97448865717725497</v>
       </c>
       <c r="O87">
-        <v>0.97557355476824703</v>
+        <v>0.96613817553168302</v>
       </c>
       <c r="P87">
-        <v>0.98065815263201905</v>
+        <v>0.97247006545556203</v>
       </c>
       <c r="Q87">
-        <v>0.97594022799463898</v>
+        <v>0.96670002196983895</v>
       </c>
       <c r="R87">
-        <v>0.97062867543035403</v>
+        <v>0.95944338908277904</v>
       </c>
       <c r="S87">
-        <v>0.986223512182272</v>
+        <v>0.97397588008881297</v>
       </c>
       <c r="T87">
-        <v>0.986223512182272</v>
+        <v>0.97397588008881297</v>
       </c>
       <c r="U87">
-        <v>1.0002339842057999</v>
+        <v>0.97804101569820501</v>
       </c>
       <c r="V87">
-        <v>0.99880600781156303</v>
+        <v>0.982176068235601</v>
       </c>
       <c r="W87">
-        <v>0.99263527324789902</v>
+        <v>0.97210978713114604</v>
       </c>
       <c r="X87">
-        <v>0.98387139241067301</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.96643910937088795</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>1.04796891907734</v>
+        <v>1.05831281029714</v>
       </c>
       <c r="B88">
-        <v>1.04796891907734</v>
+        <v>1.05831281029714</v>
       </c>
       <c r="C88">
-        <v>1.0179469971862301</v>
+        <v>1.02646530924165</v>
       </c>
       <c r="D88">
-        <v>1.03699564877065</v>
+        <v>1.04724379020975</v>
       </c>
       <c r="E88">
-        <v>1.0233113732526899</v>
+        <v>1.0333210388151499</v>
       </c>
       <c r="F88">
-        <v>1.0210175882301999</v>
+        <v>1.0319676213971101</v>
       </c>
       <c r="G88">
-        <v>1.0556369183096801</v>
+        <v>1.06994503419704</v>
       </c>
       <c r="H88">
-        <v>1.0556369183096801</v>
+        <v>1.06994503419704</v>
       </c>
       <c r="I88">
-        <v>1.0462045170275101</v>
+        <v>1.0568112115325801</v>
       </c>
       <c r="J88">
-        <v>1.0576901072465601</v>
+        <v>1.07175060660333</v>
       </c>
       <c r="K88">
-        <v>1.0411386886062099</v>
+        <v>1.05354269100895</v>
       </c>
       <c r="L88">
-        <v>1.0346887173549999</v>
+        <v>1.0474496365505599</v>
       </c>
       <c r="M88">
-        <v>0.97659243218788805</v>
+        <v>0.96789112671904498</v>
       </c>
       <c r="N88">
-        <v>0.97659243218788805</v>
+        <v>0.96789112671904498</v>
       </c>
       <c r="O88">
-        <v>0.96786690343778004</v>
+        <v>0.95678224395715095</v>
       </c>
       <c r="P88">
-        <v>0.97390855633266404</v>
+        <v>0.96472574564076796</v>
       </c>
       <c r="Q88">
-        <v>0.96853880324299801</v>
+        <v>0.95840055521790801</v>
       </c>
       <c r="R88">
-        <v>0.96421888225312002</v>
+        <v>0.95223139005288004</v>
       </c>
       <c r="S88">
-        <v>0.97563532502241501</v>
+        <v>0.974816263605494</v>
       </c>
       <c r="T88">
-        <v>0.97563532502241501</v>
+        <v>0.974816263605494</v>
       </c>
       <c r="U88">
-        <v>0.98578865805793103</v>
+        <v>0.98120435830644803</v>
       </c>
       <c r="V88">
-        <v>0.98312161131674702</v>
+        <v>0.98536358813955804</v>
       </c>
       <c r="W88">
-        <v>0.97842419948910397</v>
+        <v>0.97416175897819701</v>
       </c>
       <c r="X88">
-        <v>0.97273493933023103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.96625670290340004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>1.04336905951587</v>
+        <v>1.0558735593189601</v>
       </c>
       <c r="B89">
-        <v>1.04336905951587</v>
+        <v>1.0558735593189601</v>
       </c>
       <c r="C89">
-        <v>1.0138157265968399</v>
+        <v>1.0253738468178399</v>
       </c>
       <c r="D89">
-        <v>1.0318293203098201</v>
+        <v>1.0443496490436599</v>
       </c>
       <c r="E89">
-        <v>1.01919171397301</v>
+        <v>1.0312593513397901</v>
       </c>
       <c r="F89">
-        <v>1.0197890395</v>
+        <v>1.02905984218324</v>
       </c>
       <c r="G89">
-        <v>1.0470099783589999</v>
+        <v>1.0648946640243799</v>
       </c>
       <c r="H89">
-        <v>1.0470099783589999</v>
+        <v>1.0648946640243799</v>
       </c>
       <c r="I89">
-        <v>1.04327303210205</v>
+        <v>1.0590162563926</v>
       </c>
       <c r="J89">
-        <v>1.0510063884745999</v>
+        <v>1.06779986645875</v>
       </c>
       <c r="K89">
-        <v>1.04279814620693</v>
+        <v>1.05763384292592</v>
       </c>
       <c r="L89">
-        <v>1.0293494815715301</v>
+        <v>1.0414048041583599</v>
       </c>
       <c r="M89">
-        <v>0.97838651081220895</v>
+        <v>0.97349298507952897</v>
       </c>
       <c r="N89">
-        <v>0.97838651081220895</v>
+        <v>0.97349298507952897</v>
       </c>
       <c r="O89">
-        <v>0.97104223658833</v>
+        <v>0.96234312173619396</v>
       </c>
       <c r="P89">
-        <v>0.97546335206437296</v>
+        <v>0.97013078047547796</v>
       </c>
       <c r="Q89">
-        <v>0.97185205522870799</v>
+        <v>0.96447009634495395</v>
       </c>
       <c r="R89">
-        <v>0.97053911775826995</v>
+        <v>0.96088024030074604</v>
       </c>
       <c r="S89">
-        <v>0.97520148539296203</v>
+        <v>0.97586061290130899</v>
       </c>
       <c r="T89">
-        <v>0.97520148539296203</v>
+        <v>0.97586061290130899</v>
       </c>
       <c r="U89">
-        <v>0.98607077994957604</v>
+        <v>0.98577936875321603</v>
       </c>
       <c r="V89">
-        <v>0.98177107981190304</v>
+        <v>0.98438064839228201</v>
       </c>
       <c r="W89">
-        <v>0.98255202674966102</v>
+        <v>0.98121036842818299</v>
       </c>
       <c r="X89">
-        <v>0.97101788374819997</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.96883164182660897</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>1.05134468022273</v>
+        <v>1.06876081204923</v>
       </c>
       <c r="B90">
-        <v>1.05134468022273</v>
+        <v>1.06876081204923</v>
       </c>
       <c r="C90">
-        <v>1.0214441065575199</v>
+        <v>1.0357617287263701</v>
       </c>
       <c r="D90">
-        <v>1.0399827653587601</v>
+        <v>1.0569590483029301</v>
       </c>
       <c r="E90">
-        <v>1.02575300408307</v>
+        <v>1.04089378456125</v>
       </c>
       <c r="F90">
-        <v>1.0243985914250799</v>
+        <v>1.0379323705344801</v>
       </c>
       <c r="G90">
-        <v>1.0533660871782899</v>
+        <v>1.0809607323094801</v>
       </c>
       <c r="H90">
-        <v>1.0533660871782899</v>
+        <v>1.0809607323094801</v>
       </c>
       <c r="I90">
-        <v>1.0423747894251401</v>
+        <v>1.06259969491096</v>
       </c>
       <c r="J90">
-        <v>1.0519862688352799</v>
+        <v>1.0739016720004899</v>
       </c>
       <c r="K90">
-        <v>1.0408405172814199</v>
+        <v>1.0627919474818099</v>
       </c>
       <c r="L90">
-        <v>1.0337950736389001</v>
+        <v>1.06049195265039</v>
       </c>
       <c r="M90">
-        <v>0.97481316800637696</v>
+        <v>0.968612909429166</v>
       </c>
       <c r="N90">
-        <v>0.97481316800637696</v>
+        <v>0.968612909429166</v>
       </c>
       <c r="O90">
-        <v>0.96477961754234398</v>
+        <v>0.95622704668462599</v>
       </c>
       <c r="P90">
-        <v>0.97104171934890804</v>
+        <v>0.96464046173253304</v>
       </c>
       <c r="Q90">
-        <v>0.96522915351790595</v>
+        <v>0.95742719928886999</v>
       </c>
       <c r="R90">
-        <v>0.96150990789002899</v>
+        <v>0.950707743161055</v>
       </c>
       <c r="S90">
-        <v>0.98344995150215198</v>
+        <v>0.98065879526145305</v>
       </c>
       <c r="T90">
-        <v>0.98344995150215198</v>
+        <v>0.98065879526145305</v>
       </c>
       <c r="U90">
-        <v>0.98615046603713796</v>
+        <v>0.97885368138308304</v>
       </c>
       <c r="V90">
-        <v>0.98526030703910406</v>
+        <v>0.98415653699998396</v>
       </c>
       <c r="W90">
-        <v>0.98106996109261202</v>
+        <v>0.97595815406504005</v>
       </c>
       <c r="X90">
-        <v>0.97659216893071799</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.96871024652161497</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>1.04490637148503</v>
+        <v>1.0511086357964301</v>
       </c>
       <c r="B91">
-        <v>1.04490637148503</v>
+        <v>1.0511086357964301</v>
       </c>
       <c r="C91">
-        <v>1.0023236693583</v>
+        <v>1.01040284836033</v>
       </c>
       <c r="D91">
-        <v>1.02808639776878</v>
+        <v>1.03527209147726</v>
       </c>
       <c r="E91">
-        <v>1.01229512223181</v>
+        <v>1.0206144436697999</v>
       </c>
       <c r="F91">
-        <v>1.0086506634752499</v>
+        <v>1.01825483184581</v>
       </c>
       <c r="G91">
-        <v>1.04146451153126</v>
+        <v>1.0545882641145901</v>
       </c>
       <c r="H91">
-        <v>1.04146451153126</v>
+        <v>1.0545882641145901</v>
       </c>
       <c r="I91">
-        <v>1.0356472026366601</v>
+        <v>1.0480251731076999</v>
       </c>
       <c r="J91">
-        <v>1.0388303892711099</v>
+        <v>1.0497346934029199</v>
       </c>
       <c r="K91">
-        <v>1.03065086942204</v>
+        <v>1.0435055630405099</v>
       </c>
       <c r="L91">
-        <v>1.02206169586435</v>
+        <v>1.03607986313015</v>
       </c>
       <c r="M91">
-        <v>0.97141543769482797</v>
+        <v>0.96123316049169005</v>
       </c>
       <c r="N91">
-        <v>0.97141543769482797</v>
+        <v>0.96123316049169005</v>
       </c>
       <c r="O91">
-        <v>0.95711171124939798</v>
+        <v>0.94435979269345205</v>
       </c>
       <c r="P91">
-        <v>0.96540356637591695</v>
+        <v>0.95505579803933305</v>
       </c>
       <c r="Q91">
-        <v>0.95954507057528404</v>
+        <v>0.94824659657461097</v>
       </c>
       <c r="R91">
-        <v>0.95666070952213</v>
+        <v>0.944182332805098</v>
       </c>
       <c r="S91">
-        <v>0.97051778292820601</v>
+        <v>0.96777864526236901</v>
       </c>
       <c r="T91">
-        <v>0.97051778292820601</v>
+        <v>0.96777864526236901</v>
       </c>
       <c r="U91">
-        <v>0.98248300371686903</v>
+        <v>0.97777525468834403</v>
       </c>
       <c r="V91">
-        <v>0.97661139024759203</v>
+        <v>0.97458582748436295</v>
       </c>
       <c r="W91">
-        <v>0.97241430379502203</v>
+        <v>0.969303522749416</v>
       </c>
       <c r="X91">
-        <v>0.96473723077146301</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.96252032837815904</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>0.98580504083140097</v>
       </c>
@@ -7293,7 +7294,7 @@
         <v>0.950471282950895</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>1.02746312109946</v>
       </c>
@@ -7367,7 +7368,7 @@
         <v>0.95860466675810196</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>1.00130815344761</v>
       </c>
@@ -7441,7 +7442,7 @@
         <v>0.953875626752691</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>1.01664716613923</v>
       </c>
@@ -7515,7 +7516,7 @@
         <v>0.97352448716250495</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>1.0263586381618599</v>
       </c>
@@ -7589,7 +7590,7 @@
         <v>0.94493633959134204</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>1.0286434246142899</v>
       </c>
@@ -7663,7 +7664,7 @@
         <v>0.966182003411723</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>1.0447327925936201</v>
       </c>
@@ -7737,7 +7738,7 @@
         <v>0.96627914526071501</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>1.03122805923482</v>
       </c>
@@ -7811,7 +7812,7 @@
         <v>0.95144534012350102</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>1.0403985616481499</v>
       </c>
@@ -7885,7 +7886,7 @@
         <v>0.96888215336924799</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>1.0473166651355701</v>
       </c>
@@ -7959,7 +7960,7 @@
         <v>0.97475375101341399</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>1.05033919938249</v>
       </c>
@@ -8033,7 +8034,7 @@
         <v>0.96075344197528101</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>1.0371047387700401</v>
       </c>
@@ -8107,7 +8108,7 @@
         <v>0.97729589046180798</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>1.0174832967782499</v>
       </c>
@@ -8181,7 +8182,7 @@
         <v>0.96655177234785306</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>1.01715645355712</v>
       </c>
@@ -8255,7 +8256,7 @@
         <v>0.955745557002873</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>1.0120410167812799</v>
       </c>
@@ -8329,7 +8330,7 @@
         <v>0.97491478181319802</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>1.0165771098854699</v>
       </c>
@@ -8403,7 +8404,7 @@
         <v>0.96231705060418404</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>1.0091011985537</v>
       </c>
@@ -8477,7 +8478,7 @@
         <v>0.97367626781396899</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>1.0198068818472901</v>
       </c>
@@ -8551,7 +8552,7 @@
         <v>0.96226613839442099</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>1.02065988512823</v>
       </c>
@@ -8625,7 +8626,7 @@
         <v>0.97315366204832099</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>1.01547195304612</v>
       </c>
@@ -8699,7 +8700,7 @@
         <v>0.97159800930670603</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>1.0365885612886501</v>
       </c>
@@ -8773,7 +8774,7 @@
         <v>0.96832189466545804</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>1.02653953921513</v>
       </c>
@@ -8847,7 +8848,7 @@
         <v>0.98147932540974603</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>1.0205423283936901</v>
       </c>
@@ -8921,7 +8922,7 @@
         <v>0.98620894252756497</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>1.0096993035433099</v>
       </c>
@@ -8995,7 +8996,7 @@
         <v>0.97119244324915399</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>1.0599678438170801</v>
       </c>
@@ -9069,7 +9070,7 @@
         <v>0.96949825941298995</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>1.04585006826004</v>
       </c>
@@ -9143,7 +9144,7 @@
         <v>0.96096158135755605</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>1.03021729381727</v>
       </c>
@@ -9217,7 +9218,7 @@
         <v>0.94865399852524901</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>1.0454317917292899</v>
       </c>
@@ -9291,7 +9292,7 @@
         <v>0.95063444549072496</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>1.04715410037977</v>
       </c>
@@ -9365,7 +9366,7 @@
         <v>0.96454147902132803</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>1.0368747482804199</v>
       </c>
